--- a/BritishAssociationReports/BAAS_Inspections.xlsx
+++ b/BritishAssociationReports/BAAS_Inspections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\SymonsInspections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73650686-3CDF-490B-B90E-15C91D022F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0BB45-5D62-42D8-9642-8A79D44BEE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{165AC260-63B9-4BEA-BDF9-867FB820D959}"/>
   </bookViews>
@@ -18,12 +18,12 @@
     <sheet name="County counts" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inspection details'!$A$1:$M$656</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inspection details'!$A$1:$N$656</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="255">
   <si>
     <t>Report year</t>
   </si>
@@ -781,6 +781,36 @@
   <si>
     <t>RR Assignments</t>
   </si>
+  <si>
+    <t>Maker's Name</t>
+  </si>
+  <si>
+    <t>Mr S.Marshall</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Casella</t>
+  </si>
+  <si>
+    <t>Negretti &amp; Zambra</t>
+  </si>
+  <si>
+    <t>Marshall &amp; Co</t>
+  </si>
+  <si>
+    <t>Cooke</t>
+  </si>
+  <si>
+    <t>Casartelli</t>
+  </si>
+  <si>
+    <t>Anon</t>
+  </si>
+  <si>
+    <t>Pastorelli</t>
+  </si>
 </sst>
 </file>
 
@@ -852,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -861,9 +891,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,7 +963,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Richard" refreshedDate="45798.676193402775" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="656" xr:uid="{1CF4FC07-1D96-446D-94CD-F1AEBCE8AA15}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M1048576" sheet="Inspection details"/>
+    <worksheetSource ref="A1:N1048576" sheet="Inspection details"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="Ref. No." numFmtId="0">
@@ -14330,7 +14357,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A38ECAE7-D632-4441-B165-31B1A98EF597}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A38ECAE7-D632-4441-B165-31B1A98EF597}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C61" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -14952,11 +14979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AA1273-5343-4DFA-8D07-BD26A34194CF}">
-  <dimension ref="A1:M656"/>
+  <dimension ref="A1:N656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A611" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K636" sqref="K636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14970,12 +14997,13 @@
     <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.28515625" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="89" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.28515625" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="89" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -15007,16 +15035,19 @@
         <v>103</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15045,16 +15076,19 @@
         <v>107</v>
       </c>
       <c r="K2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15076,12 +15110,12 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15103,12 +15137,12 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15130,12 +15164,12 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15157,12 +15191,12 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15184,12 +15218,12 @@
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15211,12 +15245,12 @@
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15238,12 +15272,12 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15265,12 +15299,12 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15292,12 +15326,12 @@
       <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15319,12 +15353,12 @@
       <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15346,12 +15380,12 @@
       <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15373,9 +15407,9 @@
       <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15397,9 +15431,9 @@
       <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15421,9 +15455,9 @@
       <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15445,9 +15479,9 @@
       <c r="G17" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15469,9 +15503,9 @@
       <c r="G18" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15493,9 +15527,9 @@
       <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15517,9 +15551,9 @@
       <c r="G20" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15541,12 +15575,12 @@
       <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15568,9 +15602,9 @@
       <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15592,9 +15626,9 @@
       <c r="G23" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15616,9 +15650,9 @@
       <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15640,9 +15674,9 @@
       <c r="G25" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15664,9 +15698,9 @@
       <c r="G26" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15688,9 +15722,9 @@
       <c r="G27" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15712,9 +15746,9 @@
       <c r="G28" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15736,9 +15770,9 @@
       <c r="G29" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15760,9 +15794,9 @@
       <c r="G30" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15784,9 +15818,9 @@
       <c r="G31" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15808,9 +15842,9 @@
       <c r="G32" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15832,9 +15866,9 @@
       <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15863,16 +15897,19 @@
         <v>111</v>
       </c>
       <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15900,11 +15937,14 @@
       <c r="J35" t="s">
         <v>116</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="K35" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15920,7 +15960,7 @@
       <c r="E36">
         <v>14</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" t="s">
         <v>43</v>
       </c>
       <c r="G36" t="s">
@@ -15933,13 +15973,16 @@
         <v>119</v>
       </c>
       <c r="K36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" t="s">
         <v>120</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15968,13 +16011,16 @@
         <v>123</v>
       </c>
       <c r="K37" t="s">
+        <v>247</v>
+      </c>
+      <c r="L37" t="s">
         <v>124</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15996,9 +16042,9 @@
       <c r="G38" t="s">
         <v>14</v>
       </c>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16020,9 +16066,9 @@
       <c r="G39" t="s">
         <v>14</v>
       </c>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16051,13 +16097,16 @@
         <v>144</v>
       </c>
       <c r="K40" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" t="s">
         <v>145</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16086,13 +16135,16 @@
         <v>148</v>
       </c>
       <c r="K41" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" t="s">
         <v>149</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16121,13 +16173,16 @@
         <v>152</v>
       </c>
       <c r="K42" t="s">
+        <v>248</v>
+      </c>
+      <c r="L42" t="s">
         <v>153</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16149,9 +16204,9 @@
       <c r="G43" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -16173,9 +16228,9 @@
       <c r="G44" t="s">
         <v>14</v>
       </c>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -16197,9 +16252,9 @@
       <c r="G45" t="s">
         <v>14</v>
       </c>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16221,9 +16276,9 @@
       <c r="G46" t="s">
         <v>14</v>
       </c>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16245,9 +16300,9 @@
       <c r="G47" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16269,9 +16324,9 @@
       <c r="G48" t="s">
         <v>14</v>
       </c>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -16300,16 +16355,19 @@
         <v>156</v>
       </c>
       <c r="K49" t="s">
+        <v>247</v>
+      </c>
+      <c r="L49" t="s">
         <v>157</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="N49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -16338,13 +16396,16 @@
         <v>166</v>
       </c>
       <c r="K50" t="s">
+        <v>248</v>
+      </c>
+      <c r="L50" t="s">
         <v>167</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -16372,11 +16433,14 @@
       <c r="J51" t="s">
         <v>161</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="K51" t="s">
+        <v>249</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -16402,13 +16466,16 @@
         <v>162</v>
       </c>
       <c r="K52" t="s">
+        <v>250</v>
+      </c>
+      <c r="L52" t="s">
         <v>163</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -16430,9 +16497,9 @@
       <c r="G53" t="s">
         <v>14</v>
       </c>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -16454,9 +16521,9 @@
       <c r="G54" t="s">
         <v>14</v>
       </c>
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -16478,9 +16545,9 @@
       <c r="G55" t="s">
         <v>14</v>
       </c>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -16502,9 +16569,9 @@
       <c r="G56" t="s">
         <v>14</v>
       </c>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -16526,12 +16593,12 @@
       <c r="G57" t="s">
         <v>14</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="4"/>
+      <c r="N57" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -16553,9 +16620,9 @@
       <c r="G58" t="s">
         <v>14</v>
       </c>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -16577,12 +16644,12 @@
       <c r="G59" t="s">
         <v>14</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="4"/>
+      <c r="N59" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -16604,12 +16671,12 @@
       <c r="G60" t="s">
         <v>14</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="4"/>
+      <c r="N60" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -16631,12 +16698,12 @@
       <c r="G61" t="s">
         <v>34</v>
       </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="4"/>
+      <c r="N61" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -16658,12 +16725,12 @@
       <c r="G62" t="s">
         <v>34</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="4"/>
+      <c r="N62" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -16685,12 +16752,12 @@
       <c r="G63" t="s">
         <v>14</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" t="s">
+      <c r="M63" s="4"/>
+      <c r="N63" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16712,9 +16779,9 @@
       <c r="G64" t="s">
         <v>14</v>
       </c>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16736,9 +16803,9 @@
       <c r="G65" t="s">
         <v>14</v>
       </c>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -16760,9 +16827,9 @@
       <c r="G66" t="s">
         <v>14</v>
       </c>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -16784,9 +16851,9 @@
       <c r="G67" t="s">
         <v>14</v>
       </c>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16808,9 +16875,9 @@
       <c r="G68" t="s">
         <v>14</v>
       </c>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -16832,9 +16899,9 @@
       <c r="G69" t="s">
         <v>14</v>
       </c>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -16856,9 +16923,9 @@
       <c r="G70" t="s">
         <v>14</v>
       </c>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -16880,9 +16947,9 @@
       <c r="G71" t="s">
         <v>14</v>
       </c>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -16904,9 +16971,9 @@
       <c r="G72" t="s">
         <v>14</v>
       </c>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -16928,9 +16995,9 @@
       <c r="G73" t="s">
         <v>14</v>
       </c>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -16952,9 +17019,9 @@
       <c r="G74" t="s">
         <v>14</v>
       </c>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -16976,9 +17043,9 @@
       <c r="G75" t="s">
         <v>14</v>
       </c>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -17000,9 +17067,9 @@
       <c r="G76" t="s">
         <v>14</v>
       </c>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -17024,9 +17091,9 @@
       <c r="G77" t="s">
         <v>14</v>
       </c>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -17048,9 +17115,9 @@
       <c r="G78" t="s">
         <v>14</v>
       </c>
-      <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -17072,9 +17139,9 @@
       <c r="G79" t="s">
         <v>14</v>
       </c>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -17096,9 +17163,9 @@
       <c r="G80" t="s">
         <v>14</v>
       </c>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -17120,9 +17187,9 @@
       <c r="G81" t="s">
         <v>14</v>
       </c>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -17144,9 +17211,9 @@
       <c r="G82" t="s">
         <v>14</v>
       </c>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -17168,9 +17235,9 @@
       <c r="G83" t="s">
         <v>14</v>
       </c>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -17192,9 +17259,9 @@
       <c r="G84" t="s">
         <v>14</v>
       </c>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -17216,9 +17283,9 @@
       <c r="G85" t="s">
         <v>14</v>
       </c>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -17240,9 +17307,9 @@
       <c r="G86" t="s">
         <v>14</v>
       </c>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -17264,9 +17331,9 @@
       <c r="G87" t="s">
         <v>14</v>
       </c>
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -17288,9 +17355,9 @@
       <c r="G88" t="s">
         <v>14</v>
       </c>
-      <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -17312,9 +17379,9 @@
       <c r="G89" t="s">
         <v>14</v>
       </c>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -17336,9 +17403,9 @@
       <c r="G90" t="s">
         <v>14</v>
       </c>
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -17360,9 +17427,9 @@
       <c r="G91" t="s">
         <v>14</v>
       </c>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -17384,9 +17451,9 @@
       <c r="G92" t="s">
         <v>14</v>
       </c>
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -17408,12 +17475,12 @@
       <c r="G93" t="s">
         <v>14</v>
       </c>
-      <c r="L93" s="4"/>
-      <c r="M93" t="s">
+      <c r="M93" s="4"/>
+      <c r="N93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -17435,12 +17502,12 @@
       <c r="G94" t="s">
         <v>14</v>
       </c>
-      <c r="L94" s="4"/>
-      <c r="M94" t="s">
+      <c r="M94" s="4"/>
+      <c r="N94" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -17462,9 +17529,9 @@
       <c r="G95" t="s">
         <v>14</v>
       </c>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -17486,9 +17553,9 @@
       <c r="G96" t="s">
         <v>14</v>
       </c>
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -17510,9 +17577,9 @@
       <c r="G97" t="s">
         <v>14</v>
       </c>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -17534,9 +17601,9 @@
       <c r="G98" t="s">
         <v>14</v>
       </c>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -17558,9 +17625,9 @@
       <c r="G99" t="s">
         <v>14</v>
       </c>
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -17582,9 +17649,9 @@
       <c r="G100" t="s">
         <v>14</v>
       </c>
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -17606,9 +17673,9 @@
       <c r="G101" t="s">
         <v>14</v>
       </c>
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -17630,9 +17697,9 @@
       <c r="G102" t="s">
         <v>14</v>
       </c>
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -17654,9 +17721,9 @@
       <c r="G103" t="s">
         <v>14</v>
       </c>
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -17678,9 +17745,9 @@
       <c r="G104" t="s">
         <v>14</v>
       </c>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -17702,9 +17769,9 @@
       <c r="G105" t="s">
         <v>14</v>
       </c>
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -17726,9 +17793,9 @@
       <c r="G106" t="s">
         <v>14</v>
       </c>
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="4"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -17750,9 +17817,9 @@
       <c r="G107" t="s">
         <v>14</v>
       </c>
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="4"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -17774,9 +17841,9 @@
       <c r="G108" t="s">
         <v>14</v>
       </c>
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="4"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -17798,9 +17865,9 @@
       <c r="G109" t="s">
         <v>14</v>
       </c>
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="4"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17822,9 +17889,9 @@
       <c r="G110" t="s">
         <v>14</v>
       </c>
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="4"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -17846,9 +17913,9 @@
       <c r="G111" t="s">
         <v>14</v>
       </c>
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -17870,9 +17937,9 @@
       <c r="G112" t="s">
         <v>14</v>
       </c>
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -17894,9 +17961,9 @@
       <c r="G113" t="s">
         <v>14</v>
       </c>
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M113" s="4"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17918,9 +17985,9 @@
       <c r="G114" t="s">
         <v>14</v>
       </c>
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17942,9 +18009,9 @@
       <c r="G115" t="s">
         <v>14</v>
       </c>
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -17966,9 +18033,9 @@
       <c r="G116" t="s">
         <v>14</v>
       </c>
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M116" s="4"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -17990,9 +18057,9 @@
       <c r="G117" t="s">
         <v>14</v>
       </c>
-      <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M117" s="4"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -18014,9 +18081,9 @@
       <c r="G118" t="s">
         <v>14</v>
       </c>
-      <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M118" s="4"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -18038,9 +18105,9 @@
       <c r="G119" t="s">
         <v>14</v>
       </c>
-      <c r="L119" s="4"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M119" s="4"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -18062,9 +18129,9 @@
       <c r="G120" t="s">
         <v>14</v>
       </c>
-      <c r="L120" s="4"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M120" s="4"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -18086,12 +18153,12 @@
       <c r="G121" t="s">
         <v>14</v>
       </c>
-      <c r="L121" s="4"/>
-      <c r="M121" t="s">
+      <c r="M121" s="4"/>
+      <c r="N121" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -18113,9 +18180,9 @@
       <c r="G122" t="s">
         <v>14</v>
       </c>
-      <c r="L122" s="4"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M122" s="4"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -18137,9 +18204,9 @@
       <c r="G123" t="s">
         <v>14</v>
       </c>
-      <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M123" s="4"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -18161,9 +18228,9 @@
       <c r="G124" t="s">
         <v>14</v>
       </c>
-      <c r="L124" s="4"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M124" s="4"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -18185,9 +18252,9 @@
       <c r="G125" t="s">
         <v>50</v>
       </c>
-      <c r="L125" s="4"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M125" s="4"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -18209,9 +18276,9 @@
       <c r="G126" t="s">
         <v>50</v>
       </c>
-      <c r="L126" s="4"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M126" s="4"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -18233,9 +18300,9 @@
       <c r="G127" t="s">
         <v>50</v>
       </c>
-      <c r="L127" s="4"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M127" s="4"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -18257,9 +18324,9 @@
       <c r="G128" t="s">
         <v>50</v>
       </c>
-      <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="4"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -18281,9 +18348,9 @@
       <c r="G129" t="s">
         <v>50</v>
       </c>
-      <c r="L129" s="4"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" s="4"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -18305,9 +18372,9 @@
       <c r="G130" t="s">
         <v>50</v>
       </c>
-      <c r="L130" s="4"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="4"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -18329,9 +18396,9 @@
       <c r="G131" t="s">
         <v>50</v>
       </c>
-      <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="4"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -18353,9 +18420,9 @@
       <c r="G132" t="s">
         <v>14</v>
       </c>
-      <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="4"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -18377,9 +18444,9 @@
       <c r="G133" t="s">
         <v>14</v>
       </c>
-      <c r="L133" s="4"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -18401,9 +18468,9 @@
       <c r="G134" t="s">
         <v>14</v>
       </c>
-      <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="4"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -18425,9 +18492,9 @@
       <c r="G135" t="s">
         <v>14</v>
       </c>
-      <c r="L135" s="4"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="4"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -18449,9 +18516,9 @@
       <c r="G136" t="s">
         <v>14</v>
       </c>
-      <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="4"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -18473,9 +18540,9 @@
       <c r="G137" t="s">
         <v>14</v>
       </c>
-      <c r="L137" s="4"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="4"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -18497,9 +18564,9 @@
       <c r="G138" t="s">
         <v>14</v>
       </c>
-      <c r="L138" s="4"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="4"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -18521,9 +18588,9 @@
       <c r="G139" t="s">
         <v>14</v>
       </c>
-      <c r="L139" s="4"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="4"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18545,9 +18612,9 @@
       <c r="G140" t="s">
         <v>14</v>
       </c>
-      <c r="L140" s="4"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="4"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18569,9 +18636,9 @@
       <c r="G141" t="s">
         <v>14</v>
       </c>
-      <c r="L141" s="4"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" s="4"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18593,9 +18660,9 @@
       <c r="G142" t="s">
         <v>14</v>
       </c>
-      <c r="L142" s="4"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" s="4"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18617,9 +18684,9 @@
       <c r="G143" t="s">
         <v>14</v>
       </c>
-      <c r="L143" s="4"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" s="4"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18641,9 +18708,9 @@
       <c r="G144" t="s">
         <v>14</v>
       </c>
-      <c r="L144" s="4"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" s="4"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -18665,9 +18732,9 @@
       <c r="G145" t="s">
         <v>14</v>
       </c>
-      <c r="L145" s="4"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" s="4"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -18689,9 +18756,9 @@
       <c r="G146" t="s">
         <v>14</v>
       </c>
-      <c r="L146" s="4"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" s="4"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -18713,9 +18780,9 @@
       <c r="G147" t="s">
         <v>14</v>
       </c>
-      <c r="L147" s="4"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" s="4"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -18737,9 +18804,9 @@
       <c r="G148" t="s">
         <v>14</v>
       </c>
-      <c r="L148" s="4"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="4"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -18761,9 +18828,9 @@
       <c r="G149" t="s">
         <v>14</v>
       </c>
-      <c r="L149" s="4"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" s="4"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -18785,9 +18852,9 @@
       <c r="G150" t="s">
         <v>14</v>
       </c>
-      <c r="L150" s="4"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" s="4"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -18809,9 +18876,9 @@
       <c r="G151" t="s">
         <v>14</v>
       </c>
-      <c r="L151" s="4"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" s="4"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -18833,9 +18900,9 @@
       <c r="G152" t="s">
         <v>14</v>
       </c>
-      <c r="L152" s="4"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" s="4"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -18857,9 +18924,9 @@
       <c r="G153" t="s">
         <v>14</v>
       </c>
-      <c r="L153" s="4"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" s="4"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -18881,9 +18948,9 @@
       <c r="G154" t="s">
         <v>14</v>
       </c>
-      <c r="L154" s="4"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" s="4"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -18905,9 +18972,9 @@
       <c r="G155" t="s">
         <v>14</v>
       </c>
-      <c r="L155" s="4"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" s="4"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -18929,9 +18996,9 @@
       <c r="G156" t="s">
         <v>14</v>
       </c>
-      <c r="L156" s="4"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" s="4"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -18953,9 +19020,9 @@
       <c r="G157" t="s">
         <v>14</v>
       </c>
-      <c r="L157" s="4"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" s="4"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -18977,9 +19044,9 @@
       <c r="G158" t="s">
         <v>14</v>
       </c>
-      <c r="L158" s="4"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" s="4"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -19001,9 +19068,9 @@
       <c r="G159" t="s">
         <v>14</v>
       </c>
-      <c r="L159" s="4"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" s="4"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -19025,9 +19092,9 @@
       <c r="G160" t="s">
         <v>14</v>
       </c>
-      <c r="L160" s="4"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M160" s="4"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -19049,9 +19116,9 @@
       <c r="G161" t="s">
         <v>14</v>
       </c>
-      <c r="L161" s="4"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M161" s="4"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -19073,9 +19140,9 @@
       <c r="G162" t="s">
         <v>14</v>
       </c>
-      <c r="L162" s="4"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M162" s="4"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -19097,12 +19164,12 @@
       <c r="G163" t="s">
         <v>14</v>
       </c>
-      <c r="L163" s="4"/>
-      <c r="M163" t="s">
+      <c r="M163" s="4"/>
+      <c r="N163" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -19118,12 +19185,12 @@
       <c r="G164" t="s">
         <v>14</v>
       </c>
-      <c r="L164" s="4"/>
-      <c r="M164" t="s">
+      <c r="M164" s="4"/>
+      <c r="N164" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -19145,9 +19212,9 @@
       <c r="G165" t="s">
         <v>14</v>
       </c>
-      <c r="L165" s="4"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M165" s="4"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -19169,9 +19236,9 @@
       <c r="G166" t="s">
         <v>14</v>
       </c>
-      <c r="L166" s="4"/>
-    </row>
-    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M166" s="4"/>
+    </row>
+    <row r="167" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -19197,10 +19264,11 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-      <c r="L167" s="5"/>
-      <c r="M167" s="3"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L167" s="3"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="3"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -19222,9 +19290,9 @@
       <c r="G168" t="s">
         <v>14</v>
       </c>
-      <c r="L168" s="4"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M168" s="4"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -19246,12 +19314,12 @@
       <c r="G169" t="s">
         <v>14</v>
       </c>
-      <c r="L169" s="4"/>
-      <c r="M169" t="s">
+      <c r="M169" s="4"/>
+      <c r="N169" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19273,9 +19341,9 @@
       <c r="G170" t="s">
         <v>14</v>
       </c>
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M170" s="4"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19297,9 +19365,9 @@
       <c r="G171" t="s">
         <v>14</v>
       </c>
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M171" s="4"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19321,9 +19389,9 @@
       <c r="G172" t="s">
         <v>14</v>
       </c>
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M172" s="4"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -19345,9 +19413,9 @@
       <c r="G173" t="s">
         <v>14</v>
       </c>
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M173" s="4"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -19369,9 +19437,9 @@
       <c r="G174" t="s">
         <v>14</v>
       </c>
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M174" s="4"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -19393,9 +19461,9 @@
       <c r="G175" t="s">
         <v>14</v>
       </c>
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M175" s="4"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -19417,9 +19485,9 @@
       <c r="G176" t="s">
         <v>14</v>
       </c>
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M176" s="4"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19441,9 +19509,9 @@
       <c r="G177" t="s">
         <v>14</v>
       </c>
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M177" s="4"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -19465,9 +19533,9 @@
       <c r="G178" t="s">
         <v>14</v>
       </c>
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M178" s="4"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -19489,9 +19557,9 @@
       <c r="G179" t="s">
         <v>14</v>
       </c>
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M179" s="4"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -19513,9 +19581,9 @@
       <c r="G180" t="s">
         <v>14</v>
       </c>
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M180" s="4"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -19537,9 +19605,9 @@
       <c r="G181" t="s">
         <v>14</v>
       </c>
-      <c r="L181" s="4"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M181" s="4"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -19561,9 +19629,9 @@
       <c r="G182" t="s">
         <v>14</v>
       </c>
-      <c r="L182" s="4"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M182" s="4"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -19592,16 +19660,19 @@
         <v>171</v>
       </c>
       <c r="K183" t="s">
+        <v>251</v>
+      </c>
+      <c r="L183" t="s">
         <v>174</v>
       </c>
-      <c r="L183" s="4" t="s">
+      <c r="M183" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="M183" s="9" t="s">
+      <c r="N183" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -19623,9 +19694,9 @@
       <c r="G184" t="s">
         <v>14</v>
       </c>
-      <c r="L184" s="4"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M184" s="4"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -19647,9 +19718,9 @@
       <c r="G185" t="s">
         <v>14</v>
       </c>
-      <c r="L185" s="4"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M185" s="4"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -19671,9 +19742,9 @@
       <c r="G186" t="s">
         <v>14</v>
       </c>
-      <c r="L186" s="4"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M186" s="4"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -19695,9 +19766,9 @@
       <c r="G187" t="s">
         <v>14</v>
       </c>
-      <c r="L187" s="4"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M187" s="4"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -19719,9 +19790,9 @@
       <c r="G188" t="s">
         <v>14</v>
       </c>
-      <c r="L188" s="4"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M188" s="4"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -19743,9 +19814,9 @@
       <c r="G189" t="s">
         <v>14</v>
       </c>
-      <c r="L189" s="4"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M189" s="4"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -19767,9 +19838,9 @@
       <c r="G190" t="s">
         <v>14</v>
       </c>
-      <c r="L190" s="4"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M190" s="4"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -19791,9 +19862,9 @@
       <c r="G191" t="s">
         <v>14</v>
       </c>
-      <c r="L191" s="4"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M191" s="4"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -19815,9 +19886,9 @@
       <c r="G192" t="s">
         <v>14</v>
       </c>
-      <c r="L192" s="4"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192" s="4"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -19839,9 +19910,9 @@
       <c r="G193" t="s">
         <v>14</v>
       </c>
-      <c r="L193" s="4"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193" s="4"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -19863,9 +19934,9 @@
       <c r="G194" t="s">
         <v>14</v>
       </c>
-      <c r="L194" s="4"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194" s="4"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -19887,9 +19958,9 @@
       <c r="G195" t="s">
         <v>14</v>
       </c>
-      <c r="L195" s="4"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195" s="4"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -19911,9 +19982,9 @@
       <c r="G196" t="s">
         <v>14</v>
       </c>
-      <c r="L196" s="4"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196" s="4"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -19935,9 +20006,9 @@
       <c r="G197" t="s">
         <v>14</v>
       </c>
-      <c r="L197" s="4"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197" s="4"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -19959,9 +20030,9 @@
       <c r="G198" t="s">
         <v>14</v>
       </c>
-      <c r="L198" s="4"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198" s="4"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -19983,9 +20054,9 @@
       <c r="G199" t="s">
         <v>14</v>
       </c>
-      <c r="L199" s="4"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199" s="4"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -20007,9 +20078,9 @@
       <c r="G200" t="s">
         <v>14</v>
       </c>
-      <c r="L200" s="4"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200" s="4"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -20031,9 +20102,9 @@
       <c r="G201" t="s">
         <v>14</v>
       </c>
-      <c r="L201" s="4"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201" s="4"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -20055,9 +20126,9 @@
       <c r="G202" t="s">
         <v>14</v>
       </c>
-      <c r="L202" s="4"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202" s="4"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -20079,9 +20150,9 @@
       <c r="G203" t="s">
         <v>14</v>
       </c>
-      <c r="L203" s="4"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203" s="4"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -20103,9 +20174,9 @@
       <c r="G204" t="s">
         <v>14</v>
       </c>
-      <c r="L204" s="4"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204" s="4"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -20127,9 +20198,9 @@
       <c r="G205" t="s">
         <v>14</v>
       </c>
-      <c r="L205" s="4"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205" s="4"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -20151,9 +20222,9 @@
       <c r="G206" t="s">
         <v>14</v>
       </c>
-      <c r="L206" s="4"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206" s="4"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -20175,9 +20246,9 @@
       <c r="G207" t="s">
         <v>14</v>
       </c>
-      <c r="L207" s="4"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207" s="4"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -20199,9 +20270,9 @@
       <c r="G208" t="s">
         <v>14</v>
       </c>
-      <c r="L208" s="4"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208" s="4"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -20223,9 +20294,9 @@
       <c r="G209" t="s">
         <v>14</v>
       </c>
-      <c r="L209" s="4"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209" s="4"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -20247,9 +20318,9 @@
       <c r="G210" t="s">
         <v>14</v>
       </c>
-      <c r="L210" s="4"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210" s="4"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -20271,9 +20342,9 @@
       <c r="G211" t="s">
         <v>14</v>
       </c>
-      <c r="L211" s="4"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211" s="4"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -20295,9 +20366,9 @@
       <c r="G212" t="s">
         <v>14</v>
       </c>
-      <c r="L212" s="4"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212" s="4"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -20319,9 +20390,9 @@
       <c r="G213" t="s">
         <v>14</v>
       </c>
-      <c r="L213" s="4"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213" s="4"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -20343,9 +20414,9 @@
       <c r="G214" t="s">
         <v>14</v>
       </c>
-      <c r="L214" s="4"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214" s="4"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -20367,9 +20438,9 @@
       <c r="G215" t="s">
         <v>14</v>
       </c>
-      <c r="L215" s="4"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215" s="4"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -20391,9 +20462,9 @@
       <c r="G216" t="s">
         <v>14</v>
       </c>
-      <c r="L216" s="4"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216" s="4"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -20415,9 +20486,9 @@
       <c r="G217" t="s">
         <v>14</v>
       </c>
-      <c r="L217" s="4"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217" s="4"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -20439,9 +20510,9 @@
       <c r="G218" t="s">
         <v>14</v>
       </c>
-      <c r="L218" s="4"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218" s="4"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -20463,9 +20534,9 @@
       <c r="G219" t="s">
         <v>14</v>
       </c>
-      <c r="L219" s="4"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219" s="4"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -20487,9 +20558,9 @@
       <c r="G220" t="s">
         <v>14</v>
       </c>
-      <c r="L220" s="4"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220" s="4"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -20511,9 +20582,9 @@
       <c r="G221" t="s">
         <v>14</v>
       </c>
-      <c r="L221" s="4"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221" s="4"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -20535,9 +20606,9 @@
       <c r="G222" t="s">
         <v>14</v>
       </c>
-      <c r="L222" s="4"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222" s="4"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -20559,9 +20630,9 @@
       <c r="G223" t="s">
         <v>14</v>
       </c>
-      <c r="L223" s="4"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223" s="4"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -20583,9 +20654,9 @@
       <c r="G224" t="s">
         <v>14</v>
       </c>
-      <c r="L224" s="4"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M224" s="4"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -20607,9 +20678,9 @@
       <c r="G225" t="s">
         <v>14</v>
       </c>
-      <c r="L225" s="4"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M225" s="4"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -20631,9 +20702,9 @@
       <c r="G226" t="s">
         <v>14</v>
       </c>
-      <c r="L226" s="4"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M226" s="4"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -20655,9 +20726,9 @@
       <c r="G227" t="s">
         <v>14</v>
       </c>
-      <c r="L227" s="4"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M227" s="4"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -20679,12 +20750,12 @@
       <c r="G228" t="s">
         <v>20</v>
       </c>
-      <c r="L228" s="4"/>
-      <c r="M228" t="s">
+      <c r="M228" s="4"/>
+      <c r="N228" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -20706,9 +20777,9 @@
       <c r="G229" t="s">
         <v>20</v>
       </c>
-      <c r="L229" s="4"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M229" s="4"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -20730,9 +20801,9 @@
       <c r="G230" t="s">
         <v>20</v>
       </c>
-      <c r="L230" s="4"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M230" s="4"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -20754,9 +20825,9 @@
       <c r="G231" t="s">
         <v>20</v>
       </c>
-      <c r="L231" s="4"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M231" s="4"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -20778,9 +20849,9 @@
       <c r="G232" t="s">
         <v>20</v>
       </c>
-      <c r="L232" s="4"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M232" s="4"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -20802,9 +20873,9 @@
       <c r="G233" t="s">
         <v>20</v>
       </c>
-      <c r="L233" s="4"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M233" s="4"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -20826,9 +20897,9 @@
       <c r="G234" t="s">
         <v>20</v>
       </c>
-      <c r="L234" s="4"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M234" s="4"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -20850,9 +20921,9 @@
       <c r="G235" t="s">
         <v>20</v>
       </c>
-      <c r="L235" s="4"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M235" s="4"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -20874,9 +20945,9 @@
       <c r="G236" t="s">
         <v>14</v>
       </c>
-      <c r="L236" s="4"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M236" s="4"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -20898,9 +20969,9 @@
       <c r="G237" t="s">
         <v>14</v>
       </c>
-      <c r="L237" s="4"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M237" s="4"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -20922,9 +20993,9 @@
       <c r="G238" t="s">
         <v>14</v>
       </c>
-      <c r="L238" s="4"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M238" s="4"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -20946,9 +21017,9 @@
       <c r="G239" t="s">
         <v>14</v>
       </c>
-      <c r="L239" s="4"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M239" s="4"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -20970,9 +21041,9 @@
       <c r="G240" t="s">
         <v>14</v>
       </c>
-      <c r="L240" s="4"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M240" s="4"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -20994,9 +21065,9 @@
       <c r="G241" t="s">
         <v>14</v>
       </c>
-      <c r="L241" s="4"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M241" s="4"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -21018,9 +21089,9 @@
       <c r="G242" t="s">
         <v>14</v>
       </c>
-      <c r="L242" s="4"/>
-    </row>
-    <row r="243" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M242" s="4"/>
+    </row>
+    <row r="243" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -21046,10 +21117,11 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
-      <c r="L243" s="5"/>
-      <c r="M243" s="3"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L243" s="3"/>
+      <c r="M243" s="5"/>
+      <c r="N243" s="3"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -21071,9 +21143,9 @@
       <c r="G244" t="s">
         <v>14</v>
       </c>
-      <c r="L244" s="4"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M244" s="4"/>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -21095,9 +21167,9 @@
       <c r="G245" t="s">
         <v>14</v>
       </c>
-      <c r="L245" s="4"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M245" s="4"/>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -21119,9 +21191,9 @@
       <c r="G246" t="s">
         <v>14</v>
       </c>
-      <c r="L246" s="4"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M246" s="4"/>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -21143,9 +21215,9 @@
       <c r="G247" t="s">
         <v>14</v>
       </c>
-      <c r="L247" s="4"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M247" s="4"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -21167,9 +21239,9 @@
       <c r="G248" t="s">
         <v>14</v>
       </c>
-      <c r="L248" s="4"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M248" s="4"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -21191,9 +21263,9 @@
       <c r="G249" t="s">
         <v>14</v>
       </c>
-      <c r="L249" s="4"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M249" s="4"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -21215,9 +21287,9 @@
       <c r="G250" t="s">
         <v>14</v>
       </c>
-      <c r="L250" s="4"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M250" s="4"/>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -21239,9 +21311,9 @@
       <c r="G251" t="s">
         <v>14</v>
       </c>
-      <c r="L251" s="4"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M251" s="4"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -21263,9 +21335,9 @@
       <c r="G252" t="s">
         <v>14</v>
       </c>
-      <c r="L252" s="4"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M252" s="4"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -21287,9 +21359,9 @@
       <c r="G253" t="s">
         <v>14</v>
       </c>
-      <c r="L253" s="4"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M253" s="4"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -21311,9 +21383,9 @@
       <c r="G254" t="s">
         <v>14</v>
       </c>
-      <c r="L254" s="4"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M254" s="4"/>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -21335,9 +21407,9 @@
       <c r="G255" t="s">
         <v>14</v>
       </c>
-      <c r="L255" s="4"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M255" s="4"/>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -21359,9 +21431,9 @@
       <c r="G256" t="s">
         <v>14</v>
       </c>
-      <c r="L256" s="4"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M256" s="4"/>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -21383,9 +21455,9 @@
       <c r="G257" t="s">
         <v>14</v>
       </c>
-      <c r="L257" s="4"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M257" s="4"/>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -21407,9 +21479,9 @@
       <c r="G258" t="s">
         <v>14</v>
       </c>
-      <c r="L258" s="4"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M258" s="4"/>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -21431,9 +21503,9 @@
       <c r="G259" t="s">
         <v>14</v>
       </c>
-      <c r="L259" s="4"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M259" s="4"/>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -21455,9 +21527,9 @@
       <c r="G260" t="s">
         <v>14</v>
       </c>
-      <c r="L260" s="4"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M260" s="4"/>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -21479,9 +21551,9 @@
       <c r="G261" t="s">
         <v>14</v>
       </c>
-      <c r="L261" s="4"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M261" s="4"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -21503,9 +21575,9 @@
       <c r="G262" t="s">
         <v>14</v>
       </c>
-      <c r="L262" s="4"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M262" s="4"/>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -21527,9 +21599,9 @@
       <c r="G263" t="s">
         <v>14</v>
       </c>
-      <c r="L263" s="4"/>
-    </row>
-    <row r="264" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M263" s="4"/>
+    </row>
+    <row r="264" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -21555,10 +21627,11 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
-      <c r="L264" s="5"/>
-      <c r="M264" s="3"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L264" s="3"/>
+      <c r="M264" s="5"/>
+      <c r="N264" s="3"/>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -21580,12 +21653,12 @@
       <c r="G265" t="s">
         <v>14</v>
       </c>
-      <c r="L265" s="4"/>
-      <c r="M265" t="s">
+      <c r="M265" s="4"/>
+      <c r="N265" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -21607,9 +21680,9 @@
       <c r="G266" t="s">
         <v>14</v>
       </c>
-      <c r="L266" s="4"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M266" s="4"/>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -21631,9 +21704,9 @@
       <c r="G267" t="s">
         <v>14</v>
       </c>
-      <c r="L267" s="4"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M267" s="4"/>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -21655,9 +21728,9 @@
       <c r="G268" t="s">
         <v>14</v>
       </c>
-      <c r="L268" s="4"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M268" s="4"/>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -21679,9 +21752,9 @@
       <c r="G269" t="s">
         <v>14</v>
       </c>
-      <c r="L269" s="4"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M269" s="4"/>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -21703,9 +21776,9 @@
       <c r="G270" t="s">
         <v>14</v>
       </c>
-      <c r="L270" s="4"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M270" s="4"/>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -21727,9 +21800,9 @@
       <c r="G271" t="s">
         <v>14</v>
       </c>
-      <c r="L271" s="4"/>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M271" s="4"/>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -21751,9 +21824,9 @@
       <c r="G272" t="s">
         <v>14</v>
       </c>
-      <c r="L272" s="4"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272" s="4"/>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -21775,9 +21848,9 @@
       <c r="G273" t="s">
         <v>14</v>
       </c>
-      <c r="L273" s="4"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273" s="4"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -21799,9 +21872,9 @@
       <c r="G274" t="s">
         <v>14</v>
       </c>
-      <c r="L274" s="4"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274" s="4"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -21823,9 +21896,9 @@
       <c r="G275" t="s">
         <v>14</v>
       </c>
-      <c r="L275" s="4"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275" s="4"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -21847,9 +21920,9 @@
       <c r="G276" t="s">
         <v>14</v>
       </c>
-      <c r="L276" s="4"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276" s="4"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -21871,9 +21944,9 @@
       <c r="G277" t="s">
         <v>14</v>
       </c>
-      <c r="L277" s="4"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277" s="4"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -21895,9 +21968,9 @@
       <c r="G278" t="s">
         <v>14</v>
       </c>
-      <c r="L278" s="4"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278" s="4"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -21919,9 +21992,9 @@
       <c r="G279" t="s">
         <v>14</v>
       </c>
-      <c r="L279" s="4"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279" s="4"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -21943,9 +22016,9 @@
       <c r="G280" t="s">
         <v>14</v>
       </c>
-      <c r="L280" s="4"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280" s="4"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -21967,9 +22040,9 @@
       <c r="G281" t="s">
         <v>14</v>
       </c>
-      <c r="L281" s="4"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281" s="4"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -21991,9 +22064,9 @@
       <c r="G282" t="s">
         <v>14</v>
       </c>
-      <c r="L282" s="4"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282" s="4"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -22015,9 +22088,9 @@
       <c r="G283" t="s">
         <v>14</v>
       </c>
-      <c r="L283" s="4"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283" s="4"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -22039,9 +22112,9 @@
       <c r="G284" t="s">
         <v>14</v>
       </c>
-      <c r="L284" s="4"/>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284" s="4"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -22063,9 +22136,9 @@
       <c r="G285" t="s">
         <v>14</v>
       </c>
-      <c r="L285" s="4"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285" s="4"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -22087,9 +22160,9 @@
       <c r="G286" t="s">
         <v>14</v>
       </c>
-      <c r="L286" s="4"/>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286" s="4"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -22111,9 +22184,9 @@
       <c r="G287" t="s">
         <v>14</v>
       </c>
-      <c r="L287" s="4"/>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287" s="4"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -22135,9 +22208,9 @@
       <c r="G288" t="s">
         <v>14</v>
       </c>
-      <c r="L288" s="4"/>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288" s="4"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -22159,9 +22232,9 @@
       <c r="G289" t="s">
         <v>14</v>
       </c>
-      <c r="L289" s="4"/>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289" s="4"/>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -22183,9 +22256,9 @@
       <c r="G290" t="s">
         <v>14</v>
       </c>
-      <c r="L290" s="4"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290" s="4"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -22207,9 +22280,9 @@
       <c r="G291" t="s">
         <v>14</v>
       </c>
-      <c r="L291" s="4"/>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291" s="4"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -22231,9 +22304,9 @@
       <c r="G292" t="s">
         <v>14</v>
       </c>
-      <c r="L292" s="4"/>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M292" s="4"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -22255,9 +22328,9 @@
       <c r="G293" t="s">
         <v>14</v>
       </c>
-      <c r="L293" s="4"/>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M293" s="4"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -22286,13 +22359,16 @@
         <v>179</v>
       </c>
       <c r="K294" t="s">
+        <v>252</v>
+      </c>
+      <c r="L294" t="s">
         <v>176</v>
       </c>
-      <c r="L294" s="4" t="s">
+      <c r="M294" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -22321,13 +22397,16 @@
         <v>179</v>
       </c>
       <c r="K295" t="s">
+        <v>252</v>
+      </c>
+      <c r="L295" t="s">
         <v>180</v>
       </c>
-      <c r="L295" s="4" t="s">
+      <c r="M295" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -22349,9 +22428,9 @@
       <c r="G296" t="s">
         <v>14</v>
       </c>
-      <c r="L296" s="4"/>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M296" s="4"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -22373,9 +22452,9 @@
       <c r="G297" t="s">
         <v>14</v>
       </c>
-      <c r="L297" s="4"/>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M297" s="4"/>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -22397,9 +22476,9 @@
       <c r="G298" t="s">
         <v>14</v>
       </c>
-      <c r="L298" s="4"/>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M298" s="4"/>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -22421,9 +22500,9 @@
       <c r="G299" t="s">
         <v>14</v>
       </c>
-      <c r="L299" s="4"/>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299" s="4"/>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -22452,13 +22531,16 @@
         <v>179</v>
       </c>
       <c r="K300" t="s">
+        <v>252</v>
+      </c>
+      <c r="L300" t="s">
         <v>183</v>
       </c>
-      <c r="L300" s="4" t="s">
+      <c r="M300" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -22480,9 +22562,9 @@
       <c r="G301" t="s">
         <v>14</v>
       </c>
-      <c r="L301" s="4"/>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M301" s="4"/>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -22504,9 +22586,9 @@
       <c r="G302" t="s">
         <v>14</v>
       </c>
-      <c r="L302" s="4"/>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M302" s="4"/>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -22528,9 +22610,9 @@
       <c r="G303" t="s">
         <v>14</v>
       </c>
-      <c r="L303" s="4"/>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M303" s="4"/>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -22552,9 +22634,9 @@
       <c r="G304" t="s">
         <v>14</v>
       </c>
-      <c r="L304" s="4"/>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M304" s="4"/>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -22576,9 +22658,9 @@
       <c r="G305" t="s">
         <v>14</v>
       </c>
-      <c r="L305" s="4"/>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M305" s="4"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -22600,9 +22682,9 @@
       <c r="G306" t="s">
         <v>14</v>
       </c>
-      <c r="L306" s="4"/>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M306" s="4"/>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -22624,9 +22706,9 @@
       <c r="G307" t="s">
         <v>14</v>
       </c>
-      <c r="L307" s="4"/>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M307" s="4"/>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -22648,9 +22730,9 @@
       <c r="G308" t="s">
         <v>14</v>
       </c>
-      <c r="L308" s="4"/>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M308" s="4"/>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -22672,9 +22754,9 @@
       <c r="G309" t="s">
         <v>14</v>
       </c>
-      <c r="L309" s="4"/>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M309" s="4"/>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -22696,9 +22778,9 @@
       <c r="G310" t="s">
         <v>14</v>
       </c>
-      <c r="L310" s="4"/>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M310" s="4"/>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -22720,9 +22802,9 @@
       <c r="G311" t="s">
         <v>14</v>
       </c>
-      <c r="L311" s="4"/>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M311" s="4"/>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -22744,9 +22826,9 @@
       <c r="G312" t="s">
         <v>14</v>
       </c>
-      <c r="L312" s="4"/>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M312" s="4"/>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -22768,9 +22850,9 @@
       <c r="G313" t="s">
         <v>14</v>
       </c>
-      <c r="L313" s="4"/>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M313" s="4"/>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -22792,9 +22874,9 @@
       <c r="G314" t="s">
         <v>14</v>
       </c>
-      <c r="L314" s="4"/>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M314" s="4"/>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -22816,9 +22898,9 @@
       <c r="G315" t="s">
         <v>14</v>
       </c>
-      <c r="L315" s="4"/>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M315" s="4"/>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -22840,9 +22922,9 @@
       <c r="G316" t="s">
         <v>14</v>
       </c>
-      <c r="L316" s="4"/>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M316" s="4"/>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -22864,9 +22946,9 @@
       <c r="G317" t="s">
         <v>14</v>
       </c>
-      <c r="L317" s="4"/>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M317" s="4"/>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -22888,9 +22970,9 @@
       <c r="G318" t="s">
         <v>14</v>
       </c>
-      <c r="L318" s="4"/>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M318" s="4"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -22912,9 +22994,9 @@
       <c r="G319" t="s">
         <v>14</v>
       </c>
-      <c r="L319" s="4"/>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M319" s="4"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -22936,9 +23018,9 @@
       <c r="G320" t="s">
         <v>14</v>
       </c>
-      <c r="L320" s="4"/>
-    </row>
-    <row r="321" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M320" s="4"/>
+    </row>
+    <row r="321" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -22964,10 +23046,11 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
-      <c r="L321" s="5"/>
-      <c r="M321" s="3"/>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L321" s="3"/>
+      <c r="M321" s="5"/>
+      <c r="N321" s="3"/>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -22989,9 +23072,9 @@
       <c r="G322" t="s">
         <v>14</v>
       </c>
-      <c r="L322" s="4"/>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M322" s="4"/>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -23013,9 +23096,9 @@
       <c r="G323" t="s">
         <v>14</v>
       </c>
-      <c r="L323" s="4"/>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M323" s="4"/>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -23037,12 +23120,12 @@
       <c r="G324" t="s">
         <v>14</v>
       </c>
-      <c r="L324" s="4"/>
-      <c r="M324" t="s">
+      <c r="M324" s="4"/>
+      <c r="N324" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -23064,9 +23147,9 @@
       <c r="G325" t="s">
         <v>14</v>
       </c>
-      <c r="L325" s="4"/>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M325" s="4"/>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -23088,9 +23171,9 @@
       <c r="G326" t="s">
         <v>14</v>
       </c>
-      <c r="L326" s="4"/>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M326" s="4"/>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -23112,9 +23195,9 @@
       <c r="G327" t="s">
         <v>14</v>
       </c>
-      <c r="L327" s="4"/>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M327" s="4"/>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -23136,9 +23219,9 @@
       <c r="G328" t="s">
         <v>14</v>
       </c>
-      <c r="L328" s="4"/>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M328" s="4"/>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -23160,9 +23243,9 @@
       <c r="G329" t="s">
         <v>14</v>
       </c>
-      <c r="L329" s="4"/>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M329" s="4"/>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -23184,9 +23267,9 @@
       <c r="G330" t="s">
         <v>14</v>
       </c>
-      <c r="L330" s="4"/>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M330" s="4"/>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -23208,9 +23291,9 @@
       <c r="G331" t="s">
         <v>14</v>
       </c>
-      <c r="L331" s="4"/>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M331" s="4"/>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -23232,9 +23315,9 @@
       <c r="G332" t="s">
         <v>14</v>
       </c>
-      <c r="L332" s="4"/>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M332" s="4"/>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -23256,9 +23339,9 @@
       <c r="G333" t="s">
         <v>14</v>
       </c>
-      <c r="L333" s="4"/>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M333" s="4"/>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -23280,9 +23363,9 @@
       <c r="G334" t="s">
         <v>14</v>
       </c>
-      <c r="L334" s="4"/>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M334" s="4"/>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -23304,9 +23387,9 @@
       <c r="G335" t="s">
         <v>14</v>
       </c>
-      <c r="L335" s="4"/>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M335" s="4"/>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -23328,9 +23411,9 @@
       <c r="G336" t="s">
         <v>14</v>
       </c>
-      <c r="L336" s="4"/>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M336" s="4"/>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -23352,9 +23435,9 @@
       <c r="G337" t="s">
         <v>14</v>
       </c>
-      <c r="L337" s="4"/>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M337" s="4"/>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -23376,9 +23459,9 @@
       <c r="G338" t="s">
         <v>14</v>
       </c>
-      <c r="L338" s="4"/>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M338" s="4"/>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -23400,9 +23483,9 @@
       <c r="G339" t="s">
         <v>14</v>
       </c>
-      <c r="L339" s="4"/>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M339" s="4"/>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -23424,9 +23507,9 @@
       <c r="G340" t="s">
         <v>14</v>
       </c>
-      <c r="L340" s="4"/>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M340" s="4"/>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -23448,9 +23531,9 @@
       <c r="G341" t="s">
         <v>14</v>
       </c>
-      <c r="L341" s="4"/>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M341" s="4"/>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -23472,9 +23555,9 @@
       <c r="G342" t="s">
         <v>14</v>
       </c>
-      <c r="L342" s="4"/>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M342" s="4"/>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -23496,9 +23579,9 @@
       <c r="G343" t="s">
         <v>14</v>
       </c>
-      <c r="L343" s="4"/>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M343" s="4"/>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -23517,12 +23600,12 @@
       <c r="G344" t="s">
         <v>14</v>
       </c>
-      <c r="L344" s="4"/>
-      <c r="M344" t="s">
+      <c r="M344" s="4"/>
+      <c r="N344" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -23544,9 +23627,9 @@
       <c r="G345" t="s">
         <v>14</v>
       </c>
-      <c r="L345" s="4"/>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M345" s="4"/>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -23568,9 +23651,9 @@
       <c r="G346" t="s">
         <v>14</v>
       </c>
-      <c r="L346" s="4"/>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M346" s="4"/>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -23592,9 +23675,9 @@
       <c r="G347" t="s">
         <v>14</v>
       </c>
-      <c r="L347" s="4"/>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M347" s="4"/>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -23616,9 +23699,9 @@
       <c r="G348" t="s">
         <v>14</v>
       </c>
-      <c r="L348" s="4"/>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M348" s="4"/>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -23640,9 +23723,9 @@
       <c r="G349" t="s">
         <v>14</v>
       </c>
-      <c r="L349" s="4"/>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M349" s="4"/>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -23664,9 +23747,9 @@
       <c r="G350" t="s">
         <v>14</v>
       </c>
-      <c r="L350" s="4"/>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M350" s="4"/>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -23688,9 +23771,9 @@
       <c r="G351" t="s">
         <v>14</v>
       </c>
-      <c r="L351" s="4"/>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M351" s="4"/>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -23712,9 +23795,9 @@
       <c r="G352" t="s">
         <v>14</v>
       </c>
-      <c r="L352" s="4"/>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352" s="4"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -23736,9 +23819,9 @@
       <c r="G353" t="s">
         <v>14</v>
       </c>
-      <c r="L353" s="4"/>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M353" s="4"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -23760,9 +23843,9 @@
       <c r="G354" t="s">
         <v>14</v>
       </c>
-      <c r="L354" s="4"/>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M354" s="4"/>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -23784,9 +23867,9 @@
       <c r="G355" t="s">
         <v>14</v>
       </c>
-      <c r="L355" s="4"/>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M355" s="4"/>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -23808,9 +23891,9 @@
       <c r="G356" t="s">
         <v>14</v>
       </c>
-      <c r="L356" s="4"/>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M356" s="4"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -23832,9 +23915,9 @@
       <c r="G357" t="s">
         <v>14</v>
       </c>
-      <c r="L357" s="4"/>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M357" s="4"/>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -23856,9 +23939,9 @@
       <c r="G358" t="s">
         <v>14</v>
       </c>
-      <c r="L358" s="4"/>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358" s="4"/>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -23880,9 +23963,9 @@
       <c r="G359" t="s">
         <v>14</v>
       </c>
-      <c r="L359" s="4"/>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M359" s="4"/>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -23904,9 +23987,9 @@
       <c r="G360" t="s">
         <v>14</v>
       </c>
-      <c r="L360" s="4"/>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M360" s="4"/>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -23928,9 +24011,9 @@
       <c r="G361" t="s">
         <v>14</v>
       </c>
-      <c r="L361" s="4"/>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M361" s="4"/>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -23952,9 +24035,9 @@
       <c r="G362" t="s">
         <v>14</v>
       </c>
-      <c r="L362" s="4"/>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M362" s="4"/>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -23976,9 +24059,9 @@
       <c r="G363" t="s">
         <v>14</v>
       </c>
-      <c r="L363" s="4"/>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M363" s="4"/>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -24000,9 +24083,9 @@
       <c r="G364" t="s">
         <v>14</v>
       </c>
-      <c r="L364" s="4"/>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M364" s="4"/>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -24024,9 +24107,9 @@
       <c r="G365" t="s">
         <v>14</v>
       </c>
-      <c r="L365" s="4"/>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M365" s="4"/>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -24048,9 +24131,9 @@
       <c r="G366" t="s">
         <v>14</v>
       </c>
-      <c r="L366" s="4"/>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M366" s="4"/>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -24072,9 +24155,9 @@
       <c r="G367" t="s">
         <v>14</v>
       </c>
-      <c r="L367" s="4"/>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M367" s="4"/>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -24096,9 +24179,9 @@
       <c r="G368" t="s">
         <v>14</v>
       </c>
-      <c r="L368" s="4"/>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M368" s="4"/>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -24120,9 +24203,9 @@
       <c r="G369" t="s">
         <v>14</v>
       </c>
-      <c r="L369" s="4"/>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M369" s="4"/>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -24144,9 +24227,9 @@
       <c r="G370" t="s">
         <v>14</v>
       </c>
-      <c r="L370" s="4"/>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M370" s="4"/>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -24168,9 +24251,9 @@
       <c r="G371" t="s">
         <v>14</v>
       </c>
-      <c r="L371" s="4"/>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M371" s="4"/>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -24192,9 +24275,9 @@
       <c r="G372" t="s">
         <v>14</v>
       </c>
-      <c r="L372" s="4"/>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M372" s="4"/>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -24216,9 +24299,9 @@
       <c r="G373" t="s">
         <v>14</v>
       </c>
-      <c r="L373" s="4"/>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M373" s="4"/>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -24240,9 +24323,9 @@
       <c r="G374" t="s">
         <v>14</v>
       </c>
-      <c r="L374" s="4"/>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M374" s="4"/>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -24264,9 +24347,9 @@
       <c r="G375" t="s">
         <v>14</v>
       </c>
-      <c r="L375" s="4"/>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M375" s="4"/>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -24288,9 +24371,9 @@
       <c r="G376" t="s">
         <v>14</v>
       </c>
-      <c r="L376" s="4"/>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M376" s="4"/>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -24312,9 +24395,9 @@
       <c r="G377" t="s">
         <v>14</v>
       </c>
-      <c r="L377" s="4"/>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M377" s="4"/>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -24336,9 +24419,9 @@
       <c r="G378" t="s">
         <v>14</v>
       </c>
-      <c r="L378" s="4"/>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M378" s="4"/>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -24360,9 +24443,9 @@
       <c r="G379" t="s">
         <v>14</v>
       </c>
-      <c r="L379" s="4"/>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M379" s="4"/>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -24384,9 +24467,9 @@
       <c r="G380" t="s">
         <v>14</v>
       </c>
-      <c r="L380" s="4"/>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M380" s="4"/>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -24408,9 +24491,9 @@
       <c r="G381" t="s">
         <v>14</v>
       </c>
-      <c r="L381" s="4"/>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M381" s="4"/>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -24432,9 +24515,9 @@
       <c r="G382" t="s">
         <v>14</v>
       </c>
-      <c r="L382" s="4"/>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M382" s="4"/>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -24456,9 +24539,9 @@
       <c r="G383" t="s">
         <v>14</v>
       </c>
-      <c r="L383" s="4"/>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M383" s="4"/>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -24480,9 +24563,9 @@
       <c r="G384" t="s">
         <v>14</v>
       </c>
-      <c r="L384" s="4"/>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M384" s="4"/>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -24504,9 +24587,9 @@
       <c r="G385" t="s">
         <v>14</v>
       </c>
-      <c r="L385" s="4"/>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M385" s="4"/>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -24528,9 +24611,9 @@
       <c r="G386" t="s">
         <v>14</v>
       </c>
-      <c r="L386" s="4"/>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M386" s="4"/>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -24552,9 +24635,9 @@
       <c r="G387" t="s">
         <v>14</v>
       </c>
-      <c r="L387" s="4"/>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M387" s="4"/>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -24576,9 +24659,9 @@
       <c r="G388" t="s">
         <v>14</v>
       </c>
-      <c r="L388" s="4"/>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M388" s="4"/>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -24600,9 +24683,9 @@
       <c r="G389" t="s">
         <v>14</v>
       </c>
-      <c r="L389" s="4"/>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M389" s="4"/>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -24624,9 +24707,9 @@
       <c r="G390" t="s">
         <v>14</v>
       </c>
-      <c r="L390" s="4"/>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M390" s="4"/>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -24648,9 +24731,9 @@
       <c r="G391" t="s">
         <v>14</v>
       </c>
-      <c r="L391" s="4"/>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M391" s="4"/>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -24672,9 +24755,9 @@
       <c r="G392" t="s">
         <v>14</v>
       </c>
-      <c r="L392" s="4"/>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M392" s="4"/>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -24696,9 +24779,9 @@
       <c r="G393" t="s">
         <v>14</v>
       </c>
-      <c r="L393" s="4"/>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M393" s="4"/>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -24720,9 +24803,9 @@
       <c r="G394" t="s">
         <v>14</v>
       </c>
-      <c r="L394" s="4"/>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M394" s="4"/>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -24744,9 +24827,9 @@
       <c r="G395" t="s">
         <v>14</v>
       </c>
-      <c r="L395" s="4"/>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M395" s="4"/>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -24768,9 +24851,9 @@
       <c r="G396" t="s">
         <v>14</v>
       </c>
-      <c r="L396" s="4"/>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M396" s="4"/>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -24792,9 +24875,9 @@
       <c r="G397" t="s">
         <v>14</v>
       </c>
-      <c r="L397" s="4"/>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M397" s="4"/>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -24816,9 +24899,9 @@
       <c r="G398" t="s">
         <v>14</v>
       </c>
-      <c r="L398" s="4"/>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M398" s="4"/>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -24840,9 +24923,9 @@
       <c r="G399" t="s">
         <v>14</v>
       </c>
-      <c r="L399" s="4"/>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M399" s="4"/>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -24864,9 +24947,9 @@
       <c r="G400" t="s">
         <v>14</v>
       </c>
-      <c r="L400" s="4"/>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M400" s="4"/>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -24888,9 +24971,9 @@
       <c r="G401" t="s">
         <v>14</v>
       </c>
-      <c r="L401" s="4"/>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M401" s="4"/>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -24912,9 +24995,9 @@
       <c r="G402" t="s">
         <v>14</v>
       </c>
-      <c r="L402" s="4"/>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M402" s="4"/>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -24936,9 +25019,9 @@
       <c r="G403" t="s">
         <v>14</v>
       </c>
-      <c r="L403" s="4"/>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M403" s="4"/>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -24960,9 +25043,9 @@
       <c r="G404" t="s">
         <v>14</v>
       </c>
-      <c r="L404" s="4"/>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M404" s="4"/>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -24984,9 +25067,9 @@
       <c r="G405" t="s">
         <v>14</v>
       </c>
-      <c r="L405" s="4"/>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M405" s="4"/>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -25008,9 +25091,9 @@
       <c r="G406" t="s">
         <v>14</v>
       </c>
-      <c r="L406" s="4"/>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M406" s="4"/>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -25032,9 +25115,9 @@
       <c r="G407" t="s">
         <v>14</v>
       </c>
-      <c r="L407" s="4"/>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M407" s="4"/>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -25056,9 +25139,9 @@
       <c r="G408" t="s">
         <v>50</v>
       </c>
-      <c r="L408" s="4"/>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M408" s="4"/>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -25080,9 +25163,9 @@
       <c r="G409" t="s">
         <v>50</v>
       </c>
-      <c r="L409" s="4"/>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M409" s="4"/>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -25104,9 +25187,9 @@
       <c r="G410" t="s">
         <v>50</v>
       </c>
-      <c r="L410" s="4"/>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M410" s="4"/>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -25128,9 +25211,9 @@
       <c r="G411" t="s">
         <v>50</v>
       </c>
-      <c r="L411" s="4"/>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M411" s="4"/>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -25152,9 +25235,9 @@
       <c r="G412" t="s">
         <v>50</v>
       </c>
-      <c r="L412" s="4"/>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M412" s="4"/>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -25176,9 +25259,9 @@
       <c r="G413" t="s">
         <v>50</v>
       </c>
-      <c r="L413" s="4"/>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M413" s="4"/>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -25200,9 +25283,9 @@
       <c r="G414" t="s">
         <v>50</v>
       </c>
-      <c r="L414" s="4"/>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M414" s="4"/>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -25224,9 +25307,9 @@
       <c r="G415" t="s">
         <v>50</v>
       </c>
-      <c r="L415" s="4"/>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M415" s="4"/>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -25248,9 +25331,9 @@
       <c r="G416" t="s">
         <v>50</v>
       </c>
-      <c r="L416" s="4"/>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M416" s="4"/>
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -25272,9 +25355,9 @@
       <c r="G417" t="s">
         <v>14</v>
       </c>
-      <c r="L417" s="4"/>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M417" s="4"/>
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -25296,9 +25379,9 @@
       <c r="G418" t="s">
         <v>14</v>
       </c>
-      <c r="L418" s="4"/>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M418" s="4"/>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -25320,9 +25403,9 @@
       <c r="G419" t="s">
         <v>14</v>
       </c>
-      <c r="L419" s="4"/>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M419" s="4"/>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -25344,9 +25427,9 @@
       <c r="G420" t="s">
         <v>14</v>
       </c>
-      <c r="L420" s="4"/>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M420" s="4"/>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -25368,9 +25451,9 @@
       <c r="G421" t="s">
         <v>14</v>
       </c>
-      <c r="L421" s="4"/>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M421" s="4"/>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -25392,9 +25475,9 @@
       <c r="G422" t="s">
         <v>14</v>
       </c>
-      <c r="L422" s="4"/>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M422" s="4"/>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -25416,9 +25499,9 @@
       <c r="G423" t="s">
         <v>14</v>
       </c>
-      <c r="L423" s="4"/>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M423" s="4"/>
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -25440,9 +25523,9 @@
       <c r="G424" t="s">
         <v>14</v>
       </c>
-      <c r="L424" s="4"/>
-    </row>
-    <row r="425" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M424" s="4"/>
+    </row>
+    <row r="425" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>424</v>
       </c>
@@ -25468,10 +25551,11 @@
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
       <c r="K425" s="3"/>
-      <c r="L425" s="5"/>
-      <c r="M425" s="3"/>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L425" s="3"/>
+      <c r="M425" s="5"/>
+      <c r="N425" s="3"/>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -25493,12 +25577,12 @@
       <c r="G426" t="s">
         <v>14</v>
       </c>
-      <c r="L426" s="4"/>
-      <c r="M426" t="s">
+      <c r="M426" s="4"/>
+      <c r="N426" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -25520,9 +25604,9 @@
       <c r="G427" t="s">
         <v>14</v>
       </c>
-      <c r="L427" s="4"/>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M427" s="4"/>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -25544,9 +25628,9 @@
       <c r="G428" t="s">
         <v>14</v>
       </c>
-      <c r="L428" s="4"/>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M428" s="4"/>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -25568,9 +25652,9 @@
       <c r="G429" t="s">
         <v>14</v>
       </c>
-      <c r="L429" s="4"/>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M429" s="4"/>
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -25592,9 +25676,9 @@
       <c r="G430" t="s">
         <v>14</v>
       </c>
-      <c r="L430" s="4"/>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M430" s="4"/>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -25616,9 +25700,9 @@
       <c r="G431" t="s">
         <v>14</v>
       </c>
-      <c r="L431" s="4"/>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M431" s="4"/>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -25640,9 +25724,9 @@
       <c r="G432" t="s">
         <v>14</v>
       </c>
-      <c r="L432" s="4"/>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M432" s="4"/>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -25664,9 +25748,9 @@
       <c r="G433" t="s">
         <v>14</v>
       </c>
-      <c r="L433" s="4"/>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M433" s="4"/>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -25685,9 +25769,9 @@
       <c r="G434" t="s">
         <v>14</v>
       </c>
-      <c r="L434" s="4"/>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M434" s="4"/>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -25709,9 +25793,9 @@
       <c r="G435" t="s">
         <v>14</v>
       </c>
-      <c r="L435" s="4"/>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M435" s="4"/>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -25733,9 +25817,9 @@
       <c r="G436" t="s">
         <v>14</v>
       </c>
-      <c r="L436" s="4"/>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M436" s="4"/>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -25757,9 +25841,9 @@
       <c r="G437" t="s">
         <v>14</v>
       </c>
-      <c r="L437" s="4"/>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M437" s="4"/>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -25781,12 +25865,12 @@
       <c r="G438" t="s">
         <v>20</v>
       </c>
-      <c r="L438" s="4"/>
-      <c r="M438" t="s">
+      <c r="M438" s="4"/>
+      <c r="N438" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -25808,9 +25892,9 @@
       <c r="G439" t="s">
         <v>20</v>
       </c>
-      <c r="L439" s="4"/>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M439" s="4"/>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -25832,9 +25916,9 @@
       <c r="G440" t="s">
         <v>20</v>
       </c>
-      <c r="L440" s="4"/>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M440" s="4"/>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -25866,13 +25950,16 @@
         <v>187</v>
       </c>
       <c r="K441" t="s">
+        <v>248</v>
+      </c>
+      <c r="L441" t="s">
         <v>188</v>
       </c>
-      <c r="L441" s="4" t="s">
+      <c r="M441" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -25894,9 +25981,9 @@
       <c r="G442" t="s">
         <v>14</v>
       </c>
-      <c r="L442" s="4"/>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M442" s="4"/>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -25918,9 +26005,9 @@
       <c r="G443" t="s">
         <v>14</v>
       </c>
-      <c r="L443" s="4"/>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M443" s="4"/>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -25942,9 +26029,9 @@
       <c r="G444" t="s">
         <v>14</v>
       </c>
-      <c r="L444" s="4"/>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M444" s="4"/>
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -25976,16 +26063,19 @@
         <v>191</v>
       </c>
       <c r="K445" t="s">
+        <v>253</v>
+      </c>
+      <c r="L445" t="s">
         <v>192</v>
       </c>
-      <c r="L445" s="4" t="s">
+      <c r="M445" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="M445" t="s">
+      <c r="N445" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -26017,16 +26107,19 @@
         <v>191</v>
       </c>
       <c r="K446" t="s">
+        <v>253</v>
+      </c>
+      <c r="L446" t="s">
         <v>193</v>
       </c>
-      <c r="L446" s="4" t="s">
+      <c r="M446" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="M446" t="s">
+      <c r="N446" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -26054,11 +26147,14 @@
       <c r="J447" t="s">
         <v>198</v>
       </c>
-      <c r="L447" s="4" t="s">
+      <c r="K447" t="s">
+        <v>248</v>
+      </c>
+      <c r="M447" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -26087,13 +26183,16 @@
         <v>198</v>
       </c>
       <c r="K448" t="s">
+        <v>247</v>
+      </c>
+      <c r="L448" t="s">
         <v>201</v>
       </c>
-      <c r="L448" s="4" t="s">
+      <c r="M448" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -26121,11 +26220,14 @@
       <c r="J449" t="s">
         <v>198</v>
       </c>
-      <c r="L449" s="4" t="s">
+      <c r="K449" t="s">
+        <v>248</v>
+      </c>
+      <c r="M449" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -26154,13 +26256,16 @@
         <v>198</v>
       </c>
       <c r="K450" t="s">
+        <v>248</v>
+      </c>
+      <c r="L450" t="s">
         <v>202</v>
       </c>
-      <c r="L450" s="4" t="s">
+      <c r="M450" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -26189,16 +26294,19 @@
         <v>198</v>
       </c>
       <c r="K451" t="s">
+        <v>248</v>
+      </c>
+      <c r="L451" t="s">
         <v>203</v>
       </c>
-      <c r="L451" s="4" t="s">
+      <c r="M451" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M451" s="9" t="s">
+      <c r="N451" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -26227,16 +26335,19 @@
         <v>198</v>
       </c>
       <c r="K452" t="s">
+        <v>248</v>
+      </c>
+      <c r="L452" t="s">
         <v>203</v>
       </c>
-      <c r="L452" s="4" t="s">
+      <c r="M452" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M452" s="9" t="s">
+      <c r="N452" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -26265,16 +26376,19 @@
         <v>198</v>
       </c>
       <c r="K453" t="s">
+        <v>253</v>
+      </c>
+      <c r="L453" t="s">
         <v>203</v>
       </c>
-      <c r="L453" s="4" t="s">
+      <c r="M453" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M453" s="9" t="s">
+      <c r="N453" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -26303,16 +26417,19 @@
         <v>198</v>
       </c>
       <c r="K454" t="s">
+        <v>253</v>
+      </c>
+      <c r="L454" t="s">
         <v>203</v>
       </c>
-      <c r="L454" s="4" t="s">
+      <c r="M454" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M454" s="9" t="s">
+      <c r="N454" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -26341,16 +26458,19 @@
         <v>198</v>
       </c>
       <c r="K455" t="s">
+        <v>253</v>
+      </c>
+      <c r="L455" t="s">
         <v>203</v>
       </c>
-      <c r="L455" s="4" t="s">
+      <c r="M455" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M455" s="9" t="s">
+      <c r="N455" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -26379,16 +26499,19 @@
         <v>198</v>
       </c>
       <c r="K456" t="s">
+        <v>248</v>
+      </c>
+      <c r="L456" t="s">
         <v>203</v>
       </c>
-      <c r="L456" s="4" t="s">
+      <c r="M456" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M456" s="9" t="s">
+      <c r="N456" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -26417,16 +26540,19 @@
         <v>198</v>
       </c>
       <c r="K457" t="s">
+        <v>248</v>
+      </c>
+      <c r="L457" t="s">
         <v>203</v>
       </c>
-      <c r="L457" s="4" t="s">
+      <c r="M457" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M457" s="9" t="s">
+      <c r="N457" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -26455,16 +26581,19 @@
         <v>198</v>
       </c>
       <c r="K458" t="s">
+        <v>253</v>
+      </c>
+      <c r="L458" t="s">
         <v>203</v>
       </c>
-      <c r="L458" s="4" t="s">
+      <c r="M458" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M458" s="9" t="s">
+      <c r="N458" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -26486,12 +26615,12 @@
       <c r="G459" t="s">
         <v>14</v>
       </c>
-      <c r="L459" s="4"/>
-      <c r="M459" t="s">
+      <c r="M459" s="4"/>
+      <c r="N459" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -26513,9 +26642,9 @@
       <c r="G460" t="s">
         <v>14</v>
       </c>
-      <c r="L460" s="4"/>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M460" s="4"/>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -26537,9 +26666,9 @@
       <c r="G461" t="s">
         <v>14</v>
       </c>
-      <c r="L461" s="4"/>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M461" s="4"/>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -26561,9 +26690,9 @@
       <c r="G462" t="s">
         <v>14</v>
       </c>
-      <c r="L462" s="4"/>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M462" s="4"/>
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -26585,9 +26714,9 @@
       <c r="G463" t="s">
         <v>14</v>
       </c>
-      <c r="L463" s="4"/>
-    </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M463" s="4"/>
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -26609,9 +26738,9 @@
       <c r="G464" t="s">
         <v>14</v>
       </c>
-      <c r="L464" s="4"/>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M464" s="4"/>
+    </row>
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -26633,9 +26762,9 @@
       <c r="G465" t="s">
         <v>14</v>
       </c>
-      <c r="L465" s="4"/>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M465" s="4"/>
+    </row>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -26657,9 +26786,9 @@
       <c r="G466" t="s">
         <v>14</v>
       </c>
-      <c r="L466" s="4"/>
-    </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M466" s="4"/>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -26681,9 +26810,9 @@
       <c r="G467" t="s">
         <v>14</v>
       </c>
-      <c r="L467" s="4"/>
-    </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M467" s="4"/>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -26705,9 +26834,9 @@
       <c r="G468" t="s">
         <v>14</v>
       </c>
-      <c r="L468" s="4"/>
-    </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M468" s="4"/>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -26729,9 +26858,9 @@
       <c r="G469" t="s">
         <v>14</v>
       </c>
-      <c r="L469" s="4"/>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M469" s="4"/>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -26753,9 +26882,9 @@
       <c r="G470" t="s">
         <v>14</v>
       </c>
-      <c r="L470" s="4"/>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M470" s="4"/>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -26777,9 +26906,9 @@
       <c r="G471" t="s">
         <v>14</v>
       </c>
-      <c r="L471" s="4"/>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M471" s="4"/>
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -26801,9 +26930,9 @@
       <c r="G472" t="s">
         <v>14</v>
       </c>
-      <c r="L472" s="4"/>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M472" s="4"/>
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -26825,9 +26954,9 @@
       <c r="G473" t="s">
         <v>14</v>
       </c>
-      <c r="L473" s="4"/>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M473" s="4"/>
+    </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -26849,9 +26978,9 @@
       <c r="G474" t="s">
         <v>14</v>
       </c>
-      <c r="L474" s="4"/>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M474" s="4"/>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -26873,9 +27002,9 @@
       <c r="G475" t="s">
         <v>14</v>
       </c>
-      <c r="L475" s="4"/>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M475" s="4"/>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -26897,9 +27026,9 @@
       <c r="G476" t="s">
         <v>14</v>
       </c>
-      <c r="L476" s="4"/>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M476" s="4"/>
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -26921,9 +27050,9 @@
       <c r="G477" t="s">
         <v>14</v>
       </c>
-      <c r="L477" s="4"/>
-    </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M477" s="4"/>
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -26945,9 +27074,9 @@
       <c r="G478" t="s">
         <v>14</v>
       </c>
-      <c r="L478" s="4"/>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M478" s="4"/>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -26969,9 +27098,9 @@
       <c r="G479" t="s">
         <v>14</v>
       </c>
-      <c r="L479" s="4"/>
-    </row>
-    <row r="480" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M479" s="4"/>
+    </row>
+    <row r="480" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>479</v>
       </c>
@@ -26997,10 +27126,11 @@
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
       <c r="K480" s="3"/>
-      <c r="L480" s="5"/>
-      <c r="M480" s="3"/>
-    </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L480" s="3"/>
+      <c r="M480" s="5"/>
+      <c r="N480" s="3"/>
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -27022,9 +27152,9 @@
       <c r="G481" t="s">
         <v>14</v>
       </c>
-      <c r="L481" s="4"/>
-    </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M481" s="4"/>
+    </row>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -27046,9 +27176,9 @@
       <c r="G482" t="s">
         <v>14</v>
       </c>
-      <c r="L482" s="4"/>
-    </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M482" s="4"/>
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -27070,9 +27200,9 @@
       <c r="G483" t="s">
         <v>14</v>
       </c>
-      <c r="L483" s="4"/>
-    </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M483" s="4"/>
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -27094,9 +27224,9 @@
       <c r="G484" t="s">
         <v>14</v>
       </c>
-      <c r="L484" s="4"/>
-    </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M484" s="4"/>
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -27118,9 +27248,9 @@
       <c r="G485" t="s">
         <v>14</v>
       </c>
-      <c r="L485" s="4"/>
-    </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M485" s="4"/>
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -27142,9 +27272,9 @@
       <c r="G486" t="s">
         <v>14</v>
       </c>
-      <c r="L486" s="4"/>
-    </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M486" s="4"/>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -27166,9 +27296,9 @@
       <c r="G487" t="s">
         <v>14</v>
       </c>
-      <c r="L487" s="4"/>
-    </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M487" s="4"/>
+    </row>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -27190,9 +27320,9 @@
       <c r="G488" t="s">
         <v>14</v>
       </c>
-      <c r="L488" s="4"/>
-    </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M488" s="4"/>
+    </row>
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -27214,9 +27344,9 @@
       <c r="G489" t="s">
         <v>14</v>
       </c>
-      <c r="L489" s="4"/>
-    </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M489" s="4"/>
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -27238,12 +27368,12 @@
       <c r="G490" t="s">
         <v>14</v>
       </c>
-      <c r="L490" s="4"/>
-      <c r="M490" t="s">
+      <c r="M490" s="4"/>
+      <c r="N490" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -27265,9 +27395,9 @@
       <c r="G491" t="s">
         <v>14</v>
       </c>
-      <c r="L491" s="4"/>
-    </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M491" s="4"/>
+    </row>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -27289,9 +27419,9 @@
       <c r="G492" t="s">
         <v>14</v>
       </c>
-      <c r="L492" s="4"/>
-    </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M492" s="4"/>
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -27313,9 +27443,9 @@
       <c r="G493" t="s">
         <v>14</v>
       </c>
-      <c r="L493" s="4"/>
-    </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M493" s="4"/>
+    </row>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -27337,9 +27467,9 @@
       <c r="G494" t="s">
         <v>14</v>
       </c>
-      <c r="L494" s="4"/>
-    </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M494" s="4"/>
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -27361,9 +27491,9 @@
       <c r="G495" t="s">
         <v>14</v>
       </c>
-      <c r="L495" s="4"/>
-    </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M495" s="4"/>
+    </row>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -27385,9 +27515,9 @@
       <c r="G496" t="s">
         <v>14</v>
       </c>
-      <c r="L496" s="4"/>
-    </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M496" s="4"/>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -27409,9 +27539,9 @@
       <c r="G497" t="s">
         <v>14</v>
       </c>
-      <c r="L497" s="4"/>
-    </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M497" s="4"/>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -27433,9 +27563,9 @@
       <c r="G498" t="s">
         <v>14</v>
       </c>
-      <c r="L498" s="4"/>
-    </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M498" s="4"/>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -27457,9 +27587,9 @@
       <c r="G499" t="s">
         <v>14</v>
       </c>
-      <c r="L499" s="4"/>
-    </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M499" s="4"/>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -27481,9 +27611,9 @@
       <c r="G500" t="s">
         <v>14</v>
       </c>
-      <c r="L500" s="4"/>
-    </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M500" s="4"/>
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -27499,12 +27629,12 @@
       <c r="G501" t="s">
         <v>14</v>
       </c>
-      <c r="L501" s="4"/>
-      <c r="M501" t="s">
+      <c r="M501" s="4"/>
+      <c r="N501" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -27526,9 +27656,9 @@
       <c r="G502" t="s">
         <v>14</v>
       </c>
-      <c r="L502" s="4"/>
-    </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M502" s="4"/>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -27550,9 +27680,9 @@
       <c r="G503" t="s">
         <v>14</v>
       </c>
-      <c r="L503" s="4"/>
-    </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M503" s="4"/>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -27574,9 +27704,9 @@
       <c r="G504" t="s">
         <v>14</v>
       </c>
-      <c r="L504" s="4"/>
-    </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M504" s="4"/>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -27598,9 +27728,9 @@
       <c r="G505" t="s">
         <v>14</v>
       </c>
-      <c r="L505" s="4"/>
-    </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M505" s="4"/>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -27622,9 +27752,9 @@
       <c r="G506" t="s">
         <v>14</v>
       </c>
-      <c r="L506" s="4"/>
-    </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M506" s="4"/>
+    </row>
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -27653,13 +27783,16 @@
         <v>207</v>
       </c>
       <c r="K507" t="s">
+        <v>247</v>
+      </c>
+      <c r="L507" t="s">
         <v>210</v>
       </c>
-      <c r="L507" s="4" t="s">
+      <c r="M507" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -27687,14 +27820,17 @@
       <c r="J508" t="s">
         <v>207</v>
       </c>
-      <c r="L508" s="4" t="s">
+      <c r="K508" t="s">
+        <v>247</v>
+      </c>
+      <c r="M508" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="M508" t="s">
+      <c r="N508" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -27716,9 +27852,9 @@
       <c r="G509" t="s">
         <v>14</v>
       </c>
-      <c r="L509" s="4"/>
-    </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M509" s="4"/>
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -27747,13 +27883,16 @@
         <v>179</v>
       </c>
       <c r="K510" t="s">
+        <v>252</v>
+      </c>
+      <c r="L510" t="s">
         <v>213</v>
       </c>
-      <c r="L510" s="4" t="s">
+      <c r="M510" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -27782,13 +27921,16 @@
         <v>179</v>
       </c>
       <c r="K511" t="s">
+        <v>252</v>
+      </c>
+      <c r="L511" t="s">
         <v>214</v>
       </c>
-      <c r="L511" s="4" t="s">
+      <c r="M511" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -27810,9 +27952,9 @@
       <c r="G512" t="s">
         <v>14</v>
       </c>
-      <c r="L512" s="4"/>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M512" s="4"/>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -27840,11 +27982,14 @@
       <c r="J513" t="s">
         <v>179</v>
       </c>
-      <c r="L513" s="4" t="s">
+      <c r="K513" t="s">
+        <v>252</v>
+      </c>
+      <c r="M513" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -27866,9 +28011,9 @@
       <c r="G514" t="s">
         <v>14</v>
       </c>
-      <c r="L514" s="4"/>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M514" s="4"/>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -27890,9 +28035,9 @@
       <c r="G515" t="s">
         <v>14</v>
       </c>
-      <c r="L515" s="4"/>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M515" s="4"/>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
@@ -27914,9 +28059,9 @@
       <c r="G516" t="s">
         <v>14</v>
       </c>
-      <c r="L516" s="4"/>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M516" s="4"/>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -27938,9 +28083,9 @@
       <c r="G517" t="s">
         <v>14</v>
       </c>
-      <c r="L517" s="4"/>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M517" s="4"/>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -27962,9 +28107,9 @@
       <c r="G518" t="s">
         <v>14</v>
       </c>
-      <c r="L518" s="4"/>
-    </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M518" s="4"/>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -27986,9 +28131,9 @@
       <c r="G519" t="s">
         <v>14</v>
       </c>
-      <c r="L519" s="4"/>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M519" s="4"/>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -28010,9 +28155,9 @@
       <c r="G520" t="s">
         <v>14</v>
       </c>
-      <c r="L520" s="4"/>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M520" s="4"/>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -28034,9 +28179,9 @@
       <c r="G521" t="s">
         <v>14</v>
       </c>
-      <c r="L521" s="4"/>
-    </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M521" s="4"/>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -28058,9 +28203,9 @@
       <c r="G522" t="s">
         <v>14</v>
       </c>
-      <c r="L522" s="4"/>
-    </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M522" s="4"/>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -28082,9 +28227,9 @@
       <c r="G523" t="s">
         <v>14</v>
       </c>
-      <c r="L523" s="4"/>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M523" s="4"/>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -28106,9 +28251,9 @@
       <c r="G524" t="s">
         <v>14</v>
       </c>
-      <c r="L524" s="4"/>
-    </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M524" s="4"/>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
@@ -28130,9 +28275,9 @@
       <c r="G525" t="s">
         <v>14</v>
       </c>
-      <c r="L525" s="4"/>
-    </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M525" s="4"/>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
@@ -28154,9 +28299,9 @@
       <c r="G526" t="s">
         <v>14</v>
       </c>
-      <c r="L526" s="4"/>
-    </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M526" s="4"/>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
@@ -28178,9 +28323,9 @@
       <c r="G527" t="s">
         <v>14</v>
       </c>
-      <c r="L527" s="4"/>
-    </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M527" s="4"/>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
@@ -28202,9 +28347,9 @@
       <c r="G528" t="s">
         <v>14</v>
       </c>
-      <c r="L528" s="4"/>
-    </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M528" s="4"/>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -28226,9 +28371,9 @@
       <c r="G529" t="s">
         <v>14</v>
       </c>
-      <c r="L529" s="4"/>
-    </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M529" s="4"/>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
@@ -28250,9 +28395,9 @@
       <c r="G530" t="s">
         <v>14</v>
       </c>
-      <c r="L530" s="4"/>
-    </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M530" s="4"/>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
@@ -28274,9 +28419,9 @@
       <c r="G531" t="s">
         <v>14</v>
       </c>
-      <c r="L531" s="4"/>
-    </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M531" s="4"/>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
@@ -28298,9 +28443,9 @@
       <c r="G532" t="s">
         <v>14</v>
       </c>
-      <c r="L532" s="4"/>
-    </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M532" s="4"/>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
@@ -28322,9 +28467,9 @@
       <c r="G533" t="s">
         <v>14</v>
       </c>
-      <c r="L533" s="4"/>
-    </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M533" s="4"/>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -28346,9 +28491,9 @@
       <c r="G534" t="s">
         <v>14</v>
       </c>
-      <c r="L534" s="4"/>
-    </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M534" s="4"/>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
@@ -28370,9 +28515,9 @@
       <c r="G535" t="s">
         <v>14</v>
       </c>
-      <c r="L535" s="4"/>
-    </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M535" s="4"/>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -28394,9 +28539,9 @@
       <c r="G536" t="s">
         <v>14</v>
       </c>
-      <c r="L536" s="4"/>
-    </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M536" s="4"/>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
@@ -28418,9 +28563,9 @@
       <c r="G537" t="s">
         <v>14</v>
       </c>
-      <c r="L537" s="4"/>
-    </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M537" s="4"/>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
@@ -28442,9 +28587,9 @@
       <c r="G538" t="s">
         <v>14</v>
       </c>
-      <c r="L538" s="4"/>
-    </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M538" s="4"/>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
@@ -28466,9 +28611,9 @@
       <c r="G539" t="s">
         <v>14</v>
       </c>
-      <c r="L539" s="4"/>
-    </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M539" s="4"/>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -28490,9 +28635,9 @@
       <c r="G540" t="s">
         <v>14</v>
       </c>
-      <c r="L540" s="4"/>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M540" s="4"/>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>540</v>
       </c>
@@ -28514,9 +28659,9 @@
       <c r="G541" t="s">
         <v>14</v>
       </c>
-      <c r="L541" s="4"/>
-    </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M541" s="4"/>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
@@ -28538,9 +28683,9 @@
       <c r="G542" t="s">
         <v>14</v>
       </c>
-      <c r="L542" s="4"/>
-    </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M542" s="4"/>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>542</v>
       </c>
@@ -28562,9 +28707,9 @@
       <c r="G543" t="s">
         <v>14</v>
       </c>
-      <c r="L543" s="4"/>
-    </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M543" s="4"/>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -28586,9 +28731,9 @@
       <c r="G544" t="s">
         <v>14</v>
       </c>
-      <c r="L544" s="4"/>
-    </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M544" s="4"/>
+    </row>
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -28610,9 +28755,9 @@
       <c r="G545" t="s">
         <v>14</v>
       </c>
-      <c r="L545" s="4"/>
-    </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M545" s="4"/>
+    </row>
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -28634,9 +28779,9 @@
       <c r="G546" t="s">
         <v>14</v>
       </c>
-      <c r="L546" s="4"/>
-    </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M546" s="4"/>
+    </row>
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -28658,9 +28803,9 @@
       <c r="G547" t="s">
         <v>14</v>
       </c>
-      <c r="L547" s="4"/>
-    </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M547" s="4"/>
+    </row>
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
@@ -28682,9 +28827,9 @@
       <c r="G548" t="s">
         <v>14</v>
       </c>
-      <c r="L548" s="4"/>
-    </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M548" s="4"/>
+    </row>
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
@@ -28706,9 +28851,9 @@
       <c r="G549" t="s">
         <v>14</v>
       </c>
-      <c r="L549" s="4"/>
-    </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M549" s="4"/>
+    </row>
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
@@ -28730,9 +28875,9 @@
       <c r="G550" t="s">
         <v>14</v>
       </c>
-      <c r="L550" s="4"/>
-    </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M550" s="4"/>
+    </row>
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
@@ -28754,9 +28899,9 @@
       <c r="G551" t="s">
         <v>14</v>
       </c>
-      <c r="L551" s="4"/>
-    </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M551" s="4"/>
+    </row>
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
@@ -28778,9 +28923,9 @@
       <c r="G552" t="s">
         <v>14</v>
       </c>
-      <c r="L552" s="4"/>
-    </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M552" s="4"/>
+    </row>
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
@@ -28802,9 +28947,9 @@
       <c r="G553" t="s">
         <v>14</v>
       </c>
-      <c r="L553" s="4"/>
-    </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M553" s="4"/>
+    </row>
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
@@ -28826,9 +28971,9 @@
       <c r="G554" t="s">
         <v>14</v>
       </c>
-      <c r="L554" s="4"/>
-    </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M554" s="4"/>
+    </row>
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
@@ -28850,9 +28995,9 @@
       <c r="G555" t="s">
         <v>14</v>
       </c>
-      <c r="L555" s="4"/>
-    </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M555" s="4"/>
+    </row>
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>555</v>
       </c>
@@ -28874,9 +29019,9 @@
       <c r="G556" t="s">
         <v>14</v>
       </c>
-      <c r="L556" s="4"/>
-    </row>
-    <row r="557" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M556" s="4"/>
+    </row>
+    <row r="557" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="3">
         <v>556</v>
       </c>
@@ -28902,10 +29047,11 @@
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
       <c r="K557" s="3"/>
-      <c r="L557" s="5"/>
-      <c r="M557" s="3"/>
-    </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L557" s="3"/>
+      <c r="M557" s="5"/>
+      <c r="N557" s="3"/>
+    </row>
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>557</v>
       </c>
@@ -28927,9 +29073,9 @@
       <c r="G558" t="s">
         <v>14</v>
       </c>
-      <c r="L558" s="4"/>
-    </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M558" s="4"/>
+    </row>
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
@@ -28951,12 +29097,12 @@
       <c r="G559" t="s">
         <v>14</v>
       </c>
-      <c r="L559" s="4"/>
-      <c r="M559" t="s">
+      <c r="M559" s="4"/>
+      <c r="N559" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>559</v>
       </c>
@@ -28978,12 +29124,12 @@
       <c r="G560" t="s">
         <v>14</v>
       </c>
-      <c r="L560" s="4"/>
-      <c r="M560" t="s">
+      <c r="M560" s="4"/>
+      <c r="N560" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>560</v>
       </c>
@@ -29005,12 +29151,12 @@
       <c r="G561" t="s">
         <v>14</v>
       </c>
-      <c r="L561" s="4"/>
-      <c r="M561" t="s">
+      <c r="M561" s="4"/>
+      <c r="N561" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>561</v>
       </c>
@@ -29032,12 +29178,12 @@
       <c r="G562" t="s">
         <v>14</v>
       </c>
-      <c r="L562" s="4"/>
-      <c r="M562" t="s">
+      <c r="M562" s="4"/>
+      <c r="N562" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>562</v>
       </c>
@@ -29059,12 +29205,12 @@
       <c r="G563" t="s">
         <v>14</v>
       </c>
-      <c r="L563" s="4"/>
-      <c r="M563" t="s">
+      <c r="M563" s="4"/>
+      <c r="N563" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>563</v>
       </c>
@@ -29086,12 +29232,12 @@
       <c r="G564" t="s">
         <v>14</v>
       </c>
-      <c r="L564" s="4"/>
-      <c r="M564" t="s">
+      <c r="M564" s="4"/>
+      <c r="N564" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>564</v>
       </c>
@@ -29113,12 +29259,12 @@
       <c r="G565" t="s">
         <v>14</v>
       </c>
-      <c r="L565" s="4"/>
-      <c r="M565" t="s">
+      <c r="M565" s="4"/>
+      <c r="N565" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>565</v>
       </c>
@@ -29140,9 +29286,9 @@
       <c r="G566" t="s">
         <v>14</v>
       </c>
-      <c r="L566" s="4"/>
-    </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M566" s="4"/>
+    </row>
+    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>566</v>
       </c>
@@ -29164,9 +29310,9 @@
       <c r="G567" t="s">
         <v>14</v>
       </c>
-      <c r="L567" s="4"/>
-    </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M567" s="4"/>
+    </row>
+    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>567</v>
       </c>
@@ -29188,12 +29334,12 @@
       <c r="G568" t="s">
         <v>34</v>
       </c>
-      <c r="L568" s="4"/>
-      <c r="M568" t="s">
+      <c r="M568" s="4"/>
+      <c r="N568" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>568</v>
       </c>
@@ -29215,9 +29361,9 @@
       <c r="G569" t="s">
         <v>34</v>
       </c>
-      <c r="L569" s="4"/>
-    </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M569" s="4"/>
+    </row>
+    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
@@ -29239,9 +29385,9 @@
       <c r="G570" t="s">
         <v>34</v>
       </c>
-      <c r="L570" s="4"/>
-    </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M570" s="4"/>
+    </row>
+    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>570</v>
       </c>
@@ -29263,9 +29409,9 @@
       <c r="G571" t="s">
         <v>34</v>
       </c>
-      <c r="L571" s="4"/>
-    </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M571" s="4"/>
+    </row>
+    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>571</v>
       </c>
@@ -29287,9 +29433,9 @@
       <c r="G572" t="s">
         <v>34</v>
       </c>
-      <c r="L572" s="4"/>
-    </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M572" s="4"/>
+    </row>
+    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>572</v>
       </c>
@@ -29311,9 +29457,9 @@
       <c r="G573" t="s">
         <v>34</v>
       </c>
-      <c r="L573" s="4"/>
-    </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M573" s="4"/>
+    </row>
+    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>573</v>
       </c>
@@ -29335,9 +29481,9 @@
       <c r="G574" t="s">
         <v>34</v>
       </c>
-      <c r="L574" s="4"/>
-    </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M574" s="4"/>
+    </row>
+    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>574</v>
       </c>
@@ -29359,9 +29505,9 @@
       <c r="G575" t="s">
         <v>34</v>
       </c>
-      <c r="L575" s="4"/>
-    </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M575" s="4"/>
+    </row>
+    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>575</v>
       </c>
@@ -29383,9 +29529,9 @@
       <c r="G576" t="s">
         <v>34</v>
       </c>
-      <c r="L576" s="4"/>
-    </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M576" s="4"/>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>576</v>
       </c>
@@ -29407,9 +29553,9 @@
       <c r="G577" t="s">
         <v>34</v>
       </c>
-      <c r="L577" s="4"/>
-    </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M577" s="4"/>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>577</v>
       </c>
@@ -29431,9 +29577,9 @@
       <c r="G578" t="s">
         <v>34</v>
       </c>
-      <c r="L578" s="4"/>
-    </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M578" s="4"/>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>578</v>
       </c>
@@ -29455,9 +29601,9 @@
       <c r="G579" t="s">
         <v>34</v>
       </c>
-      <c r="L579" s="4"/>
-    </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M579" s="4"/>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>579</v>
       </c>
@@ -29479,9 +29625,9 @@
       <c r="G580" t="s">
         <v>34</v>
       </c>
-      <c r="L580" s="4"/>
-    </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M580" s="4"/>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>580</v>
       </c>
@@ -29503,9 +29649,9 @@
       <c r="G581" t="s">
         <v>34</v>
       </c>
-      <c r="L581" s="4"/>
-    </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M581" s="4"/>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>581</v>
       </c>
@@ -29527,9 +29673,9 @@
       <c r="G582" t="s">
         <v>34</v>
       </c>
-      <c r="L582" s="4"/>
-    </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M582" s="4"/>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>582</v>
       </c>
@@ -29551,9 +29697,9 @@
       <c r="G583" t="s">
         <v>14</v>
       </c>
-      <c r="L583" s="4"/>
-    </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M583" s="4"/>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>583</v>
       </c>
@@ -29575,9 +29721,9 @@
       <c r="G584" t="s">
         <v>14</v>
       </c>
-      <c r="L584" s="4"/>
-    </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M584" s="4"/>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>584</v>
       </c>
@@ -29599,9 +29745,9 @@
       <c r="G585" t="s">
         <v>14</v>
       </c>
-      <c r="L585" s="4"/>
-    </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M585" s="4"/>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>585</v>
       </c>
@@ -29623,9 +29769,9 @@
       <c r="G586" t="s">
         <v>14</v>
       </c>
-      <c r="L586" s="4"/>
-    </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M586" s="4"/>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>586</v>
       </c>
@@ -29647,9 +29793,9 @@
       <c r="G587" t="s">
         <v>14</v>
       </c>
-      <c r="L587" s="4"/>
-    </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M587" s="4"/>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>587</v>
       </c>
@@ -29671,9 +29817,9 @@
       <c r="G588" t="s">
         <v>14</v>
       </c>
-      <c r="L588" s="4"/>
-    </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M588" s="4"/>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>588</v>
       </c>
@@ -29695,9 +29841,9 @@
       <c r="G589" t="s">
         <v>14</v>
       </c>
-      <c r="L589" s="4"/>
-    </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M589" s="4"/>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>589</v>
       </c>
@@ -29719,9 +29865,9 @@
       <c r="G590" t="s">
         <v>14</v>
       </c>
-      <c r="L590" s="4"/>
-    </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M590" s="4"/>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>590</v>
       </c>
@@ -29743,9 +29889,9 @@
       <c r="G591" t="s">
         <v>14</v>
       </c>
-      <c r="L591" s="4"/>
-    </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M591" s="4"/>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>591</v>
       </c>
@@ -29767,9 +29913,9 @@
       <c r="G592" t="s">
         <v>14</v>
       </c>
-      <c r="L592" s="4"/>
-    </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M592" s="4"/>
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>592</v>
       </c>
@@ -29791,9 +29937,9 @@
       <c r="G593" t="s">
         <v>14</v>
       </c>
-      <c r="L593" s="4"/>
-    </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M593" s="4"/>
+    </row>
+    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>593</v>
       </c>
@@ -29815,9 +29961,9 @@
       <c r="G594" t="s">
         <v>14</v>
       </c>
-      <c r="L594" s="4"/>
-    </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M594" s="4"/>
+    </row>
+    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>594</v>
       </c>
@@ -29839,9 +29985,9 @@
       <c r="G595" t="s">
         <v>14</v>
       </c>
-      <c r="L595" s="4"/>
-    </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M595" s="4"/>
+    </row>
+    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>595</v>
       </c>
@@ -29863,9 +30009,9 @@
       <c r="G596" t="s">
         <v>14</v>
       </c>
-      <c r="L596" s="4"/>
-    </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M596" s="4"/>
+    </row>
+    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>596</v>
       </c>
@@ -29887,9 +30033,9 @@
       <c r="G597" t="s">
         <v>14</v>
       </c>
-      <c r="L597" s="4"/>
-    </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M597" s="4"/>
+    </row>
+    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>597</v>
       </c>
@@ -29911,9 +30057,9 @@
       <c r="G598" t="s">
         <v>14</v>
       </c>
-      <c r="L598" s="4"/>
-    </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M598" s="4"/>
+    </row>
+    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>598</v>
       </c>
@@ -29935,9 +30081,9 @@
       <c r="G599" t="s">
         <v>14</v>
       </c>
-      <c r="L599" s="4"/>
-    </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M599" s="4"/>
+    </row>
+    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>599</v>
       </c>
@@ -29959,9 +30105,9 @@
       <c r="G600" t="s">
         <v>14</v>
       </c>
-      <c r="L600" s="4"/>
-    </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M600" s="4"/>
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>600</v>
       </c>
@@ -29983,9 +30129,9 @@
       <c r="G601" t="s">
         <v>14</v>
       </c>
-      <c r="L601" s="4"/>
-    </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M601" s="4"/>
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>601</v>
       </c>
@@ -30007,9 +30153,9 @@
       <c r="G602" t="s">
         <v>14</v>
       </c>
-      <c r="L602" s="4"/>
-    </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M602" s="4"/>
+    </row>
+    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>602</v>
       </c>
@@ -30031,9 +30177,9 @@
       <c r="G603" t="s">
         <v>14</v>
       </c>
-      <c r="L603" s="4"/>
-    </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M603" s="4"/>
+    </row>
+    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>603</v>
       </c>
@@ -30064,11 +30210,14 @@
       <c r="J604" t="s">
         <v>217</v>
       </c>
-      <c r="L604" s="4" t="s">
+      <c r="K604" t="s">
+        <v>248</v>
+      </c>
+      <c r="M604" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>604</v>
       </c>
@@ -30100,13 +30249,16 @@
         <v>217</v>
       </c>
       <c r="K605" t="s">
+        <v>248</v>
+      </c>
+      <c r="L605" t="s">
         <v>220</v>
       </c>
-      <c r="L605" s="4" t="s">
+      <c r="M605" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>605</v>
       </c>
@@ -30134,11 +30286,14 @@
       <c r="J606" t="s">
         <v>223</v>
       </c>
-      <c r="L606" s="4" t="s">
+      <c r="K606" t="s">
+        <v>254</v>
+      </c>
+      <c r="M606" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>606</v>
       </c>
@@ -30167,13 +30322,16 @@
         <v>127</v>
       </c>
       <c r="K607" t="s">
+        <v>253</v>
+      </c>
+      <c r="L607" t="s">
         <v>128</v>
       </c>
-      <c r="L607" s="4" t="s">
+      <c r="M607" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>607</v>
       </c>
@@ -30202,16 +30360,19 @@
         <v>131</v>
       </c>
       <c r="K608" t="s">
+        <v>253</v>
+      </c>
+      <c r="L608" t="s">
         <v>132</v>
       </c>
-      <c r="L608" s="4" t="s">
+      <c r="M608" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M608" s="9" t="s">
+      <c r="N608" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>608</v>
       </c>
@@ -30240,16 +30401,19 @@
         <v>131</v>
       </c>
       <c r="K609" t="s">
+        <v>253</v>
+      </c>
+      <c r="L609" t="s">
         <v>133</v>
       </c>
-      <c r="L609" s="4" t="s">
+      <c r="M609" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M609" s="9" t="s">
+      <c r="N609" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>609</v>
       </c>
@@ -30278,16 +30442,19 @@
         <v>138</v>
       </c>
       <c r="K610" t="s">
+        <v>253</v>
+      </c>
+      <c r="L610" t="s">
         <v>139</v>
       </c>
-      <c r="L610" s="4" t="s">
+      <c r="M610" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="M610" s="9" t="s">
+      <c r="N610" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>610</v>
       </c>
@@ -30316,16 +30483,19 @@
         <v>138</v>
       </c>
       <c r="K611" t="s">
+        <v>253</v>
+      </c>
+      <c r="L611" t="s">
         <v>139</v>
       </c>
-      <c r="L611" s="4" t="s">
+      <c r="M611" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="M611" s="9" t="s">
+      <c r="N611" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>611</v>
       </c>
@@ -30347,9 +30517,9 @@
       <c r="G612" t="s">
         <v>14</v>
       </c>
-      <c r="L612" s="4"/>
-    </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M612" s="4"/>
+    </row>
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>612</v>
       </c>
@@ -30371,9 +30541,9 @@
       <c r="G613" t="s">
         <v>14</v>
       </c>
-      <c r="L613" s="4"/>
-    </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M613" s="4"/>
+    </row>
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>613</v>
       </c>
@@ -30395,9 +30565,9 @@
       <c r="G614" t="s">
         <v>14</v>
       </c>
-      <c r="L614" s="4"/>
-    </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M614" s="4"/>
+    </row>
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>614</v>
       </c>
@@ -30419,9 +30589,9 @@
       <c r="G615" t="s">
         <v>14</v>
       </c>
-      <c r="L615" s="4"/>
-    </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M615" s="4"/>
+    </row>
+    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>615</v>
       </c>
@@ -30443,9 +30613,9 @@
       <c r="G616" t="s">
         <v>50</v>
       </c>
-      <c r="L616" s="4"/>
-    </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M616" s="4"/>
+    </row>
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>616</v>
       </c>
@@ -30467,9 +30637,9 @@
       <c r="G617" t="s">
         <v>50</v>
       </c>
-      <c r="L617" s="4"/>
-    </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M617" s="4"/>
+    </row>
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>617</v>
       </c>
@@ -30491,9 +30661,9 @@
       <c r="G618" t="s">
         <v>50</v>
       </c>
-      <c r="L618" s="4"/>
-    </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M618" s="4"/>
+    </row>
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>618</v>
       </c>
@@ -30515,9 +30685,9 @@
       <c r="G619" t="s">
         <v>50</v>
       </c>
-      <c r="L619" s="4"/>
-    </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M619" s="4"/>
+    </row>
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>619</v>
       </c>
@@ -30539,9 +30709,9 @@
       <c r="G620" t="s">
         <v>14</v>
       </c>
-      <c r="L620" s="4"/>
-    </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M620" s="4"/>
+    </row>
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>620</v>
       </c>
@@ -30563,9 +30733,9 @@
       <c r="G621" t="s">
         <v>14</v>
       </c>
-      <c r="L621" s="4"/>
-    </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M621" s="4"/>
+    </row>
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>621</v>
       </c>
@@ -30587,9 +30757,9 @@
       <c r="G622" t="s">
         <v>14</v>
       </c>
-      <c r="L622" s="4"/>
-    </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M622" s="4"/>
+    </row>
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>622</v>
       </c>
@@ -30611,9 +30781,9 @@
       <c r="G623" t="s">
         <v>50</v>
       </c>
-      <c r="L623" s="4"/>
-    </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M623" s="4"/>
+    </row>
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>623</v>
       </c>
@@ -30635,9 +30805,9 @@
       <c r="G624" t="s">
         <v>50</v>
       </c>
-      <c r="L624" s="4"/>
-    </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M624" s="4"/>
+    </row>
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>624</v>
       </c>
@@ -30659,9 +30829,9 @@
       <c r="G625" t="s">
         <v>50</v>
       </c>
-      <c r="L625" s="4"/>
-    </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M625" s="4"/>
+    </row>
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>625</v>
       </c>
@@ -30683,9 +30853,9 @@
       <c r="G626" t="s">
         <v>50</v>
       </c>
-      <c r="L626" s="4"/>
-    </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M626" s="4"/>
+    </row>
+    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>626</v>
       </c>
@@ -30707,9 +30877,9 @@
       <c r="G627" t="s">
         <v>50</v>
       </c>
-      <c r="L627" s="4"/>
-    </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M627" s="4"/>
+    </row>
+    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>627</v>
       </c>
@@ -30731,9 +30901,9 @@
       <c r="G628" t="s">
         <v>50</v>
       </c>
-      <c r="L628" s="4"/>
-    </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M628" s="4"/>
+    </row>
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>628</v>
       </c>
@@ -30755,9 +30925,9 @@
       <c r="G629" t="s">
         <v>50</v>
       </c>
-      <c r="L629" s="4"/>
-    </row>
-    <row r="630" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M629" s="4"/>
+    </row>
+    <row r="630" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="3">
         <v>629</v>
       </c>
@@ -30783,10 +30953,11 @@
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
       <c r="K630" s="3"/>
-      <c r="L630" s="5"/>
-      <c r="M630" s="3"/>
-    </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L630" s="3"/>
+      <c r="M630" s="5"/>
+      <c r="N630" s="3"/>
+    </row>
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>630</v>
       </c>
@@ -30808,12 +30979,12 @@
       <c r="G631" t="s">
         <v>14</v>
       </c>
-      <c r="L631" s="4"/>
-      <c r="M631" t="s">
+      <c r="M631" s="4"/>
+      <c r="N631" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>631</v>
       </c>
@@ -30835,9 +31006,9 @@
       <c r="G632" t="s">
         <v>14</v>
       </c>
-      <c r="L632" s="4"/>
-    </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M632" s="4"/>
+    </row>
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>632</v>
       </c>
@@ -30859,9 +31030,9 @@
       <c r="G633" t="s">
         <v>14</v>
       </c>
-      <c r="L633" s="4"/>
-    </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M633" s="4"/>
+    </row>
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>633</v>
       </c>
@@ -30883,9 +31054,9 @@
       <c r="G634" t="s">
         <v>14</v>
       </c>
-      <c r="L634" s="4"/>
-    </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M634" s="4"/>
+    </row>
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>634</v>
       </c>
@@ -30907,9 +31078,9 @@
       <c r="G635" t="s">
         <v>14</v>
       </c>
-      <c r="L635" s="4"/>
-    </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M635" s="4"/>
+    </row>
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>635</v>
       </c>
@@ -30938,16 +31109,19 @@
         <v>226</v>
       </c>
       <c r="K636" t="s">
+        <v>253</v>
+      </c>
+      <c r="L636" t="s">
         <v>227</v>
       </c>
-      <c r="L636" s="4" t="s">
+      <c r="M636" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="M636" t="s">
+      <c r="N636" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>636</v>
       </c>
@@ -30969,9 +31143,9 @@
       <c r="G637" t="s">
         <v>14</v>
       </c>
-      <c r="L637" s="4"/>
-    </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M637" s="4"/>
+    </row>
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>637</v>
       </c>
@@ -30993,12 +31167,12 @@
       <c r="G638" t="s">
         <v>14</v>
       </c>
-      <c r="L638" s="4"/>
-      <c r="M638" t="s">
+      <c r="M638" s="4"/>
+      <c r="N638" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>638</v>
       </c>
@@ -31020,9 +31194,9 @@
       <c r="G639" t="s">
         <v>14</v>
       </c>
-      <c r="L639" s="4"/>
-    </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M639" s="4"/>
+    </row>
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>639</v>
       </c>
@@ -31044,9 +31218,9 @@
       <c r="G640" t="s">
         <v>14</v>
       </c>
-      <c r="L640" s="4"/>
-    </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M640" s="4"/>
+    </row>
+    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>640</v>
       </c>
@@ -31068,9 +31242,9 @@
       <c r="G641" t="s">
         <v>14</v>
       </c>
-      <c r="L641" s="4"/>
-    </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M641" s="4"/>
+    </row>
+    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>641</v>
       </c>
@@ -31092,9 +31266,9 @@
       <c r="G642" t="s">
         <v>14</v>
       </c>
-      <c r="L642" s="4"/>
-    </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M642" s="4"/>
+    </row>
+    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>642</v>
       </c>
@@ -31116,12 +31290,12 @@
       <c r="G643" t="s">
         <v>14</v>
       </c>
-      <c r="L643" s="4"/>
-      <c r="M643" t="s">
+      <c r="M643" s="4"/>
+      <c r="N643" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>643</v>
       </c>
@@ -31143,9 +31317,9 @@
       <c r="G644" t="s">
         <v>50</v>
       </c>
-      <c r="L644" s="4"/>
-    </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M644" s="4"/>
+    </row>
+    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>644</v>
       </c>
@@ -31167,9 +31341,9 @@
       <c r="G645" t="s">
         <v>50</v>
       </c>
-      <c r="L645" s="4"/>
-    </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M645" s="4"/>
+    </row>
+    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>645</v>
       </c>
@@ -31191,9 +31365,9 @@
       <c r="G646" t="s">
         <v>14</v>
       </c>
-      <c r="L646" s="4"/>
-    </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M646" s="4"/>
+    </row>
+    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>646</v>
       </c>
@@ -31215,9 +31389,9 @@
       <c r="G647" t="s">
         <v>14</v>
       </c>
-      <c r="L647" s="4"/>
-    </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M647" s="4"/>
+    </row>
+    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>647</v>
       </c>
@@ -31239,9 +31413,9 @@
       <c r="G648" t="s">
         <v>14</v>
       </c>
-      <c r="L648" s="4"/>
-    </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M648" s="4"/>
+    </row>
+    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>648</v>
       </c>
@@ -31263,9 +31437,9 @@
       <c r="G649" t="s">
         <v>14</v>
       </c>
-      <c r="L649" s="4"/>
-    </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M649" s="4"/>
+    </row>
+    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>649</v>
       </c>
@@ -31287,9 +31461,9 @@
       <c r="G650" t="s">
         <v>14</v>
       </c>
-      <c r="L650" s="4"/>
-    </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M650" s="4"/>
+    </row>
+    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>650</v>
       </c>
@@ -31321,13 +31495,16 @@
         <v>231</v>
       </c>
       <c r="K651" t="s">
+        <v>248</v>
+      </c>
+      <c r="L651" t="s">
         <v>232</v>
       </c>
-      <c r="L651" s="4" t="s">
+      <c r="M651" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>651</v>
       </c>
@@ -31349,9 +31526,9 @@
       <c r="G652" t="s">
         <v>14</v>
       </c>
-      <c r="L652" s="4"/>
-    </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M652" s="4"/>
+    </row>
+    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>652</v>
       </c>
@@ -31380,13 +31557,16 @@
         <v>234</v>
       </c>
       <c r="K653" t="s">
+        <v>253</v>
+      </c>
+      <c r="L653" t="s">
         <v>235</v>
       </c>
-      <c r="L653" s="4" t="s">
+      <c r="M653" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>653</v>
       </c>
@@ -31415,16 +31595,19 @@
         <v>239</v>
       </c>
       <c r="K654" t="s">
+        <v>248</v>
+      </c>
+      <c r="L654" t="s">
         <v>240</v>
       </c>
-      <c r="L654" s="4" t="s">
+      <c r="M654" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M654" s="9" t="s">
+      <c r="N654" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>654</v>
       </c>
@@ -31446,9 +31629,9 @@
       <c r="G655" t="s">
         <v>14</v>
       </c>
-      <c r="L655" s="4"/>
-    </row>
-    <row r="656" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M655" s="4"/>
+    </row>
+    <row r="656" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="3">
         <v>655</v>
       </c>
@@ -31474,11 +31657,12 @@
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
       <c r="K656" s="3"/>
-      <c r="L656" s="5"/>
-      <c r="M656" s="3"/>
+      <c r="L656" s="3"/>
+      <c r="M656" s="5"/>
+      <c r="N656" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M656" xr:uid="{B3AA1273-5343-4DFA-8D07-BD26A34194CF}"/>
+  <autoFilter ref="A1:N656" xr:uid="{B3AA1273-5343-4DFA-8D07-BD26A34194CF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -31804,10 +31988,10 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>80</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>38</v>
       </c>
     </row>
@@ -31815,91 +31999,82 @@
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>73</v>
       </c>
-      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>69</v>
       </c>
-      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>50</v>
       </c>
-      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>45</v>
       </c>
-      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>42</v>
       </c>
-      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>24</v>
       </c>
-      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>22</v>
       </c>
-      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>19</v>
       </c>
-      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>18</v>
       </c>
-      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>17</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
@@ -31907,73 +32082,66 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10"/>
+      <c r="B16">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>11</v>
       </c>
-      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19">
         <v>11</v>
       </c>
-      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20">
         <v>9</v>
       </c>
-      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21">
         <v>9</v>
       </c>
-      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23">
         <v>8</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23">
         <v>8</v>
       </c>
     </row>
@@ -31981,28 +32149,26 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25">
         <v>7</v>
       </c>
-      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
@@ -32010,316 +32176,282 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27">
         <v>7</v>
       </c>
-      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29">
         <v>6</v>
       </c>
-      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30">
         <v>6</v>
       </c>
-      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35">
         <v>3</v>
       </c>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47">
         <v>2</v>
       </c>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48">
         <v>2</v>
       </c>
-      <c r="C48" s="10"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49">
         <v>2</v>
       </c>
-      <c r="C49" s="10"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50">
         <v>2</v>
       </c>
-      <c r="C50" s="10"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="10"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="10"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="10"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="10"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="10"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61">
         <v>655</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61">
         <v>48</v>
       </c>
     </row>

--- a/BritishAssociationReports/BAAS_Inspections.xlsx
+++ b/BritishAssociationReports/BAAS_Inspections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\SymonsInspections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0BB45-5D62-42D8-9642-8A79D44BEE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176F1BB8-26BB-4A7B-A661-03D7E90AD6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{165AC260-63B9-4BEA-BDF9-867FB820D959}"/>
   </bookViews>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="362">
   <si>
     <t>Report year</t>
   </si>
@@ -368,9 +368,6 @@
     <t>Kendal</t>
   </si>
   <si>
-    <t>S.Marshall</t>
-  </si>
-  <si>
     <t>KENDAL-ST-GEORGES</t>
   </si>
   <si>
@@ -386,42 +383,24 @@
     <t>A very old metal float-gauge</t>
   </si>
   <si>
-    <t>Read monthly. TYR sheet indicates a new gauge was used from 1863</t>
-  </si>
-  <si>
     <t>WYTHAM-ON-THE-HILL</t>
   </si>
   <si>
     <t>Greatford Hall</t>
   </si>
   <si>
-    <t>Captain Peacock</t>
-  </si>
-  <si>
     <t>GREATFORD-HALL-STAMFORD</t>
   </si>
   <si>
     <t>Belvoir Castle, Grantham</t>
   </si>
   <si>
-    <t>W.Ingram</t>
-  </si>
-  <si>
-    <t>In the gardens below the castle</t>
-  </si>
-  <si>
     <t>BELVOIR-CASTLE</t>
   </si>
   <si>
     <t>Grantham</t>
   </si>
   <si>
-    <t>J.W.Jeans</t>
-  </si>
-  <si>
-    <t>In small garden at rear of house</t>
-  </si>
-  <si>
     <t>GRANTHAM</t>
   </si>
   <si>
@@ -431,24 +410,12 @@
     <t>Dr Fawssett</t>
   </si>
   <si>
-    <t>Good position on lawn</t>
-  </si>
-  <si>
     <t>LOUTH-WESTGATE</t>
   </si>
   <si>
     <t>Gospelgate, Louth</t>
   </si>
   <si>
-    <t>T.W.Wallis</t>
-  </si>
-  <si>
-    <t>Very confined garden in centre of town</t>
-  </si>
-  <si>
-    <t>Close to No. 607</t>
-  </si>
-  <si>
     <t>5 inch gauge</t>
   </si>
   <si>
@@ -461,54 +428,30 @@
     <t>Calcethorpe Manor, Louth</t>
   </si>
   <si>
-    <t>D.G.Briggs</t>
-  </si>
-  <si>
-    <t>Very open position on large lawn</t>
-  </si>
-  <si>
     <t>LOUTH-CALCETHORPE</t>
   </si>
   <si>
     <t xml:space="preserve">5 inch gauge. </t>
   </si>
   <si>
-    <t>8 inch gauge. Clarifies location as Calcethorpe Manor rather than Calcethorpe House</t>
-  </si>
-  <si>
     <t>Scarborough</t>
   </si>
   <si>
     <t>Mr Roberts</t>
   </si>
   <si>
-    <t>Position very unsatisfactory, in a confined back yard, sure to catch drippings from a tree</t>
-  </si>
-  <si>
     <t>SCARBOROUGH-MIX</t>
   </si>
   <si>
     <t>Old Malton</t>
   </si>
   <si>
-    <t>H.Hurtley</t>
-  </si>
-  <si>
-    <t>Gauge in a large garden</t>
-  </si>
-  <si>
     <t>MALTON</t>
   </si>
   <si>
     <t>York, Bootham</t>
   </si>
   <si>
-    <t>J.Ford</t>
-  </si>
-  <si>
-    <t>Gauge kept at Friends' School on a very large lawn</t>
-  </si>
-  <si>
     <t>YORK-BOOTHAM</t>
   </si>
   <si>
@@ -530,9 +473,6 @@
     <t>7 York Parade, Beverley Road, Hull</t>
   </si>
   <si>
-    <t>J.Smith Jun.</t>
-  </si>
-  <si>
     <t>Patrington Flax Works</t>
   </si>
   <si>
@@ -569,15 +509,9 @@
     <t>YORK-CONEY-STREET</t>
   </si>
   <si>
-    <t>Gauge fastened to a wall close to and 30ft above the River Ouse</t>
-  </si>
-  <si>
     <t>Dunford Bridge Station</t>
   </si>
   <si>
-    <t>A short distance E. of station on flattish ground.</t>
-  </si>
-  <si>
     <t>DUNFORD-BRIDGE-STATION</t>
   </si>
   <si>
@@ -587,18 +521,12 @@
     <t>MS&amp;L Railway</t>
   </si>
   <si>
-    <t>In field. Tilted nearly 5 degrees. Had it levelled</t>
-  </si>
-  <si>
     <t>PENISTONE-CARLCOTES</t>
   </si>
   <si>
     <t>Penistone Station</t>
   </si>
   <si>
-    <t>Gauge tilted 3/4 inch. Position bad, being close to the top corner of a wall</t>
-  </si>
-  <si>
     <t>PENISTONE-RAILWAY-STATION</t>
   </si>
   <si>
@@ -611,9 +539,6 @@
     <t>Mr Walsham</t>
   </si>
   <si>
-    <t>In nursery garden sloping to south. Agreed gauge to shift a little to NE</t>
-  </si>
-  <si>
     <t>York, St Mary's Abbey</t>
   </si>
   <si>
@@ -623,12 +548,6 @@
     <t>Mr Wakefield</t>
   </si>
   <si>
-    <t>In an enclosed part of the ruins of St Mary's Abbey. Not regularly attended to, but will be.</t>
-  </si>
-  <si>
-    <t>On the roof of the Museum of the Yorkshire Philosophical Society. Not regularly attended to, but will be.</t>
-  </si>
-  <si>
     <t>[YORK-MUSEUM]</t>
   </si>
   <si>
@@ -650,48 +569,24 @@
     <t>Hawsker Exp Field, Whitby</t>
   </si>
   <si>
-    <t>Near 446</t>
-  </si>
-  <si>
-    <t>Near 448</t>
-  </si>
-  <si>
-    <t>In a railed enclsoure in a high and exposed field</t>
-  </si>
-  <si>
-    <t>See BR 1871 engraving</t>
-  </si>
-  <si>
     <t>WHITBY-HAWSKER-GARDEN</t>
   </si>
   <si>
     <t>Cherry Hill, York</t>
   </si>
   <si>
-    <t>H.Richardson</t>
-  </si>
-  <si>
     <t>Cherry Hill, York, second gauge</t>
   </si>
   <si>
     <t>Close to 506</t>
   </si>
   <si>
-    <t>In garden. Too sheltered, better spot selected</t>
-  </si>
-  <si>
     <t>YORK-CHERRY-HILL</t>
   </si>
   <si>
     <t>Penistone</t>
   </si>
   <si>
-    <t>ENE of church in the yard of the old station</t>
-  </si>
-  <si>
-    <t>Gauge not firmly fixed</t>
-  </si>
-  <si>
     <t>Hardrow Vicarage, Hawes</t>
   </si>
   <si>
@@ -707,9 +602,6 @@
     <t>Lunds</t>
   </si>
   <si>
-    <t>Gauge tested but station not visited</t>
-  </si>
-  <si>
     <t>HAWES-LUNDS</t>
   </si>
   <si>
@@ -737,24 +629,12 @@
     <t>Mickleton</t>
   </si>
   <si>
-    <t>G.J.Symons</t>
-  </si>
-  <si>
     <t>Mr Wade</t>
   </si>
   <si>
-    <t>In small enclosed paddock near middle of the village</t>
-  </si>
-  <si>
     <t>Barningham Park</t>
   </si>
   <si>
-    <t>A. Sussex Millbank</t>
-  </si>
-  <si>
-    <t>On lawn, SSW of house</t>
-  </si>
-  <si>
     <t>MICKLETON-LIME-KILN</t>
   </si>
   <si>
@@ -767,9 +647,6 @@
     <t>Rev. H.Clarke</t>
   </si>
   <si>
-    <t>In rectory garden, near corner of lawn</t>
-  </si>
-  <si>
     <t>Leftover: ROKEBY-RECTORY</t>
   </si>
   <si>
@@ -810,6 +687,450 @@
   </si>
   <si>
     <t>Pastorelli</t>
+  </si>
+  <si>
+    <t>South Parade, Clifton</t>
+  </si>
+  <si>
+    <t>Dr G.F. Burder</t>
+  </si>
+  <si>
+    <t>Dr Burder</t>
+  </si>
+  <si>
+    <t>In garden at back of house, and much sheltered</t>
+  </si>
+  <si>
+    <t>CLIFTON-SOUTH-PARADE</t>
+  </si>
+  <si>
+    <t>Martinhoe</t>
+  </si>
+  <si>
+    <t>Rev C. Scriven</t>
+  </si>
+  <si>
+    <t>Gauge only emptied at intervals, and monthly total recorded.</t>
+  </si>
+  <si>
+    <t>MARTINHOE-RECTORY</t>
+  </si>
+  <si>
+    <t>Ilfracombe Hotel</t>
+  </si>
+  <si>
+    <t>Ilfracombe Hotel Comp</t>
+  </si>
+  <si>
+    <t>Mr Tatham</t>
+  </si>
+  <si>
+    <t>On apex of a summer-house like, thermometer-stand, in grounds of hotel</t>
+  </si>
+  <si>
+    <t>ILFRACOMBE-HOTEL</t>
+  </si>
+  <si>
+    <t>Raby Castle</t>
+  </si>
+  <si>
+    <t>G.J. Symons Esq</t>
+  </si>
+  <si>
+    <t>Mr Westcott</t>
+  </si>
+  <si>
+    <t>In garden N. of castle; clear, except as noted.</t>
+  </si>
+  <si>
+    <t>STAINDROP-RABY-CASTLE</t>
+  </si>
+  <si>
+    <t>Whorlton</t>
+  </si>
+  <si>
+    <t>Rev A.W. Headlam</t>
+  </si>
+  <si>
+    <t>This is evidently a 5-in. glass applied to a 5.6in. Diameter; hence the recorded fall is too large.</t>
+  </si>
+  <si>
+    <t>WHORLTON-VICARAGE</t>
+  </si>
+  <si>
+    <t>St.Augustin’s Monastery, Ramsgate</t>
+  </si>
+  <si>
+    <t>Rev.Father Quelch</t>
+  </si>
+  <si>
+    <t>Good position in garden of Monastery.</t>
+  </si>
+  <si>
+    <t>RAMSGATE-ST-AUGUSTINES</t>
+  </si>
+  <si>
+    <t>Egglescliffe</t>
+  </si>
+  <si>
+    <t>Rev.J.Hull</t>
+  </si>
+  <si>
+    <t>The Gardener</t>
+  </si>
+  <si>
+    <t>Gauge on lawn. Trees rather too close, but probably not sensibly injurous.</t>
+  </si>
+  <si>
+    <t>The Green, Marlborough</t>
+  </si>
+  <si>
+    <t>Rev.T.A.Preston</t>
+  </si>
+  <si>
+    <t>In meteorological enclosure, 30 feet from nearest (low) building.</t>
+  </si>
+  <si>
+    <t>MARLBOROUGH-THE-GREEN</t>
+  </si>
+  <si>
+    <t>County Asylum, Gloucester</t>
+  </si>
+  <si>
+    <t>Dr.Toller</t>
+  </si>
+  <si>
+    <t>Gauge had been struck by a mowing machine and very much indented.</t>
+  </si>
+  <si>
+    <t>GLOUCESTER ASYLUM</t>
+  </si>
+  <si>
+    <t>Richmond Place, Hereford</t>
+  </si>
+  <si>
+    <t>E.J.Isbell, Esq</t>
+  </si>
+  <si>
+    <t>In small garden in rear of house. Gauge fixed in a box upon a post.</t>
+  </si>
+  <si>
+    <t>HEREFORD-RICHMOND-PLACE</t>
+  </si>
+  <si>
+    <t>The Asylum, Hereford</t>
+  </si>
+  <si>
+    <t>T.A.Chapman Esq MD.</t>
+  </si>
+  <si>
+    <t>Perfectly clear on open lawn</t>
+  </si>
+  <si>
+    <t>The Graig, Ross</t>
+  </si>
+  <si>
+    <t>H.Southall Esq</t>
+  </si>
+  <si>
+    <t>On lawn; good exposure except as noted.</t>
+  </si>
+  <si>
+    <t>Rhiwbrifdir</t>
+  </si>
+  <si>
+    <t>Major Mathew</t>
+  </si>
+  <si>
+    <t>Mr.O.Jones</t>
+  </si>
+  <si>
+    <t>In angle of a stack of slates, in the best position the works afford.</t>
+  </si>
+  <si>
+    <t>Warwick House, Llandudno</t>
+  </si>
+  <si>
+    <t>Dr.Nicol</t>
+  </si>
+  <si>
+    <t>In garden at front of house, rather sheltered.</t>
+  </si>
+  <si>
+    <t>Hillington School</t>
+  </si>
+  <si>
+    <t>RevH.Ffolkes</t>
+  </si>
+  <si>
+    <t>In garden at front of school, on a short post.</t>
+  </si>
+  <si>
+    <t>HILLINGTON-SCHOOL</t>
+  </si>
+  <si>
+    <t>Hillington Rectory</t>
+  </si>
+  <si>
+    <t>On lawn near Rectory</t>
+  </si>
+  <si>
+    <t>HILLINGTON</t>
+  </si>
+  <si>
+    <t>The Observatory, Cambridge</t>
+  </si>
+  <si>
+    <t>The Observatory</t>
+  </si>
+  <si>
+    <t>Mr.Todd</t>
+  </si>
+  <si>
+    <t>Gauge in garden of the Observatory, fair position.</t>
+  </si>
+  <si>
+    <t>CAMBRIDGE-OBSERVATORY</t>
+  </si>
+  <si>
+    <t>Kirkby Stephen</t>
+  </si>
+  <si>
+    <t>T.Mason Esq</t>
+  </si>
+  <si>
+    <t>On edge of path in garden; no better position available</t>
+  </si>
+  <si>
+    <t>KIRKBY-STEPHEN-REDMAN-HOUSE</t>
+  </si>
+  <si>
+    <t>Appleby</t>
+  </si>
+  <si>
+    <t>Dr Armstrong</t>
+  </si>
+  <si>
+    <t>Gauge in garden E of house. It appears to have been made by Mr.Marshall of Kendal; the receptacle being broken, a new gauge was supplied.</t>
+  </si>
+  <si>
+    <t>APPLEBY-WESTMORLAND</t>
+  </si>
+  <si>
+    <t>Gainford</t>
+  </si>
+  <si>
+    <t>A.Atkinson Esq</t>
+  </si>
+  <si>
+    <t>Mr.Atkinson has recently started a new verified 5-in. Snowdon pattern rain-gauge 3 feet N. of the above.</t>
+  </si>
+  <si>
+    <t>GAINFORD</t>
+  </si>
+  <si>
+    <t>In Rectory garden, near corner of lawn</t>
+  </si>
+  <si>
+    <t>Wolsingham</t>
+  </si>
+  <si>
+    <t>Mr.A.Mitchell</t>
+  </si>
+  <si>
+    <t>In garden N. of house; fairly open.</t>
+  </si>
+  <si>
+    <t>WOLSINGHAM</t>
+  </si>
+  <si>
+    <t>Allenheads</t>
+  </si>
+  <si>
+    <t>W.B.Beaumont Esq</t>
+  </si>
+  <si>
+    <t>Mr.Kidd</t>
+  </si>
+  <si>
+    <t>In small yard at rear of mining offices</t>
+  </si>
+  <si>
+    <t>ALLENHEADS</t>
+  </si>
+  <si>
+    <t>S.Marshall, Esq</t>
+  </si>
+  <si>
+    <t>TYR sheet indicates a new gauge was used from 1863</t>
+  </si>
+  <si>
+    <t>Capt. Peacock</t>
+  </si>
+  <si>
+    <t>Perfectly open situation, on a very fine lawn.</t>
+  </si>
+  <si>
+    <t>W.Ingram, Esq.</t>
+  </si>
+  <si>
+    <t>In the gardens below the castle; perfectly exposed</t>
+  </si>
+  <si>
+    <t>J.W.Jeans, Esq.</t>
+  </si>
+  <si>
+    <t>In small garden at rear of house.</t>
+  </si>
+  <si>
+    <t>Position very unsatisfactory, in a confined back yard, sure to catch drippings from a tree in NE. Had it moved a few feet but still very objectionable.</t>
+  </si>
+  <si>
+    <t>H.Hurtley, Esq</t>
+  </si>
+  <si>
+    <t>Gauge in a large garden, quite exposed.</t>
+  </si>
+  <si>
+    <t>J.Ford, Esq.</t>
+  </si>
+  <si>
+    <t>Gauge kept at Friends' School on a very large lawn and well exposed.</t>
+  </si>
+  <si>
+    <t>J.Smith Jun., Esq</t>
+  </si>
+  <si>
+    <t>Rather sheltered, house 30ft high, being scarcely 30ft distant in NE</t>
+  </si>
+  <si>
+    <t>Gauge fastened to a wall close to, and 30ft above, the River Ouse. Rather sheltered in the N by the houses.</t>
+  </si>
+  <si>
+    <t>A short distance E. of station on flattish ground. Hills rise to a consderable height in NE.</t>
+  </si>
+  <si>
+    <t>In field. Tilted nearly 5 degrees to SW; had it levelled</t>
+  </si>
+  <si>
+    <t>Gauge tilted 3/4 inch to SE, position bad, being close to the top corner of a wall which drops 25 ft abruptly below the gauge.</t>
+  </si>
+  <si>
+    <t>In nursery garden sloping to south. Agreed gauge to shift a little to NE to get away from the trees.</t>
+  </si>
+  <si>
+    <t>In an enclosed part of the ruins of St Mary's Abbey. Not regularly attended to, but promised it will be in future.</t>
+  </si>
+  <si>
+    <t>On the roof of the Museum of the Yorkshire Philosophical Society. Not regularly attended to, but promised it will be in future.</t>
+  </si>
+  <si>
+    <t>This gauge was of unpainted zinc, and had a 3-inch deep snow-collecting rim, as per sketch</t>
+  </si>
+  <si>
+    <t>Colonel Ward</t>
+  </si>
+  <si>
+    <t>Formerly used at Red Hall, near Leeds, and subsequently at The Knoll, Ripon. Present position near 446 rather too sheltered</t>
+  </si>
+  <si>
+    <t>Similar to 446 but in a more open position.</t>
+  </si>
+  <si>
+    <t>Close to and similar to 448, but read monthly instead of daily.</t>
+  </si>
+  <si>
+    <t>In a railed enclsoure in a high and exposed field. See BR 1871 engraving.</t>
+  </si>
+  <si>
+    <t>In a railed enclsoure in a high and exposed field. See BR 1871 engraving. Similar to 446 except snow funnel is 6 inches deep.</t>
+  </si>
+  <si>
+    <t>In a railed enclsoure in a high and exposed field. See BR 1871 engraving. 452 and 453 paired vertical and rotating horizontal gauges</t>
+  </si>
+  <si>
+    <t>In a railed enclsoure in a high and exposed field. See BR 1871 engraving. Vertical-mouthed portion of two mouthed gauge at 1 ft.</t>
+  </si>
+  <si>
+    <t>In a railed enclsoure in a high and exposed field. See BR 1871 engraving. Vertical-mouthed portion of two mouthed gauge at 5 ft.</t>
+  </si>
+  <si>
+    <t>H.Richardson, Esq.</t>
+  </si>
+  <si>
+    <t>In garden. Too much sheltered by trees; better spot selected</t>
+  </si>
+  <si>
+    <t>Close to 506.</t>
+  </si>
+  <si>
+    <t>ENE of church in the yard of the old station.</t>
+  </si>
+  <si>
+    <t>Gauge not firmly fixed.</t>
+  </si>
+  <si>
+    <t>Since previous testing (293) a new glass has been provided and the funnel either bent or renewed.</t>
+  </si>
+  <si>
+    <t>Too much sheltered by house, but no better position obtainable; quite clear in other directions.</t>
+  </si>
+  <si>
+    <t>Gauge tested, but station not visited.</t>
+  </si>
+  <si>
+    <t>Good position; the measuring-glass was very faulty and a new correct one supplied.</t>
+  </si>
+  <si>
+    <t>T.W.Wallis, Esq.</t>
+  </si>
+  <si>
+    <t>D.G.Briggs, Esq.</t>
+  </si>
+  <si>
+    <t>Good position on lawn; clear except as noted.</t>
+  </si>
+  <si>
+    <t>Very confined garden in centre of town.</t>
+  </si>
+  <si>
+    <t>Close to  607.</t>
+  </si>
+  <si>
+    <t>Close to  609.</t>
+  </si>
+  <si>
+    <t>Very open position on large lawn.</t>
+  </si>
+  <si>
+    <t>8 inch gauge. Clarifies TYR Calcethorpe location as Calcethorpe Manor rather than Calcethorpe House</t>
+  </si>
+  <si>
+    <t>G.J.Symons, Esq.</t>
+  </si>
+  <si>
+    <t>In small enclosed paddock near the middle of the village</t>
+  </si>
+  <si>
+    <t>A. Sussex Millbank, Esq.</t>
+  </si>
+  <si>
+    <t>On lawn, SSW of house.</t>
+  </si>
+  <si>
+    <t>YARM-RECTORY</t>
+  </si>
+  <si>
+    <t>HEREFORD-BURGHILL</t>
+  </si>
+  <si>
+    <t>ROSS-THE-GRAIG-BIRCHLEA</t>
+  </si>
+  <si>
+    <t>BLAENAU-FESTINIOG-OAKELEY-QUARRY</t>
+  </si>
+  <si>
+    <t>LLANDUDNO</t>
   </si>
 </sst>
 </file>
@@ -882,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -891,6 +1212,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,11 +1284,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Richard" refreshedDate="45798.676193402775" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="656" xr:uid="{1CF4FC07-1D96-446D-94CD-F1AEBCE8AA15}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Richard" refreshedDate="45799.847506365739" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="656" xr:uid="{1CF4FC07-1D96-446D-94CD-F1AEBCE8AA15}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1048576" sheet="Inspection details"/>
   </cacheSource>
-  <cacheFields count="13">
+  <cacheFields count="14">
     <cacheField name="Ref. No." numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="655"/>
     </cacheField>
@@ -1063,6 +1386,9 @@
     <cacheField name="Observer" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="Maker's Name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
     <cacheField name="Remarks" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
@@ -4377,8 +4703,9 @@
     <x v="0"/>
     <x v="0"/>
     <s v="Kendal"/>
-    <m/>
-    <s v="S.Marshall"/>
+    <s v="S.Marshall, Esq"/>
+    <s v="S.Marshall, Esq"/>
+    <s v="Mr S.Marshall"/>
     <s v="In garden SE of house, about 120 ft from it."/>
     <s v="KENDAL-ST-GEORGES"/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
@@ -4396,6 +4723,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4411,6 +4739,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4426,6 +4755,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4441,6 +4771,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4456,6 +4787,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4466,6 +4798,7 @@
     <n v="10"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4486,6 +4819,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4501,6 +4835,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4516,6 +4851,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4531,6 +4867,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4546,6 +4883,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="British Rainfall 1862 says inspected by G Harvey Simmonds"/>
   </r>
   <r>
@@ -4562,6 +4900,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="14"/>
@@ -4571,6 +4910,7 @@
     <n v="24"/>
     <x v="3"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4592,6 +4932,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="16"/>
@@ -4607,6 +4948,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="17"/>
@@ -4622,6 +4964,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="18"/>
@@ -4637,6 +4980,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="19"/>
@@ -4652,6 +4996,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="20"/>
@@ -4666,6 +5011,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1862 meeting October in Cambridge"/>
   </r>
   <r>
@@ -4682,6 +5028,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="22"/>
@@ -4697,6 +5044,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="23"/>
@@ -4712,6 +5060,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="24"/>
@@ -4727,6 +5076,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="25"/>
@@ -4742,6 +5092,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="26"/>
@@ -4757,6 +5108,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="27"/>
@@ -4772,6 +5124,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="28"/>
@@ -4787,6 +5140,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="29"/>
@@ -4802,6 +5156,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="30"/>
@@ -4817,6 +5172,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="31"/>
@@ -4832,6 +5188,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="32"/>
@@ -4847,6 +5204,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="33"/>
@@ -4859,9 +5217,10 @@
     <s v="Wytham-on-the-Hill, Bourne"/>
     <m/>
     <s v="General Johnson"/>
+    <s v="-"/>
     <s v="A very old metal float-gauge"/>
     <s v="WYTHAM-ON-THE-HILL"/>
-    <s v="Read monthly. TYR sheet indicates a new gauge was used from 1863"/>
+    <s v="TYR sheet indicates a new gauge was used from 1863"/>
   </r>
   <r>
     <n v="34"/>
@@ -4873,8 +5232,9 @@
     <x v="0"/>
     <s v="Greatford Hall"/>
     <m/>
-    <s v="Captain Peacock"/>
-    <m/>
+    <s v="Capt. Peacock"/>
+    <s v="Casella"/>
+    <s v="Perfectly open situation, on a very fine lawn."/>
     <s v="GREATFORD-HALL-STAMFORD"/>
     <m/>
   </r>
@@ -4888,8 +5248,9 @@
     <x v="0"/>
     <s v="Belvoir Castle, Grantham"/>
     <m/>
-    <s v="W.Ingram"/>
-    <s v="In the gardens below the castle"/>
+    <s v="W.Ingram, Esq."/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="In the gardens below the castle; perfectly exposed"/>
     <s v="BELVOIR-CASTLE"/>
     <m/>
   </r>
@@ -4903,8 +5264,9 @@
     <x v="0"/>
     <s v="Grantham"/>
     <m/>
-    <s v="J.W.Jeans"/>
-    <s v="In small garden at rear of house"/>
+    <s v="J.W.Jeans, Esq."/>
+    <s v="-"/>
+    <s v="In small garden at rear of house."/>
     <s v="GRANTHAM"/>
     <m/>
   </r>
@@ -4922,6 +5284,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="38"/>
@@ -4937,6 +5300,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="39"/>
@@ -4949,7 +5313,8 @@
     <s v="Scarborough"/>
     <m/>
     <s v="Mr Roberts"/>
-    <s v="Position very unsatisfactory, in a confined back yard, sure to catch drippings from a tree"/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="Position very unsatisfactory, in a confined back yard, sure to catch drippings from a tree in NE. Had it moved a few feet but still very objectionable."/>
     <s v="SCARBOROUGH-MIX"/>
     <m/>
   </r>
@@ -4963,8 +5328,9 @@
     <x v="0"/>
     <s v="Old Malton"/>
     <m/>
-    <s v="H.Hurtley"/>
-    <s v="Gauge in a large garden"/>
+    <s v="H.Hurtley, Esq"/>
+    <s v="-"/>
+    <s v="Gauge in a large garden, quite exposed."/>
     <s v="MALTON"/>
     <m/>
   </r>
@@ -4978,8 +5344,9 @@
     <x v="0"/>
     <s v="York, Bootham"/>
     <m/>
-    <s v="J.Ford"/>
-    <s v="Gauge kept at Friends' School on a very large lawn"/>
+    <s v="J.Ford, Esq."/>
+    <s v="Casella"/>
+    <s v="Gauge kept at Friends' School on a very large lawn and well exposed."/>
     <s v="YORK-BOOTHAM"/>
     <m/>
   </r>
@@ -4997,6 +5364,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="43"/>
@@ -5012,6 +5380,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="44"/>
@@ -5027,6 +5396,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="45"/>
@@ -5042,6 +5412,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="46"/>
@@ -5057,6 +5428,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="47"/>
@@ -5072,6 +5444,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="48"/>
@@ -5084,6 +5457,7 @@
     <s v="Huggate, Pocklington"/>
     <m/>
     <s v="Rev T.Rankine"/>
+    <s v="-"/>
     <s v="Bad gauge, badly placed. .. Observations useless"/>
     <s v="HUGGATE"/>
     <s v="TYR record ends in 1861"/>
@@ -5099,6 +5473,7 @@
     <s v="Middleton, Beverley"/>
     <m/>
     <s v="Rev H.D.Blanchard"/>
+    <s v="Casella"/>
     <s v="Freely exposed in kitchen garden"/>
     <s v="MIDDLETON-ON-THE-WOLDS"/>
     <m/>
@@ -5113,8 +5488,9 @@
     <x v="0"/>
     <s v="7 York Parade, Beverley Road, Hull"/>
     <m/>
-    <s v="J.Smith Jun."/>
-    <m/>
+    <s v="J.Smith Jun., Esq"/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="Rather sheltered, house 30ft high, being scarcely 30ft distant in NE"/>
     <s v="HULL-BEVERLEY-ROAD"/>
     <m/>
   </r>
@@ -5129,6 +5505,7 @@
     <s v="Patrington Flax Works"/>
     <m/>
     <m/>
+    <s v="Marshall &amp; Co"/>
     <s v="Not tested. Gauge in flower garden 150 feet from house"/>
     <s v="PATRINGTON-STATION-ROAD"/>
     <m/>
@@ -5147,6 +5524,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="53"/>
@@ -5162,6 +5540,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="54"/>
@@ -5177,6 +5556,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="55"/>
@@ -5192,6 +5572,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="56"/>
@@ -5206,6 +5587,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="'not measured by Symons' - BAAS Report 1866 p316"/>
   </r>
   <r>
@@ -5222,6 +5604,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="58"/>
@@ -5236,6 +5619,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="'not measured by Symons' - BAAS Report 1866 p316"/>
   </r>
   <r>
@@ -5246,6 +5630,7 @@
     <n v="27"/>
     <x v="15"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -5266,6 +5651,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="'not measured by Symons' - BAAS Report 1866 p316"/>
   </r>
   <r>
@@ -5281,6 +5667,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="'not measured by Symons' - BAAS Report 1866 p316"/>
   </r>
   <r>
@@ -5296,6 +5683,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1863 meeting August/September in Newcastle"/>
   </r>
   <r>
@@ -5312,6 +5700,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="64"/>
@@ -5327,6 +5716,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="65"/>
@@ -5342,6 +5732,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="66"/>
@@ -5357,6 +5748,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="67"/>
@@ -5372,6 +5764,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="68"/>
@@ -5387,6 +5780,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="69"/>
@@ -5402,6 +5796,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="70"/>
@@ -5417,6 +5812,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="71"/>
@@ -5432,6 +5828,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="72"/>
@@ -5447,6 +5844,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="73"/>
@@ -5462,6 +5860,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="74"/>
@@ -5477,6 +5876,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="75"/>
@@ -5492,6 +5892,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="76"/>
@@ -5507,6 +5908,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="77"/>
@@ -5522,6 +5924,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="78"/>
@@ -5537,6 +5940,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="79"/>
@@ -5552,6 +5956,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="80"/>
@@ -5567,6 +5972,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="81"/>
@@ -5582,6 +5988,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="82"/>
@@ -5597,6 +6004,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="83"/>
@@ -5612,6 +6020,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="84"/>
@@ -5627,6 +6036,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="85"/>
@@ -5642,6 +6052,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="86"/>
@@ -5657,6 +6068,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="87"/>
@@ -5672,6 +6084,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="88"/>
@@ -5687,6 +6100,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="89"/>
@@ -5702,6 +6116,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="90"/>
@@ -5717,6 +6132,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="91"/>
@@ -5732,6 +6148,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="92"/>
@@ -5746,6 +6163,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -5761,6 +6179,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -5777,6 +6196,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="95"/>
@@ -5792,6 +6212,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="96"/>
@@ -5807,6 +6228,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="97"/>
@@ -5822,6 +6244,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="98"/>
@@ -5837,6 +6260,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="99"/>
@@ -5852,6 +6276,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="100"/>
@@ -5867,6 +6292,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="101"/>
@@ -5882,6 +6308,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="102"/>
@@ -5897,6 +6324,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="103"/>
@@ -5912,6 +6340,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="104"/>
@@ -5927,6 +6356,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="105"/>
@@ -5942,6 +6372,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="106"/>
@@ -5957,6 +6388,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="107"/>
@@ -5972,6 +6404,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="108"/>
@@ -5987,6 +6420,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="109"/>
@@ -6002,6 +6436,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="110"/>
@@ -6017,6 +6452,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="111"/>
@@ -6032,6 +6468,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="112"/>
@@ -6047,6 +6484,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="113"/>
@@ -6062,6 +6500,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="114"/>
@@ -6077,6 +6516,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="115"/>
@@ -6092,6 +6532,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="116"/>
@@ -6107,6 +6548,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="117"/>
@@ -6122,6 +6564,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="118"/>
@@ -6137,6 +6580,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="119"/>
@@ -6152,6 +6596,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="120"/>
@@ -6166,6 +6611,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1865 meeting September in Birmingham"/>
   </r>
   <r>
@@ -6182,6 +6628,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="122"/>
@@ -6197,6 +6644,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="123"/>
@@ -6206,6 +6654,7 @@
     <n v="21"/>
     <x v="24"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -6227,6 +6676,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="125"/>
@@ -6242,6 +6692,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="126"/>
@@ -6257,6 +6708,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="127"/>
@@ -6272,6 +6724,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="128"/>
@@ -6287,6 +6740,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="129"/>
@@ -6302,6 +6756,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="130"/>
@@ -6317,6 +6772,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="131"/>
@@ -6332,6 +6788,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="132"/>
@@ -6347,6 +6804,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="133"/>
@@ -6362,6 +6820,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="134"/>
@@ -6377,6 +6836,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="135"/>
@@ -6392,6 +6852,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="136"/>
@@ -6407,6 +6868,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="137"/>
@@ -6422,6 +6884,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="138"/>
@@ -6437,6 +6900,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="139"/>
@@ -6452,6 +6916,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="140"/>
@@ -6467,6 +6932,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="141"/>
@@ -6482,6 +6948,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="142"/>
@@ -6497,6 +6964,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="143"/>
@@ -6512,6 +6980,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="144"/>
@@ -6527,6 +6996,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="145"/>
@@ -6542,6 +7012,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="146"/>
@@ -6557,6 +7028,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="147"/>
@@ -6572,6 +7044,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="148"/>
@@ -6587,6 +7060,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="149"/>
@@ -6602,6 +7076,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="150"/>
@@ -6617,6 +7092,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="151"/>
@@ -6632,6 +7108,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="152"/>
@@ -6647,6 +7124,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="153"/>
@@ -6662,6 +7140,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="154"/>
@@ -6677,6 +7156,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="155"/>
@@ -6692,6 +7172,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="156"/>
@@ -6707,6 +7188,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="157"/>
@@ -6722,6 +7204,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="158"/>
@@ -6737,6 +7220,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="159"/>
@@ -6752,6 +7236,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="160"/>
@@ -6767,6 +7252,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="161"/>
@@ -6782,6 +7268,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="162"/>
@@ -6796,6 +7283,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -6806,6 +7294,7 @@
     <m/>
     <x v="15"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -6827,6 +7316,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="165"/>
@@ -6842,6 +7332,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="166"/>
@@ -6857,6 +7348,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="167"/>
@@ -6872,6 +7364,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="168"/>
@@ -6886,6 +7379,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1866 meeting August in Nottingham"/>
   </r>
   <r>
@@ -6902,6 +7396,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="170"/>
@@ -6917,6 +7412,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="171"/>
@@ -6932,6 +7428,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="172"/>
@@ -6947,6 +7444,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="173"/>
@@ -6962,6 +7460,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="174"/>
@@ -6977,6 +7476,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="175"/>
@@ -6986,6 +7486,7 @@
     <n v="24"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7007,6 +7508,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="177"/>
@@ -7022,6 +7524,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="178"/>
@@ -7031,6 +7534,7 @@
     <n v="5"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7052,6 +7556,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="180"/>
@@ -7067,6 +7572,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="181"/>
@@ -7076,6 +7582,7 @@
     <n v="16"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7094,7 +7601,8 @@
     <s v="York, Coney Street"/>
     <m/>
     <s v="Mr Sigsworth"/>
-    <s v="Gauge fastened to a wall close to and 30ft above the River Ouse"/>
+    <s v="Cooke"/>
+    <s v="Gauge fastened to a wall close to, and 30ft above, the River Ouse. Rather sheltered in the N by the houses."/>
     <s v="YORK-CONEY-STREET"/>
     <s v="7ft above ground level"/>
   </r>
@@ -7112,6 +7620,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="184"/>
@@ -7121,6 +7630,7 @@
     <n v="19"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7142,6 +7652,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="186"/>
@@ -7157,6 +7668,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="187"/>
@@ -7172,6 +7684,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="188"/>
@@ -7187,6 +7700,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="189"/>
@@ -7202,6 +7716,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="190"/>
@@ -7217,6 +7732,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="191"/>
@@ -7232,6 +7748,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="192"/>
@@ -7247,6 +7764,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="193"/>
@@ -7262,6 +7780,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="194"/>
@@ -7277,6 +7796,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="195"/>
@@ -7292,6 +7812,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="196"/>
@@ -7307,6 +7828,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="197"/>
@@ -7322,6 +7844,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="198"/>
@@ -7337,6 +7860,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="199"/>
@@ -7352,6 +7876,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="200"/>
@@ -7367,6 +7892,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="201"/>
@@ -7382,6 +7908,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="202"/>
@@ -7397,6 +7924,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="203"/>
@@ -7412,6 +7940,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="204"/>
@@ -7427,6 +7956,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="205"/>
@@ -7442,6 +7972,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="206"/>
@@ -7457,6 +7988,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="207"/>
@@ -7472,6 +8004,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="208"/>
@@ -7487,6 +8020,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="209"/>
@@ -7502,6 +8036,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="210"/>
@@ -7517,6 +8052,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="211"/>
@@ -7532,6 +8068,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="212"/>
@@ -7547,6 +8084,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="213"/>
@@ -7562,6 +8100,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="214"/>
@@ -7577,6 +8116,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="215"/>
@@ -7592,6 +8132,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="216"/>
@@ -7607,6 +8148,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="217"/>
@@ -7622,6 +8164,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="218"/>
@@ -7637,6 +8180,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="219"/>
@@ -7652,6 +8196,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="220"/>
@@ -7667,6 +8212,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="221"/>
@@ -7682,6 +8228,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="222"/>
@@ -7697,6 +8244,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="223"/>
@@ -7712,6 +8260,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="224"/>
@@ -7727,6 +8276,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="225"/>
@@ -7742,6 +8292,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="226"/>
@@ -7751,6 +8302,7 @@
     <n v="28"/>
     <x v="14"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7771,6 +8323,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1867 meeting September in Dundee"/>
   </r>
   <r>
@@ -7787,6 +8340,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="229"/>
@@ -7802,6 +8356,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="230"/>
@@ -7817,6 +8372,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="231"/>
@@ -7832,6 +8388,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="232"/>
@@ -7847,6 +8404,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="233"/>
@@ -7862,6 +8420,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="234"/>
@@ -7877,6 +8436,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="235"/>
@@ -7892,6 +8452,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="236"/>
@@ -7907,6 +8468,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="237"/>
@@ -7922,6 +8484,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="238"/>
@@ -7937,6 +8500,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="239"/>
@@ -7952,6 +8516,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="240"/>
@@ -7967,6 +8532,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="241"/>
@@ -7982,6 +8548,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="242"/>
@@ -7997,6 +8564,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="243"/>
@@ -8012,6 +8580,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="244"/>
@@ -8027,6 +8596,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="245"/>
@@ -8042,6 +8612,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="246"/>
@@ -8057,6 +8628,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="247"/>
@@ -8072,6 +8644,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="248"/>
@@ -8087,6 +8660,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="249"/>
@@ -8102,6 +8676,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="250"/>
@@ -8117,6 +8692,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="251"/>
@@ -8132,6 +8708,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="252"/>
@@ -8147,6 +8724,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="253"/>
@@ -8162,6 +8740,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="254"/>
@@ -8177,6 +8756,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="255"/>
@@ -8192,6 +8772,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="256"/>
@@ -8207,6 +8788,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="257"/>
@@ -8222,6 +8804,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="258"/>
@@ -8237,6 +8820,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="259"/>
@@ -8252,6 +8836,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="260"/>
@@ -8267,6 +8852,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="261"/>
@@ -8282,6 +8868,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="262"/>
@@ -8297,6 +8884,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="263"/>
@@ -8312,6 +8900,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="264"/>
@@ -8326,6 +8915,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1868 meeting August in Norwich"/>
   </r>
   <r>
@@ -8342,6 +8932,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="266"/>
@@ -8357,6 +8948,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="267"/>
@@ -8372,6 +8964,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="268"/>
@@ -8387,6 +8980,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="269"/>
@@ -8402,6 +8996,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="270"/>
@@ -8417,6 +9012,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="271"/>
@@ -8432,6 +9028,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="272"/>
@@ -8447,6 +9044,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="273"/>
@@ -8462,6 +9060,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="274"/>
@@ -8477,6 +9076,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="275"/>
@@ -8492,6 +9092,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="276"/>
@@ -8507,6 +9108,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="277"/>
@@ -8522,6 +9124,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="278"/>
@@ -8537,6 +9140,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="279"/>
@@ -8552,6 +9156,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="280"/>
@@ -8567,6 +9172,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="281"/>
@@ -8582,6 +9188,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="282"/>
@@ -8597,6 +9204,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="283"/>
@@ -8612,6 +9220,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="284"/>
@@ -8627,6 +9236,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="285"/>
@@ -8642,6 +9252,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="286"/>
@@ -8657,6 +9268,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="287"/>
@@ -8672,6 +9284,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="288"/>
@@ -8687,6 +9300,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="289"/>
@@ -8702,6 +9316,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="290"/>
@@ -8717,6 +9332,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="291"/>
@@ -8732,6 +9348,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="292"/>
@@ -8747,6 +9364,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="293"/>
@@ -8759,7 +9377,8 @@
     <s v="Dunford Bridge Station"/>
     <m/>
     <s v="MS&amp;L Railway"/>
-    <s v="A short distance E. of station on flattish ground."/>
+    <s v="Casartelli"/>
+    <s v="A short distance E. of station on flattish ground. Hills rise to a consderable height in NE."/>
     <s v="DUNFORD-BRIDGE-STATION"/>
     <m/>
   </r>
@@ -8774,7 +9393,8 @@
     <s v="Carlcotes"/>
     <m/>
     <s v="MS&amp;L Railway"/>
-    <s v="In field. Tilted nearly 5 degrees. Had it levelled"/>
+    <s v="Casartelli"/>
+    <s v="In field. Tilted nearly 5 degrees to SW; had it levelled"/>
     <s v="PENISTONE-CARLCOTES"/>
     <m/>
   </r>
@@ -8792,6 +9412,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="296"/>
@@ -8807,6 +9428,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="297"/>
@@ -8822,6 +9444,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="298"/>
@@ -8837,6 +9460,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="299"/>
@@ -8849,7 +9473,8 @@
     <s v="Penistone Station"/>
     <m/>
     <s v="MS&amp;L Railway"/>
-    <s v="Gauge tilted 3/4 inch. Position bad, being close to the top corner of a wall"/>
+    <s v="Casartelli"/>
+    <s v="Gauge tilted 3/4 inch to SE, position bad, being close to the top corner of a wall which drops 25 ft abruptly below the gauge."/>
     <s v="PENISTONE-RAILWAY-STATION"/>
     <m/>
   </r>
@@ -8867,6 +9492,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="301"/>
@@ -8882,6 +9508,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="302"/>
@@ -8897,6 +9524,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="303"/>
@@ -8912,6 +9540,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="304"/>
@@ -8927,6 +9556,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="305"/>
@@ -8942,6 +9572,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="306"/>
@@ -8957,6 +9588,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="307"/>
@@ -8972,6 +9604,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="308"/>
@@ -8987,6 +9620,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="309"/>
@@ -9002,6 +9636,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="310"/>
@@ -9017,6 +9652,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="311"/>
@@ -9032,6 +9668,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="312"/>
@@ -9047,6 +9684,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="313"/>
@@ -9062,6 +9700,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="314"/>
@@ -9077,6 +9716,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="315"/>
@@ -9092,6 +9732,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="316"/>
@@ -9107,6 +9748,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="317"/>
@@ -9122,6 +9764,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="318"/>
@@ -9137,6 +9780,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="319"/>
@@ -9152,6 +9796,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="320"/>
@@ -9167,6 +9812,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="321"/>
@@ -9182,6 +9828,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="322"/>
@@ -9197,6 +9844,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="323"/>
@@ -9211,6 +9859,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1869 meeting August in Exeter"/>
   </r>
   <r>
@@ -9227,6 +9876,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="325"/>
@@ -9242,6 +9892,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="326"/>
@@ -9257,6 +9908,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="327"/>
@@ -9272,6 +9924,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="328"/>
@@ -9287,6 +9940,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="329"/>
@@ -9302,6 +9956,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="330"/>
@@ -9317,6 +9972,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="331"/>
@@ -9332,6 +9988,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="332"/>
@@ -9347,6 +10004,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="333"/>
@@ -9362,6 +10020,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="334"/>
@@ -9377,6 +10036,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="335"/>
@@ -9392,6 +10052,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="336"/>
@@ -9407,6 +10068,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="337"/>
@@ -9422,6 +10084,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="338"/>
@@ -9437,6 +10100,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="339"/>
@@ -9452,6 +10116,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="340"/>
@@ -9467,6 +10132,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="341"/>
@@ -9482,6 +10148,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="342"/>
@@ -9497,6 +10164,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="343"/>
@@ -9506,6 +10174,7 @@
     <m/>
     <x v="19"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -9527,6 +10196,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="345"/>
@@ -9542,6 +10212,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="346"/>
@@ -9557,6 +10228,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="347"/>
@@ -9572,6 +10244,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="348"/>
@@ -9587,6 +10260,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="349"/>
@@ -9602,6 +10276,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="350"/>
@@ -9617,6 +10292,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="351"/>
@@ -9632,6 +10308,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="352"/>
@@ -9647,6 +10324,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="353"/>
@@ -9662,6 +10340,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="354"/>
@@ -9677,6 +10356,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="355"/>
@@ -9692,6 +10372,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="356"/>
@@ -9707,6 +10388,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="357"/>
@@ -9722,6 +10404,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="358"/>
@@ -9737,6 +10420,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="359"/>
@@ -9752,6 +10436,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="360"/>
@@ -9767,6 +10452,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="361"/>
@@ -9782,6 +10468,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="362"/>
@@ -9797,6 +10484,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="363"/>
@@ -9812,6 +10500,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="364"/>
@@ -9827,6 +10516,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="365"/>
@@ -9842,6 +10532,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="366"/>
@@ -9857,6 +10548,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="367"/>
@@ -9872,6 +10564,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="368"/>
@@ -9887,6 +10580,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="369"/>
@@ -9902,6 +10596,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="370"/>
@@ -9917,6 +10612,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="371"/>
@@ -9932,6 +10628,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="372"/>
@@ -9947,6 +10644,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="373"/>
@@ -9962,6 +10660,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="374"/>
@@ -9977,6 +10676,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="375"/>
@@ -9992,6 +10692,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="376"/>
@@ -10007,6 +10708,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="377"/>
@@ -10022,6 +10724,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="378"/>
@@ -10037,6 +10740,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="379"/>
@@ -10052,6 +10756,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="380"/>
@@ -10067,6 +10772,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="381"/>
@@ -10082,6 +10788,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="382"/>
@@ -10097,6 +10804,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="383"/>
@@ -10112,6 +10820,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="384"/>
@@ -10127,6 +10836,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="385"/>
@@ -10142,6 +10852,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="386"/>
@@ -10157,6 +10868,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="387"/>
@@ -10172,6 +10884,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="388"/>
@@ -10187,6 +10900,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="389"/>
@@ -10202,6 +10916,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="390"/>
@@ -10217,6 +10932,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="391"/>
@@ -10232,6 +10948,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="392"/>
@@ -10247,6 +10964,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="393"/>
@@ -10262,6 +10980,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="394"/>
@@ -10277,6 +10996,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="395"/>
@@ -10292,6 +11012,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="396"/>
@@ -10307,6 +11028,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="397"/>
@@ -10322,6 +11044,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="398"/>
@@ -10337,6 +11060,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="399"/>
@@ -10352,6 +11076,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="400"/>
@@ -10367,6 +11092,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="401"/>
@@ -10382,6 +11108,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="402"/>
@@ -10397,6 +11124,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="403"/>
@@ -10412,6 +11140,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="404"/>
@@ -10427,6 +11156,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="405"/>
@@ -10442,6 +11172,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="406"/>
@@ -10451,6 +11182,7 @@
     <n v="10"/>
     <x v="30"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -10472,6 +11204,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="408"/>
@@ -10487,6 +11220,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="409"/>
@@ -10502,6 +11236,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="410"/>
@@ -10517,6 +11252,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="411"/>
@@ -10532,6 +11268,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="412"/>
@@ -10547,6 +11284,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="413"/>
@@ -10562,6 +11300,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="414"/>
@@ -10577,6 +11316,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="415"/>
@@ -10592,6 +11332,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="416"/>
@@ -10607,6 +11348,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="417"/>
@@ -10622,6 +11364,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="418"/>
@@ -10637,6 +11380,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="419"/>
@@ -10652,6 +11396,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="420"/>
@@ -10667,6 +11412,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="421"/>
@@ -10682,6 +11428,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="422"/>
@@ -10697,6 +11444,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="423"/>
@@ -10712,6 +11460,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="424"/>
@@ -10727,6 +11476,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="425"/>
@@ -10741,6 +11491,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1870 meeting September in Liverpool"/>
   </r>
   <r>
@@ -10757,6 +11508,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="427"/>
@@ -10772,6 +11524,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="428"/>
@@ -10787,6 +11540,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="429"/>
@@ -10802,6 +11556,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="430"/>
@@ -10817,6 +11572,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="431"/>
@@ -10832,6 +11588,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="432"/>
@@ -10847,6 +11604,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="433"/>
@@ -10856,6 +11614,7 @@
     <m/>
     <x v="24"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -10877,6 +11636,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="435"/>
@@ -10892,6 +11652,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="436"/>
@@ -10901,6 +11662,7 @@
     <n v="11"/>
     <x v="3"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -10921,6 +11683,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1871 meeting August in Edinburgh"/>
   </r>
   <r>
@@ -10937,6 +11700,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="439"/>
@@ -10952,6 +11716,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="440"/>
@@ -10964,7 +11729,8 @@
     <s v="Scarborough Crystal Garden"/>
     <s v="Dr Fox"/>
     <s v="Mr Walsham"/>
-    <s v="In nursery garden sloping to south. Agreed gauge to shift a little to NE"/>
+    <s v="Casella"/>
+    <s v="In nursery garden sloping to south. Agreed gauge to shift a little to NE to get away from the trees."/>
     <s v="SCARBOROUGH-MIX"/>
     <m/>
   </r>
@@ -10982,6 +11748,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="442"/>
@@ -10997,6 +11764,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="443"/>
@@ -11012,6 +11780,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="444"/>
@@ -11024,7 +11793,8 @@
     <s v="York, St Mary's Abbey"/>
     <s v="Yorkshire Phil. Soc."/>
     <s v="Mr Wakefield"/>
-    <s v="In an enclosed part of the ruins of St Mary's Abbey. Not regularly attended to, but will be."/>
+    <s v="Anon"/>
+    <s v="In an enclosed part of the ruins of St Mary's Abbey. Not regularly attended to, but promised it will be in future."/>
     <s v="[YORK-MUSEUM]"/>
     <s v="No obvious TYR record"/>
   </r>
@@ -11039,7 +11809,8 @@
     <s v="York, Museum Roof"/>
     <s v="Yorkshire Phil. Soc."/>
     <s v="Mr Wakefield"/>
-    <s v="On the roof of the Museum of the Yorkshire Philosophical Society. Not regularly attended to, but will be."/>
+    <s v="Anon"/>
+    <s v="On the roof of the Museum of the Yorkshire Philosophical Society. Not regularly attended to, but promised it will be in future."/>
     <s v="[YORK-MUSEUM]"/>
     <s v="No obvious TYR record"/>
   </r>
@@ -11052,9 +11823,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Garden, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <m/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Casella"/>
+    <s v="This gauge was of unpainted zinc, and had a 3-inch deep snow-collecting rim, as per sketch"/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
     <m/>
   </r>
@@ -11067,9 +11839,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Garden, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <s v="Near 446"/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="-"/>
+    <s v="Formerly used at Red Hall, near Leeds, and subsequently at The Knoll, Ripon. Present position near 446 rather too sheltered"/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
     <m/>
   </r>
@@ -11082,9 +11855,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Paddock, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <m/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Casella"/>
+    <s v="Similar to 446 but in a more open position."/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
     <m/>
   </r>
@@ -11097,9 +11871,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Paddock, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <s v="Near 448"/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Casella"/>
+    <s v="Close to and similar to 448, but read monthly instead of daily."/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
     <m/>
   </r>
@@ -11112,11 +11887,12 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Exp Field, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <s v="In a railed enclsoure in a high and exposed field"/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Casella"/>
+    <s v="In a railed enclsoure in a high and exposed field. See BR 1871 engraving. Similar to 446 except snow funnel is 6 inches deep."/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
-    <s v="See BR 1871 engraving"/>
+    <m/>
   </r>
   <r>
     <n v="451"/>
@@ -11127,11 +11903,12 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Exp Field, Whitby"/>
-    <m/>
+    <s v="Colonel Ward"/>
     <s v="Rev. F.W.Stow"/>
-    <s v="In a railed enclsoure in a high and exposed field"/>
+    <s v="Casella"/>
+    <s v="In a railed enclsoure in a high and exposed field. See BR 1871 engraving."/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
-    <s v="See BR 1871 engraving"/>
+    <m/>
   </r>
   <r>
     <n v="452"/>
@@ -11142,11 +11919,12 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Exp Field, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <s v="In a railed enclsoure in a high and exposed field"/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Anon"/>
+    <s v="In a railed enclsoure in a high and exposed field. See BR 1871 engraving. 452 and 453 paired vertical and rotating horizontal gauges"/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
-    <s v="See BR 1871 engraving"/>
+    <m/>
   </r>
   <r>
     <n v="453"/>
@@ -11157,11 +11935,12 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Exp Field, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <s v="In a railed enclsoure in a high and exposed field"/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Anon"/>
+    <s v="In a railed enclsoure in a high and exposed field. See BR 1871 engraving. 452 and 453 paired vertical and rotating horizontal gauges"/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
-    <s v="See BR 1871 engraving"/>
+    <m/>
   </r>
   <r>
     <n v="454"/>
@@ -11172,11 +11951,12 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Exp Field, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <s v="In a railed enclsoure in a high and exposed field"/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Anon"/>
+    <s v="In a railed enclsoure in a high and exposed field. See BR 1871 engraving. Vertical-mouthed portion of two mouthed gauge at 5 ft."/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
-    <s v="See BR 1871 engraving"/>
+    <m/>
   </r>
   <r>
     <n v="455"/>
@@ -11187,11 +11967,12 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Exp Field, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <s v="In a railed enclsoure in a high and exposed field"/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Casella"/>
+    <s v="In a railed enclsoure in a high and exposed field. See BR 1871 engraving."/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
-    <s v="See BR 1871 engraving"/>
+    <m/>
   </r>
   <r>
     <n v="456"/>
@@ -11202,11 +11983,12 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Exp Field, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <s v="In a railed enclsoure in a high and exposed field"/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Casella"/>
+    <s v="In a railed enclsoure in a high and exposed field. See BR 1871 engraving."/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
-    <s v="See BR 1871 engraving"/>
+    <m/>
   </r>
   <r>
     <n v="457"/>
@@ -11217,11 +11999,12 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawsker Exp Field, Whitby"/>
-    <m/>
     <s v="Rev. F.W.Stow"/>
-    <s v="In a railed enclsoure in a high and exposed field"/>
+    <s v="Rev. F.W.Stow"/>
+    <s v="Anon"/>
+    <s v="In a railed enclsoure in a high and exposed field. See BR 1871 engraving. Vertical-mouthed portion of two mouthed gauge at 1 ft."/>
     <s v="WHITBY-HAWSKER-GARDEN"/>
-    <s v="See BR 1871 engraving"/>
+    <m/>
   </r>
   <r>
     <n v="458"/>
@@ -11236,6 +12019,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1872 meeting August in Brighton"/>
   </r>
   <r>
@@ -11252,6 +12036,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="460"/>
@@ -11267,6 +12052,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="461"/>
@@ -11282,6 +12068,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="462"/>
@@ -11297,6 +12084,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="463"/>
@@ -11312,6 +12100,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="464"/>
@@ -11327,6 +12116,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="465"/>
@@ -11342,6 +12132,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="466"/>
@@ -11357,6 +12148,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="467"/>
@@ -11372,6 +12164,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="468"/>
@@ -11387,6 +12180,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="469"/>
@@ -11402,6 +12196,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="470"/>
@@ -11417,6 +12212,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="471"/>
@@ -11432,6 +12228,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="472"/>
@@ -11447,6 +12244,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="473"/>
@@ -11462,6 +12260,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="474"/>
@@ -11477,6 +12276,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="475"/>
@@ -11492,6 +12292,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="476"/>
@@ -11507,6 +12308,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="477"/>
@@ -11522,6 +12324,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="478"/>
@@ -11537,6 +12340,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="479"/>
@@ -11552,6 +12356,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="480"/>
@@ -11567,6 +12372,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="481"/>
@@ -11582,6 +12388,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="482"/>
@@ -11597,6 +12404,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="483"/>
@@ -11612,6 +12420,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="484"/>
@@ -11627,6 +12436,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="485"/>
@@ -11642,6 +12452,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="486"/>
@@ -11657,6 +12468,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="487"/>
@@ -11672,6 +12484,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="488"/>
@@ -11687,6 +12500,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="489"/>
@@ -11701,6 +12515,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1873 meeting September in Bradford"/>
   </r>
   <r>
@@ -11717,6 +12532,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="491"/>
@@ -11732,6 +12548,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="492"/>
@@ -11747,6 +12564,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="493"/>
@@ -11756,6 +12574,7 @@
     <n v="3"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -11777,6 +12596,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="495"/>
@@ -11792,6 +12612,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="496"/>
@@ -11807,6 +12628,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="497"/>
@@ -11816,6 +12638,7 @@
     <n v="9"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -11837,6 +12660,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="499"/>
@@ -11852,6 +12676,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="500"/>
@@ -11861,6 +12686,7 @@
     <m/>
     <x v="2"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -11882,6 +12708,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="502"/>
@@ -11897,6 +12724,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="503"/>
@@ -11912,6 +12740,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="504"/>
@@ -11927,6 +12756,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="505"/>
@@ -11942,6 +12772,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="506"/>
@@ -11952,9 +12783,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Cherry Hill, York"/>
-    <m/>
-    <s v="H.Richardson"/>
-    <s v="In garden. Too sheltered, better spot selected"/>
+    <s v="H.Richardson, Esq."/>
+    <s v="H.Richardson, Esq."/>
+    <s v="-"/>
+    <s v="In garden. Too much sheltered by trees; better spot selected"/>
     <s v="YORK-CHERRY-HILL"/>
     <m/>
   </r>
@@ -11967,9 +12799,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Cherry Hill, York, second gauge"/>
-    <m/>
-    <s v="H.Richardson"/>
-    <m/>
+    <s v="H.Richardson, Esq."/>
+    <s v="H.Richardson, Esq."/>
+    <s v="-"/>
+    <s v="Close to 506."/>
     <s v="YORK-CHERRY-HILL"/>
     <s v="Close to 506"/>
   </r>
@@ -11987,6 +12820,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="509"/>
@@ -11999,7 +12833,8 @@
     <s v="Penistone"/>
     <m/>
     <s v="MS&amp;L Railway"/>
-    <s v="ENE of church in the yard of the old station"/>
+    <s v="Casartelli"/>
+    <s v="ENE of church in the yard of the old station."/>
     <s v="PENISTONE-RAILWAY-STATION"/>
     <m/>
   </r>
@@ -12014,7 +12849,8 @@
     <s v="Carlcotes"/>
     <m/>
     <s v="MS&amp;L Railway"/>
-    <s v="Gauge not firmly fixed"/>
+    <s v="Casartelli"/>
+    <s v="Gauge not firmly fixed."/>
     <s v="PENISTONE-CARLCOTES"/>
     <m/>
   </r>
@@ -12032,6 +12868,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="512"/>
@@ -12044,7 +12881,8 @@
     <s v="Dunford Bridge Station"/>
     <m/>
     <s v="MS&amp;L Railway"/>
-    <m/>
+    <s v="Casartelli"/>
+    <s v="Since previous testing (293) a new glass has been provided and the funnel either bent or renewed."/>
     <s v="DUNFORD-BRIDGE-STATION"/>
     <m/>
   </r>
@@ -12062,6 +12900,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="514"/>
@@ -12077,6 +12916,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="515"/>
@@ -12092,6 +12932,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="516"/>
@@ -12107,6 +12948,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="517"/>
@@ -12122,6 +12964,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="518"/>
@@ -12137,6 +12980,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="519"/>
@@ -12152,6 +12996,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="520"/>
@@ -12167,6 +13012,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="521"/>
@@ -12182,6 +13028,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="522"/>
@@ -12197,6 +13044,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="523"/>
@@ -12212,6 +13060,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="524"/>
@@ -12227,6 +13076,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="525"/>
@@ -12242,6 +13092,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="526"/>
@@ -12257,6 +13108,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="527"/>
@@ -12272,6 +13124,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="528"/>
@@ -12287,6 +13140,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="529"/>
@@ -12302,6 +13156,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="530"/>
@@ -12317,6 +13172,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="531"/>
@@ -12332,6 +13188,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="532"/>
@@ -12347,6 +13204,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="533"/>
@@ -12362,6 +13220,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="534"/>
@@ -12377,6 +13236,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="535"/>
@@ -12392,6 +13252,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="536"/>
@@ -12407,6 +13268,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="537"/>
@@ -12422,6 +13284,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="538"/>
@@ -12437,6 +13300,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="539"/>
@@ -12452,6 +13316,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="540"/>
@@ -12467,6 +13332,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="541"/>
@@ -12482,6 +13348,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="542"/>
@@ -12497,6 +13364,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="543"/>
@@ -12512,6 +13380,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="544"/>
@@ -12527,6 +13396,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="545"/>
@@ -12542,6 +13412,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="546"/>
@@ -12557,6 +13428,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="547"/>
@@ -12572,6 +13444,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="548"/>
@@ -12587,6 +13460,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="549"/>
@@ -12602,6 +13476,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="550"/>
@@ -12617,6 +13492,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="551"/>
@@ -12632,6 +13508,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="552"/>
@@ -12647,6 +13524,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="553"/>
@@ -12662,6 +13540,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="554"/>
@@ -12677,6 +13556,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="555"/>
@@ -12692,6 +13572,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="556"/>
@@ -12707,6 +13588,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="557"/>
@@ -12722,6 +13604,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="558"/>
@@ -12736,6 +13619,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -12751,6 +13635,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -12766,6 +13651,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -12781,6 +13667,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -12796,6 +13683,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -12811,6 +13699,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -12826,6 +13715,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -12842,6 +13732,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="566"/>
@@ -12851,6 +13742,7 @@
     <n v="17"/>
     <x v="2"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -12871,6 +13763,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <s v="BAAS 1874 meeting August in Belfast"/>
   </r>
   <r>
@@ -12887,6 +13780,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="569"/>
@@ -12902,6 +13796,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="570"/>
@@ -12917,6 +13812,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="571"/>
@@ -12932,6 +13828,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="572"/>
@@ -12947,6 +13844,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="573"/>
@@ -12962,6 +13860,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="574"/>
@@ -12977,6 +13876,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="575"/>
@@ -12992,6 +13892,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="576"/>
@@ -13007,6 +13908,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="577"/>
@@ -13022,6 +13924,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="578"/>
@@ -13037,6 +13940,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="579"/>
@@ -13052,6 +13956,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="580"/>
@@ -13067,6 +13972,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="581"/>
@@ -13082,6 +13988,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="582"/>
@@ -13097,6 +14004,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="583"/>
@@ -13112,6 +14020,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="584"/>
@@ -13127,6 +14036,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="585"/>
@@ -13142,6 +14052,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="586"/>
@@ -13157,6 +14068,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="587"/>
@@ -13172,6 +14084,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="588"/>
@@ -13187,6 +14100,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="589"/>
@@ -13202,6 +14116,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="590"/>
@@ -13217,6 +14132,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="591"/>
@@ -13232,6 +14148,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="592"/>
@@ -13247,6 +14164,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="593"/>
@@ -13262,6 +14180,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="594"/>
@@ -13277,6 +14196,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="595"/>
@@ -13292,6 +14212,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="596"/>
@@ -13307,6 +14228,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="597"/>
@@ -13322,6 +14244,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="598"/>
@@ -13337,6 +14260,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="599"/>
@@ -13352,6 +14276,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="600"/>
@@ -13367,6 +14292,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="601"/>
@@ -13382,6 +14308,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="602"/>
@@ -13397,6 +14324,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="603"/>
@@ -13409,7 +14337,8 @@
     <s v="Hardrow Vicarage, Hawes"/>
     <s v="Rev F.W.Stow"/>
     <s v="Rev. R.Pink"/>
-    <m/>
+    <s v="Casella"/>
+    <s v="Too much sheltered by house, but no better position obtainable; quite clear in other directions."/>
     <s v="HAWES-HARDROW-VICARAGE"/>
     <m/>
   </r>
@@ -13424,7 +14353,8 @@
     <s v="Lunds"/>
     <s v="Rev F.W.Stow"/>
     <s v="Rev. R.Pink"/>
-    <s v="Gauge tested but station not visited"/>
+    <s v="Casella"/>
+    <s v="Gauge tested, but station not visited."/>
     <s v="HAWES-LUNDS"/>
     <m/>
   </r>
@@ -13437,9 +14367,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Hawes Vicarage"/>
-    <m/>
     <s v="Rev. Dr Parker"/>
-    <m/>
+    <s v="Rev. Dr Parker"/>
+    <s v="Pastorelli"/>
+    <s v="Good position; the measuring-glass was very faulty and a new correct one supplied."/>
     <s v="HAWES-VICARAGE"/>
     <m/>
   </r>
@@ -13452,9 +14383,10 @@
     <x v="11"/>
     <x v="0"/>
     <s v="Westgate, Louth"/>
-    <m/>
     <s v="Dr Fawssett"/>
-    <s v="Good position on lawn"/>
+    <s v="Dr Fawssett"/>
+    <s v="Anon"/>
+    <s v="Good position on lawn; clear except as noted."/>
     <s v="LOUTH-WESTGATE"/>
     <m/>
   </r>
@@ -13467,9 +14399,10 @@
     <x v="11"/>
     <x v="0"/>
     <s v="Gospelgate, Louth"/>
-    <m/>
-    <s v="T.W.Wallis"/>
-    <s v="Very confined garden in centre of town"/>
+    <s v="T.W.Wallis, Esq."/>
+    <s v="T.W.Wallis, Esq."/>
+    <s v="Anon"/>
+    <s v="Very confined garden in centre of town."/>
     <s v="LOUTH-GOSPELGATE"/>
     <s v="3 inch gauge. TYR sheets shows 3&quot; gauge until 1871, 5&quot; from 1872."/>
   </r>
@@ -13482,9 +14415,10 @@
     <x v="11"/>
     <x v="0"/>
     <s v="Gospelgate, Louth"/>
-    <m/>
-    <s v="T.W.Wallis"/>
-    <s v="Close to No. 607"/>
+    <s v="T.W.Wallis, Esq."/>
+    <s v="T.W.Wallis, Esq."/>
+    <s v="Anon"/>
+    <s v="Close to  607."/>
     <s v="LOUTH-GOSPELGATE"/>
     <s v="5 inch gauge. "/>
   </r>
@@ -13497,11 +14431,12 @@
     <x v="11"/>
     <x v="0"/>
     <s v="Calcethorpe Manor, Louth"/>
-    <m/>
-    <s v="D.G.Briggs"/>
-    <s v="Very open position on large lawn"/>
+    <s v="D.G.Briggs, Esq."/>
+    <s v="D.G.Briggs, Esq."/>
+    <s v="Anon"/>
+    <s v="Very open position on large lawn."/>
     <s v="LOUTH-CALCETHORPE"/>
-    <s v="8 inch gauge. Clarifies location as Calcethorpe Manor rather than Calcethorpe House"/>
+    <s v="8 inch gauge. Clarifies TYR Calcethorpe location as Calcethorpe Manor rather than Calcethorpe House"/>
   </r>
   <r>
     <n v="610"/>
@@ -13512,9 +14447,10 @@
     <x v="11"/>
     <x v="0"/>
     <s v="Calcethorpe Manor, Louth"/>
-    <m/>
-    <s v="D.G.Briggs"/>
-    <s v="Very open position on large lawn"/>
+    <s v="D.G.Briggs, Esq."/>
+    <s v="D.G.Briggs, Esq."/>
+    <s v="Anon"/>
+    <s v="Close to  609."/>
     <s v="LOUTH-CALCETHORPE"/>
     <s v="5 inch gauge"/>
   </r>
@@ -13532,6 +14468,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="612"/>
@@ -13547,6 +14484,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="613"/>
@@ -13562,6 +14500,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="614"/>
@@ -13571,6 +14510,7 @@
     <n v="17"/>
     <x v="20"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -13592,6 +14532,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="616"/>
@@ -13607,6 +14548,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="617"/>
@@ -13622,6 +14564,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="618"/>
@@ -13637,6 +14580,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="619"/>
@@ -13652,6 +14596,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="620"/>
@@ -13667,6 +14612,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="621"/>
@@ -13676,6 +14622,7 @@
     <n v="28"/>
     <x v="23"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -13697,6 +14644,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="623"/>
@@ -13712,6 +14660,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="624"/>
@@ -13727,6 +14676,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="625"/>
@@ -13742,6 +14692,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="626"/>
@@ -13757,6 +14708,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="627"/>
@@ -13772,6 +14724,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="628"/>
@@ -13787,6 +14740,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="629"/>
@@ -13802,6 +14756,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="630"/>
@@ -13811,11 +14766,12 @@
     <n v="31"/>
     <x v="54"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="South Parade, Clifton"/>
+    <s v="Dr G.F. Burder"/>
+    <s v="Dr Burder"/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="In garden at back of house, and much sheltered"/>
+    <s v="CLIFTON-SOUTH-PARADE"/>
     <s v="BAAS 1875 meeting August in Bristol"/>
   </r>
   <r>
@@ -13826,11 +14782,12 @@
     <n v="10"/>
     <x v="19"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Martinhoe"/>
+    <s v="Rev C. Scriven"/>
+    <s v="Rev C. Scriven"/>
+    <s v="Casella"/>
+    <s v="Gauge only emptied at intervals, and monthly total recorded."/>
+    <s v="MARTINHOE-RECTORY"/>
     <m/>
   </r>
   <r>
@@ -13841,11 +14798,12 @@
     <n v="11"/>
     <x v="19"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Ilfracombe Hotel"/>
+    <s v="Ilfracombe Hotel Comp"/>
+    <s v="Mr Tatham"/>
+    <s v="Anon"/>
+    <s v="On apex of a summer-house like, thermometer-stand, in grounds of hotel"/>
+    <s v="ILFRACOMBE-HOTEL"/>
     <m/>
   </r>
   <r>
@@ -13856,11 +14814,12 @@
     <n v="7"/>
     <x v="18"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Raby Castle"/>
+    <s v="G.J. Symons Esq"/>
+    <s v="Mr Westcott"/>
+    <s v="Casella"/>
+    <s v="In garden N. of castle; clear, except as noted."/>
+    <s v="STAINDROP-RABY-CASTLE"/>
     <m/>
   </r>
   <r>
@@ -13871,11 +14830,12 @@
     <n v="7"/>
     <x v="18"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Whorlton"/>
+    <s v="Rev A.W. Headlam"/>
+    <s v="Rev A.W. Headlam"/>
+    <s v="Anon"/>
+    <s v="This is evidently a 5-in. glass applied to a 5.6in. Diameter; hence the recorded fall is too large."/>
+    <s v="WHORLTON-VICARAGE"/>
     <m/>
   </r>
   <r>
@@ -13887,8 +14847,9 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Great Ayton, Middlesborough"/>
-    <m/>
     <s v="Mr Dixon"/>
+    <s v="Mr Dixon"/>
+    <s v="Anon"/>
     <s v="Gauge on a pedestal, very ricketty and not well attended to"/>
     <s v="[Not found]"/>
     <s v="Listed out of order"/>
@@ -13901,11 +14862,12 @@
     <n v="26"/>
     <x v="15"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="St.Augustin’s Monastery, Ramsgate"/>
+    <s v="Rev.Father Quelch"/>
+    <s v="Rev.Father Quelch"/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="Good position in garden of Monastery."/>
+    <s v="RAMSGATE-ST-AUGUSTINES"/>
     <m/>
   </r>
   <r>
@@ -13916,11 +14878,12 @@
     <n v="25"/>
     <x v="18"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Egglescliffe"/>
+    <s v="Rev.J.Hull"/>
+    <s v="The Gardener"/>
+    <s v="Casella"/>
+    <s v="Gauge on lawn. Trees rather too close, but probably not sensibly injurous."/>
+    <s v="YARM-RECTORY"/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -13931,11 +14894,12 @@
     <n v="1"/>
     <x v="20"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="The Green, Marlborough"/>
+    <s v="Rev.T.A.Preston"/>
+    <s v="Rev.T.A.Preston"/>
+    <s v="Casella"/>
+    <s v="In meteorological enclosure, 30 feet from nearest (low) building."/>
+    <s v="MARLBOROUGH-THE-GREEN"/>
     <m/>
   </r>
   <r>
@@ -13946,11 +14910,12 @@
     <n v="3"/>
     <x v="54"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="County Asylum, Gloucester"/>
+    <s v="Dr.Toller"/>
+    <m/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="Gauge had been struck by a mowing machine and very much indented."/>
+    <s v="GLOUCESTER ASYLUM"/>
     <m/>
   </r>
   <r>
@@ -13961,11 +14926,12 @@
     <n v="5"/>
     <x v="55"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Richmond Place, Hereford"/>
+    <s v="E.J.Isbell, Esq"/>
+    <s v="E.J.Isbell, Esq"/>
+    <s v="-"/>
+    <s v="In small garden in rear of house. Gauge fixed in a box upon a post."/>
+    <s v="HEREFORD-RICHMOND-PLACE"/>
     <m/>
   </r>
   <r>
@@ -13976,11 +14942,12 @@
     <n v="5"/>
     <x v="55"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="The Asylum, Hereford"/>
+    <s v="T.A.Chapman Esq MD."/>
+    <s v="T.A.Chapman Esq MD."/>
+    <s v="-"/>
+    <s v="Perfectly clear on open lawn"/>
+    <s v="HEREFORD-BURGHILL"/>
     <m/>
   </r>
   <r>
@@ -13991,11 +14958,12 @@
     <n v="4"/>
     <x v="55"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="The Graig, Ross"/>
+    <s v="H.Southall Esq"/>
+    <s v="H.Southall Esq"/>
+    <s v="-"/>
+    <s v="On lawn; good exposure except as noted."/>
+    <s v="ROSS-THE-GRAIG-BIRCHLEA"/>
     <s v="Listed out of order"/>
   </r>
   <r>
@@ -14006,11 +14974,12 @@
     <n v="8"/>
     <x v="53"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Rhiwbrifdir"/>
+    <s v="Major Mathew"/>
+    <s v="Mr.O.Jones"/>
+    <s v="Casella"/>
+    <s v="In angle of a stack of slates, in the best position the works afford."/>
+    <s v="BLAENAU-FESTINIOG-OAKELEY-QUARRY"/>
     <m/>
   </r>
   <r>
@@ -14021,11 +14990,12 @@
     <n v="9"/>
     <x v="27"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Warwick House, Llandudno"/>
+    <s v="Dr.Nicol"/>
+    <s v="Dr.Nicol"/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="In garden at front of house, rather sheltered."/>
+    <s v="LLANDUDNO"/>
     <m/>
   </r>
   <r>
@@ -14036,11 +15006,12 @@
     <n v="20"/>
     <x v="31"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Hillington School"/>
+    <s v="RevH.Ffolkes"/>
+    <s v="RevH.Ffolkes"/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="In garden at front of school, on a short post."/>
+    <s v="HILLINGTON-SCHOOL"/>
     <m/>
   </r>
   <r>
@@ -14051,11 +15022,12 @@
     <n v="20"/>
     <x v="31"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Hillington Rectory"/>
+    <s v="RevH.Ffolkes"/>
+    <s v="RevH.Ffolkes"/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="On lawn near Rectory"/>
+    <s v="HILLINGTON"/>
     <m/>
   </r>
   <r>
@@ -14066,11 +15038,12 @@
     <n v="21"/>
     <x v="7"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="The Observatory, Cambridge"/>
+    <s v="The Observatory"/>
+    <s v="Mr.Todd"/>
+    <s v="Casella"/>
+    <s v="Gauge in garden of the Observatory, fair position."/>
+    <s v="CAMBRIDGE-OBSERVATORY"/>
     <m/>
   </r>
   <r>
@@ -14081,11 +15054,12 @@
     <n v="16"/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Kirkby Stephen"/>
+    <s v="T.Mason Esq"/>
+    <s v="T.Mason Esq"/>
+    <s v="Casella"/>
+    <s v="On edge of path in garden; no better position available"/>
+    <s v="KIRKBY-STEPHEN-REDMAN-HOUSE"/>
     <m/>
   </r>
   <r>
@@ -14096,11 +15070,12 @@
     <n v="16"/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Appleby"/>
+    <s v="Dr Armstrong"/>
+    <s v="Dr Armstrong"/>
+    <s v="-"/>
+    <s v="Gauge in garden E of house. It appears to have been made by Mr.Marshall of Kendal; the receptacle being broken, a new gauge was supplied."/>
+    <s v="APPLEBY-WESTMORLAND"/>
     <m/>
   </r>
   <r>
@@ -14112,9 +15087,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Mickleton"/>
-    <s v="G.J.Symons"/>
+    <s v="G.J.Symons, Esq."/>
     <s v="Mr Wade"/>
-    <s v="In small enclosed paddock near middle of the village"/>
+    <s v="Casella"/>
+    <s v="In small enclosed paddock near the middle of the village"/>
     <s v="MICKLETON-LIME-KILN"/>
     <m/>
   </r>
@@ -14126,11 +15102,12 @@
     <n v="17"/>
     <x v="18"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Gainford"/>
+    <s v="A.Atkinson Esq"/>
+    <s v="A.Atkinson Esq"/>
+    <s v="Casella"/>
+    <s v="Mr.Atkinson has recently started a new verified 5-in. Snowdon pattern rain-gauge 3 feet N. of the above."/>
+    <s v="GAINFORD"/>
     <m/>
   </r>
   <r>
@@ -14142,9 +15119,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Barningham Park"/>
-    <m/>
-    <s v="A. Sussex Millbank"/>
-    <s v="On lawn, SSW of house"/>
+    <s v="A. Sussex Millbank, Esq."/>
+    <s v="A. Sussex Millbank, Esq."/>
+    <s v="Anon"/>
+    <s v="On lawn, SSW of house."/>
     <s v="BARNINGHAM-PARK"/>
     <m/>
   </r>
@@ -14157,9 +15135,10 @@
     <x v="13"/>
     <x v="0"/>
     <s v="Rokeby Rectory"/>
-    <m/>
     <s v="Rev. H.Clarke"/>
-    <s v="In rectory garden, near corner of lawn"/>
+    <s v="Rev. H.Clarke"/>
+    <s v="Casella"/>
+    <s v="In Rectory garden, near corner of lawn"/>
     <s v="Leftover: ROKEBY-RECTORY"/>
     <s v="Only active for about 6 months"/>
   </r>
@@ -14171,11 +15150,12 @@
     <n v="18"/>
     <x v="18"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Wolsingham"/>
+    <s v="Mr.A.Mitchell"/>
+    <s v="Mr.A.Mitchell"/>
+    <s v="Anon"/>
+    <s v="In garden N. of house; fairly open."/>
+    <s v="WOLSINGHAM"/>
     <m/>
   </r>
   <r>
@@ -14186,11 +15166,12 @@
     <n v="20"/>
     <x v="17"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Allenheads"/>
+    <s v="W.B.Beaumont Esq"/>
+    <s v="Mr.Kidd"/>
+    <s v="Negretti &amp; Zambra"/>
+    <s v="In small yard at rear of mining offices"/>
+    <s v="ALLENHEADS"/>
     <m/>
   </r>
   <r>
@@ -14201,6 +15182,7 @@
     <m/>
     <x v="56"/>
     <x v="4"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -14212,7 +15194,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD096DB2-442F-4612-8F3D-D1EFC0B6F17B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD096DB2-442F-4612-8F3D-D1EFC0B6F17B}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:Q14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -14357,9 +15339,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A38ECAE7-D632-4441-B165-31B1A98EF597}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A38ECAE7-D632-4441-B165-31B1A98EF597}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C61" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
+  <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -14449,6 +15431,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -14648,7 +15631,7 @@
   </pageFields>
   <dataFields count="2">
     <dataField name="Count of Ref. No." fld="0" subtotal="count" baseField="6" baseItem="0"/>
-    <dataField name="RR Assignments" fld="11" subtotal="count" baseField="5" baseItem="58"/>
+    <dataField name="RR Assignments" fld="12" subtotal="count" baseField="5" baseItem="58"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -14982,8 +15965,10 @@
   <dimension ref="A1:N656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A611" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K636" sqref="K636"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14998,8 +15983,8 @@
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.28515625" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="89" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15035,7 +16020,7 @@
         <v>103</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>104</v>
@@ -15072,17 +16057,20 @@
       <c r="H2" t="s">
         <v>106</v>
       </c>
+      <c r="I2" t="s">
+        <v>304</v>
+      </c>
       <c r="J2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="K2" t="s">
-        <v>246</v>
-      </c>
-      <c r="L2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>98</v>
@@ -15891,22 +16879,22 @@
         <v>14</v>
       </c>
       <c r="H34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" t="s">
         <v>110</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>206</v>
+      </c>
+      <c r="L34" t="s">
         <v>111</v>
       </c>
-      <c r="K34" t="s">
-        <v>247</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="M34" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="N34" t="s">
-        <v>113</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -15932,16 +16920,19 @@
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J35" t="s">
-        <v>116</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>248</v>
+        <v>207</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -15967,19 +16958,19 @@
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J36" t="s">
-        <v>119</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -16005,19 +16996,19 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="L37" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -16091,19 +17082,19 @@
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="L40" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -16129,19 +17120,19 @@
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="L41" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -16167,19 +17158,19 @@
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>315</v>
       </c>
       <c r="K42" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s">
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -16349,22 +17340,22 @@
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J49" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="K49" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="L49" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="N49" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -16390,19 +17381,19 @@
         <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="J50" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="K50" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L50" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -16428,16 +17419,19 @@
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="J51" t="s">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="K51" t="s">
-        <v>249</v>
+        <v>208</v>
+      </c>
+      <c r="L51" t="s">
+        <v>318</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -16463,16 +17457,16 @@
         <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K52" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="L52" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -19654,22 +20648,22 @@
         <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="J183" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K183" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="L183" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="N183" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -22353,19 +23347,19 @@
         <v>14</v>
       </c>
       <c r="H294" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="J294" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K294" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="L294" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="M294" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -22391,19 +23385,19 @@
         <v>14</v>
       </c>
       <c r="H295" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="J295" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K295" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="L295" t="s">
-        <v>180</v>
+        <v>321</v>
       </c>
       <c r="M295" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -22525,19 +23519,19 @@
         <v>14</v>
       </c>
       <c r="H300" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="J300" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K300" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="L300" t="s">
-        <v>183</v>
+        <v>322</v>
       </c>
       <c r="M300" s="4" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -25941,22 +26935,22 @@
         <v>14</v>
       </c>
       <c r="H441" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I441" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J441" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="K441" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L441" t="s">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="M441" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
@@ -26054,25 +27048,25 @@
         <v>14</v>
       </c>
       <c r="H445" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="I445" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J445" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="K445" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L445" t="s">
-        <v>192</v>
+        <v>324</v>
       </c>
       <c r="M445" s="4" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="N445" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.25">
@@ -26098,25 +27092,25 @@
         <v>14</v>
       </c>
       <c r="H446" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="I446" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J446" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="K446" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L446" t="s">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="M446" s="4" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="N446" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.25">
@@ -26142,16 +27136,22 @@
         <v>14</v>
       </c>
       <c r="H447" t="s">
-        <v>197</v>
+        <v>170</v>
+      </c>
+      <c r="I447" t="s">
+        <v>171</v>
       </c>
       <c r="J447" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K447" t="s">
-        <v>248</v>
+        <v>207</v>
+      </c>
+      <c r="L447" t="s">
+        <v>326</v>
       </c>
       <c r="M447" s="4" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
@@ -26177,19 +27177,22 @@
         <v>14</v>
       </c>
       <c r="H448" t="s">
-        <v>197</v>
+        <v>170</v>
+      </c>
+      <c r="I448" t="s">
+        <v>171</v>
       </c>
       <c r="J448" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K448" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="L448" t="s">
-        <v>201</v>
+        <v>328</v>
       </c>
       <c r="M448" s="4" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.25">
@@ -26215,16 +27218,22 @@
         <v>14</v>
       </c>
       <c r="H449" t="s">
-        <v>199</v>
+        <v>172</v>
+      </c>
+      <c r="I449" t="s">
+        <v>171</v>
       </c>
       <c r="J449" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K449" t="s">
-        <v>248</v>
+        <v>207</v>
+      </c>
+      <c r="L449" t="s">
+        <v>329</v>
       </c>
       <c r="M449" s="4" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.25">
@@ -26250,19 +27259,22 @@
         <v>14</v>
       </c>
       <c r="H450" t="s">
-        <v>199</v>
+        <v>172</v>
+      </c>
+      <c r="I450" t="s">
+        <v>171</v>
       </c>
       <c r="J450" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K450" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L450" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="M450" s="4" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.25">
@@ -26288,22 +27300,22 @@
         <v>14</v>
       </c>
       <c r="H451" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="I451" t="s">
+        <v>171</v>
       </c>
       <c r="J451" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K451" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L451" t="s">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="M451" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N451" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.25">
@@ -26329,22 +27341,22 @@
         <v>14</v>
       </c>
       <c r="H452" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="I452" t="s">
+        <v>327</v>
       </c>
       <c r="J452" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K452" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L452" t="s">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="M452" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N452" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.25">
@@ -26370,22 +27382,22 @@
         <v>14</v>
       </c>
       <c r="H453" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="I453" t="s">
+        <v>171</v>
       </c>
       <c r="J453" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K453" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L453" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="M453" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N453" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.25">
@@ -26411,22 +27423,22 @@
         <v>14</v>
       </c>
       <c r="H454" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="I454" t="s">
+        <v>171</v>
       </c>
       <c r="J454" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K454" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L454" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="M454" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N454" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.25">
@@ -26452,22 +27464,22 @@
         <v>14</v>
       </c>
       <c r="H455" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="I455" t="s">
+        <v>171</v>
       </c>
       <c r="J455" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K455" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L455" t="s">
-        <v>203</v>
+        <v>335</v>
       </c>
       <c r="M455" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N455" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.25">
@@ -26493,22 +27505,22 @@
         <v>14</v>
       </c>
       <c r="H456" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="I456" t="s">
+        <v>171</v>
       </c>
       <c r="J456" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K456" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L456" t="s">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="M456" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N456" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.25">
@@ -26534,22 +27546,22 @@
         <v>14</v>
       </c>
       <c r="H457" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="I457" t="s">
+        <v>171</v>
       </c>
       <c r="J457" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K457" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L457" t="s">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="M457" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N457" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
@@ -26575,22 +27587,22 @@
         <v>14</v>
       </c>
       <c r="H458" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="I458" t="s">
+        <v>171</v>
       </c>
       <c r="J458" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K458" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L458" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="M458" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N458" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.25">
@@ -27777,19 +28789,22 @@
         <v>14</v>
       </c>
       <c r="H507" t="s">
+        <v>175</v>
+      </c>
+      <c r="I507" t="s">
+        <v>336</v>
+      </c>
+      <c r="J507" t="s">
+        <v>336</v>
+      </c>
+      <c r="K507" t="s">
         <v>206</v>
       </c>
-      <c r="J507" t="s">
-        <v>207</v>
-      </c>
-      <c r="K507" t="s">
-        <v>247</v>
-      </c>
       <c r="L507" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="M507" s="4" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.25">
@@ -27815,19 +28830,25 @@
         <v>14</v>
       </c>
       <c r="H508" t="s">
-        <v>208</v>
+        <v>176</v>
+      </c>
+      <c r="I508" t="s">
+        <v>336</v>
       </c>
       <c r="J508" t="s">
-        <v>207</v>
+        <v>336</v>
       </c>
       <c r="K508" t="s">
-        <v>247</v>
+        <v>206</v>
+      </c>
+      <c r="L508" t="s">
+        <v>338</v>
       </c>
       <c r="M508" s="4" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="N508" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.25">
@@ -27877,19 +28898,19 @@
         <v>14</v>
       </c>
       <c r="H510" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="J510" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K510" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="L510" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="M510" s="4" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.25">
@@ -27915,19 +28936,19 @@
         <v>14</v>
       </c>
       <c r="H511" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="J511" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K511" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="L511" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="M511" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
@@ -27977,16 +28998,19 @@
         <v>14</v>
       </c>
       <c r="H513" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="J513" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="K513" t="s">
-        <v>252</v>
+        <v>211</v>
+      </c>
+      <c r="L513" t="s">
+        <v>341</v>
       </c>
       <c r="M513" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
@@ -30202,19 +31226,22 @@
         <v>14</v>
       </c>
       <c r="H604" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="I604" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="J604" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="K604" t="s">
-        <v>248</v>
+        <v>207</v>
+      </c>
+      <c r="L604" t="s">
+        <v>342</v>
       </c>
       <c r="M604" s="4" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.25">
@@ -30240,22 +31267,22 @@
         <v>14</v>
       </c>
       <c r="H605" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="I605" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="J605" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="K605" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L605" t="s">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="M605" s="4" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.25">
@@ -30281,16 +31308,22 @@
         <v>14</v>
       </c>
       <c r="H606" t="s">
-        <v>222</v>
+        <v>186</v>
+      </c>
+      <c r="I606" t="s">
+        <v>187</v>
       </c>
       <c r="J606" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="K606" t="s">
-        <v>254</v>
+        <v>213</v>
+      </c>
+      <c r="L606" t="s">
+        <v>344</v>
       </c>
       <c r="M606" s="4" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.25">
@@ -30316,19 +31349,22 @@
         <v>14</v>
       </c>
       <c r="H607" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="I607" t="s">
+        <v>120</v>
       </c>
       <c r="J607" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K607" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L607" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="M607" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="608" spans="1:14" x14ac:dyDescent="0.25">
@@ -30354,22 +31390,25 @@
         <v>14</v>
       </c>
       <c r="H608" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="I608" t="s">
+        <v>345</v>
       </c>
       <c r="J608" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="K608" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L608" t="s">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="M608" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="N608" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.25">
@@ -30395,22 +31434,25 @@
         <v>14</v>
       </c>
       <c r="H609" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="I609" t="s">
+        <v>345</v>
       </c>
       <c r="J609" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="K609" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L609" t="s">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="M609" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="N609" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.25">
@@ -30436,22 +31478,25 @@
         <v>14</v>
       </c>
       <c r="H610" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="I610" t="s">
+        <v>346</v>
       </c>
       <c r="J610" t="s">
-        <v>138</v>
+        <v>346</v>
       </c>
       <c r="K610" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L610" t="s">
-        <v>139</v>
+        <v>351</v>
       </c>
       <c r="M610" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="N610" t="s">
-        <v>142</v>
+        <v>352</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.25">
@@ -30477,22 +31522,25 @@
         <v>14</v>
       </c>
       <c r="H611" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="I611" t="s">
+        <v>346</v>
       </c>
       <c r="J611" t="s">
-        <v>138</v>
+        <v>346</v>
       </c>
       <c r="K611" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L611" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="M611" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="N611" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.25">
@@ -30979,7 +32027,24 @@
       <c r="G631" t="s">
         <v>14</v>
       </c>
-      <c r="M631" s="4"/>
+      <c r="H631" t="s">
+        <v>214</v>
+      </c>
+      <c r="I631" t="s">
+        <v>215</v>
+      </c>
+      <c r="J631" t="s">
+        <v>216</v>
+      </c>
+      <c r="K631" t="s">
+        <v>208</v>
+      </c>
+      <c r="L631" t="s">
+        <v>217</v>
+      </c>
+      <c r="M631" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="N631" t="s">
         <v>92</v>
       </c>
@@ -31006,7 +32071,24 @@
       <c r="G632" t="s">
         <v>14</v>
       </c>
-      <c r="M632" s="4"/>
+      <c r="H632" t="s">
+        <v>219</v>
+      </c>
+      <c r="I632" t="s">
+        <v>220</v>
+      </c>
+      <c r="J632" t="s">
+        <v>220</v>
+      </c>
+      <c r="K632" t="s">
+        <v>207</v>
+      </c>
+      <c r="L632" t="s">
+        <v>221</v>
+      </c>
+      <c r="M632" s="4" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633">
@@ -31030,7 +32112,24 @@
       <c r="G633" t="s">
         <v>14</v>
       </c>
-      <c r="M633" s="4"/>
+      <c r="H633" t="s">
+        <v>223</v>
+      </c>
+      <c r="I633" t="s">
+        <v>224</v>
+      </c>
+      <c r="J633" t="s">
+        <v>225</v>
+      </c>
+      <c r="K633" t="s">
+        <v>212</v>
+      </c>
+      <c r="L633" t="s">
+        <v>226</v>
+      </c>
+      <c r="M633" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634">
@@ -31054,7 +32153,24 @@
       <c r="G634" t="s">
         <v>14</v>
       </c>
-      <c r="M634" s="4"/>
+      <c r="H634" t="s">
+        <v>228</v>
+      </c>
+      <c r="I634" t="s">
+        <v>229</v>
+      </c>
+      <c r="J634" t="s">
+        <v>230</v>
+      </c>
+      <c r="K634" t="s">
+        <v>207</v>
+      </c>
+      <c r="L634" t="s">
+        <v>231</v>
+      </c>
+      <c r="M634" s="4" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635">
@@ -31078,7 +32194,24 @@
       <c r="G635" t="s">
         <v>14</v>
       </c>
-      <c r="M635" s="4"/>
+      <c r="H635" t="s">
+        <v>233</v>
+      </c>
+      <c r="I635" t="s">
+        <v>234</v>
+      </c>
+      <c r="J635" t="s">
+        <v>234</v>
+      </c>
+      <c r="K635" t="s">
+        <v>212</v>
+      </c>
+      <c r="L635" t="s">
+        <v>235</v>
+      </c>
+      <c r="M635" s="4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636">
@@ -31103,19 +32236,22 @@
         <v>14</v>
       </c>
       <c r="H636" t="s">
-        <v>225</v>
+        <v>189</v>
+      </c>
+      <c r="I636" t="s">
+        <v>190</v>
       </c>
       <c r="J636" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K636" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L636" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="M636" s="4" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="N636" t="s">
         <v>100</v>
@@ -31143,7 +32279,24 @@
       <c r="G637" t="s">
         <v>14</v>
       </c>
-      <c r="M637" s="4"/>
+      <c r="H637" t="s">
+        <v>237</v>
+      </c>
+      <c r="I637" t="s">
+        <v>238</v>
+      </c>
+      <c r="J637" t="s">
+        <v>238</v>
+      </c>
+      <c r="K637" t="s">
+        <v>208</v>
+      </c>
+      <c r="L637" t="s">
+        <v>239</v>
+      </c>
+      <c r="M637" s="4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638">
@@ -31167,7 +32320,24 @@
       <c r="G638" t="s">
         <v>14</v>
       </c>
-      <c r="M638" s="4"/>
+      <c r="H638" t="s">
+        <v>241</v>
+      </c>
+      <c r="I638" t="s">
+        <v>242</v>
+      </c>
+      <c r="J638" t="s">
+        <v>243</v>
+      </c>
+      <c r="K638" t="s">
+        <v>207</v>
+      </c>
+      <c r="L638" t="s">
+        <v>244</v>
+      </c>
+      <c r="M638" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="N638" t="s">
         <v>100</v>
       </c>
@@ -31194,7 +32364,24 @@
       <c r="G639" t="s">
         <v>14</v>
       </c>
-      <c r="M639" s="4"/>
+      <c r="H639" t="s">
+        <v>245</v>
+      </c>
+      <c r="I639" t="s">
+        <v>246</v>
+      </c>
+      <c r="J639" t="s">
+        <v>246</v>
+      </c>
+      <c r="K639" t="s">
+        <v>207</v>
+      </c>
+      <c r="L639" t="s">
+        <v>247</v>
+      </c>
+      <c r="M639" s="4" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640">
@@ -31218,7 +32405,21 @@
       <c r="G640" t="s">
         <v>14</v>
       </c>
-      <c r="M640" s="4"/>
+      <c r="H640" t="s">
+        <v>249</v>
+      </c>
+      <c r="I640" t="s">
+        <v>250</v>
+      </c>
+      <c r="K640" t="s">
+        <v>208</v>
+      </c>
+      <c r="L640" t="s">
+        <v>251</v>
+      </c>
+      <c r="M640" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641">
@@ -31242,7 +32443,24 @@
       <c r="G641" t="s">
         <v>14</v>
       </c>
-      <c r="M641" s="4"/>
+      <c r="H641" t="s">
+        <v>253</v>
+      </c>
+      <c r="I641" t="s">
+        <v>254</v>
+      </c>
+      <c r="J641" t="s">
+        <v>254</v>
+      </c>
+      <c r="K641" t="s">
+        <v>206</v>
+      </c>
+      <c r="L641" t="s">
+        <v>255</v>
+      </c>
+      <c r="M641" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642">
@@ -31266,7 +32484,24 @@
       <c r="G642" t="s">
         <v>14</v>
       </c>
-      <c r="M642" s="4"/>
+      <c r="H642" t="s">
+        <v>257</v>
+      </c>
+      <c r="I642" t="s">
+        <v>258</v>
+      </c>
+      <c r="J642" t="s">
+        <v>258</v>
+      </c>
+      <c r="K642" t="s">
+        <v>206</v>
+      </c>
+      <c r="L642" t="s">
+        <v>259</v>
+      </c>
+      <c r="M642" s="8" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A643">
@@ -31290,7 +32525,24 @@
       <c r="G643" t="s">
         <v>14</v>
       </c>
-      <c r="M643" s="4"/>
+      <c r="H643" t="s">
+        <v>260</v>
+      </c>
+      <c r="I643" t="s">
+        <v>261</v>
+      </c>
+      <c r="J643" t="s">
+        <v>261</v>
+      </c>
+      <c r="K643" t="s">
+        <v>206</v>
+      </c>
+      <c r="L643" t="s">
+        <v>262</v>
+      </c>
+      <c r="M643" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="N643" t="s">
         <v>100</v>
       </c>
@@ -31317,7 +32569,24 @@
       <c r="G644" t="s">
         <v>50</v>
       </c>
-      <c r="M644" s="4"/>
+      <c r="H644" t="s">
+        <v>263</v>
+      </c>
+      <c r="I644" t="s">
+        <v>264</v>
+      </c>
+      <c r="J644" t="s">
+        <v>265</v>
+      </c>
+      <c r="K644" t="s">
+        <v>207</v>
+      </c>
+      <c r="L644" t="s">
+        <v>266</v>
+      </c>
+      <c r="M644" s="8" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A645">
@@ -31341,7 +32610,24 @@
       <c r="G645" t="s">
         <v>50</v>
       </c>
-      <c r="M645" s="4"/>
+      <c r="H645" t="s">
+        <v>267</v>
+      </c>
+      <c r="I645" t="s">
+        <v>268</v>
+      </c>
+      <c r="J645" t="s">
+        <v>268</v>
+      </c>
+      <c r="K645" t="s">
+        <v>208</v>
+      </c>
+      <c r="L645" t="s">
+        <v>269</v>
+      </c>
+      <c r="M645" s="8" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A646">
@@ -31365,7 +32651,24 @@
       <c r="G646" t="s">
         <v>14</v>
       </c>
-      <c r="M646" s="4"/>
+      <c r="H646" t="s">
+        <v>270</v>
+      </c>
+      <c r="I646" t="s">
+        <v>271</v>
+      </c>
+      <c r="J646" t="s">
+        <v>271</v>
+      </c>
+      <c r="K646" t="s">
+        <v>208</v>
+      </c>
+      <c r="L646" t="s">
+        <v>272</v>
+      </c>
+      <c r="M646" s="4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A647">
@@ -31389,7 +32692,24 @@
       <c r="G647" t="s">
         <v>14</v>
       </c>
-      <c r="M647" s="4"/>
+      <c r="H647" t="s">
+        <v>274</v>
+      </c>
+      <c r="I647" t="s">
+        <v>271</v>
+      </c>
+      <c r="J647" t="s">
+        <v>271</v>
+      </c>
+      <c r="K647" t="s">
+        <v>208</v>
+      </c>
+      <c r="L647" t="s">
+        <v>275</v>
+      </c>
+      <c r="M647" s="4" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A648">
@@ -31413,7 +32733,24 @@
       <c r="G648" t="s">
         <v>14</v>
       </c>
-      <c r="M648" s="4"/>
+      <c r="H648" t="s">
+        <v>277</v>
+      </c>
+      <c r="I648" t="s">
+        <v>278</v>
+      </c>
+      <c r="J648" t="s">
+        <v>279</v>
+      </c>
+      <c r="K648" t="s">
+        <v>207</v>
+      </c>
+      <c r="L648" t="s">
+        <v>280</v>
+      </c>
+      <c r="M648" s="4" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A649">
@@ -31437,7 +32774,24 @@
       <c r="G649" t="s">
         <v>14</v>
       </c>
-      <c r="M649" s="4"/>
+      <c r="H649" t="s">
+        <v>282</v>
+      </c>
+      <c r="I649" t="s">
+        <v>283</v>
+      </c>
+      <c r="J649" t="s">
+        <v>283</v>
+      </c>
+      <c r="K649" t="s">
+        <v>207</v>
+      </c>
+      <c r="L649" t="s">
+        <v>284</v>
+      </c>
+      <c r="M649" s="4" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A650">
@@ -31461,7 +32815,24 @@
       <c r="G650" t="s">
         <v>14</v>
       </c>
-      <c r="M650" s="4"/>
+      <c r="H650" t="s">
+        <v>286</v>
+      </c>
+      <c r="I650" t="s">
+        <v>287</v>
+      </c>
+      <c r="J650" t="s">
+        <v>287</v>
+      </c>
+      <c r="K650" t="s">
+        <v>206</v>
+      </c>
+      <c r="L650" t="s">
+        <v>288</v>
+      </c>
+      <c r="M650" s="4" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A651">
@@ -31486,22 +32857,22 @@
         <v>14</v>
       </c>
       <c r="H651" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="I651" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="J651" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="K651" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L651" t="s">
-        <v>232</v>
+        <v>354</v>
       </c>
       <c r="M651" s="4" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.25">
@@ -31526,7 +32897,24 @@
       <c r="G652" t="s">
         <v>14</v>
       </c>
-      <c r="M652" s="4"/>
+      <c r="H652" t="s">
+        <v>290</v>
+      </c>
+      <c r="I652" t="s">
+        <v>291</v>
+      </c>
+      <c r="J652" t="s">
+        <v>291</v>
+      </c>
+      <c r="K652" t="s">
+        <v>207</v>
+      </c>
+      <c r="L652" t="s">
+        <v>292</v>
+      </c>
+      <c r="M652" s="4" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A653">
@@ -31551,19 +32939,22 @@
         <v>14</v>
       </c>
       <c r="H653" t="s">
-        <v>233</v>
+        <v>195</v>
+      </c>
+      <c r="I653" t="s">
+        <v>355</v>
       </c>
       <c r="J653" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="K653" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="L653" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="M653" s="4" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.25">
@@ -31589,22 +32980,25 @@
         <v>14</v>
       </c>
       <c r="H654" t="s">
-        <v>238</v>
+        <v>198</v>
+      </c>
+      <c r="I654" t="s">
+        <v>199</v>
       </c>
       <c r="J654" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="K654" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L654" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="M654" s="4" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="N654" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.25">
@@ -31629,7 +33023,24 @@
       <c r="G655" t="s">
         <v>14</v>
       </c>
-      <c r="M655" s="4"/>
+      <c r="H655" t="s">
+        <v>295</v>
+      </c>
+      <c r="I655" t="s">
+        <v>296</v>
+      </c>
+      <c r="J655" t="s">
+        <v>296</v>
+      </c>
+      <c r="K655" t="s">
+        <v>212</v>
+      </c>
+      <c r="L655" t="s">
+        <v>297</v>
+      </c>
+      <c r="M655" s="4" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="656" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="3">
@@ -31653,12 +33064,24 @@
       <c r="G656" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H656" s="3"/>
-      <c r="I656" s="3"/>
-      <c r="J656" s="3"/>
-      <c r="K656" s="3"/>
-      <c r="L656" s="3"/>
-      <c r="M656" s="5"/>
+      <c r="H656" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I656" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J656" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K656" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L656" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M656" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="N656" s="3"/>
     </row>
   </sheetData>
@@ -31949,7 +33372,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31970,7 +33393,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -31981,17 +33404,17 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>80</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>38</v>
       </c>
     </row>
@@ -31999,149 +33422,175 @@
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>73</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>69</v>
       </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>50</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>45</v>
       </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>42</v>
       </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>24</v>
       </c>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>22</v>
       </c>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="9">
         <v>19</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="9">
         <v>18</v>
       </c>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="9">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="9">
         <v>11</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="9">
         <v>11</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="9">
         <v>9</v>
       </c>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="9">
         <v>9</v>
       </c>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="9">
         <v>8</v>
       </c>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="9">
         <v>8</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
         <v>8</v>
       </c>
     </row>
@@ -32149,26 +33598,28 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="9">
         <v>7</v>
       </c>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="9">
         <v>7</v>
       </c>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="9">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="9">
         <v>1</v>
       </c>
     </row>
@@ -32176,191 +33627,227 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="9">
         <v>7</v>
       </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="9">
         <v>6</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="9">
         <v>6</v>
       </c>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="9">
         <v>6</v>
       </c>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="9">
         <v>5</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="9">
         <v>2</v>
       </c>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="9">
         <v>2</v>
       </c>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="9">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9">
         <v>2</v>
       </c>
     </row>
@@ -32368,91 +33855,101 @@
       <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="9">
         <v>2</v>
       </c>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="9">
         <v>1</v>
       </c>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="9">
         <v>1</v>
       </c>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>71</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="9">
         <v>1</v>
       </c>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="9">
         <v>1</v>
       </c>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="9">
         <v>1</v>
       </c>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="9">
         <v>1</v>
       </c>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>96</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="9">
         <v>1</v>
       </c>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="9">
         <v>1</v>
       </c>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="9">
         <v>1</v>
       </c>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="9">
         <v>655</v>
       </c>
-      <c r="C61">
-        <v>48</v>
+      <c r="C61" s="9">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/BritishAssociationReports/BAAS_Inspections.xlsx
+++ b/BritishAssociationReports/BAAS_Inspections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\BritishRainfall\BritishAssociationReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFF514-6963-4B93-B96C-B0BD33AE6B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1DEC1E-8698-4FBC-AD0D-1C0E1B5E29FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{165AC260-63B9-4BEA-BDF9-867FB820D959}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8048" uniqueCount="2939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8050" uniqueCount="2940">
   <si>
     <t>Report year</t>
   </si>
@@ -8869,6 +8869,9 @@
   </si>
   <si>
     <t>Leftover: EXETER-ALBERT-TERRACE-VICARY</t>
+  </si>
+  <si>
+    <t>Actually Kent not Sussex</t>
   </si>
 </sst>
 </file>
@@ -27020,10 +27023,10 @@
   <dimension ref="A1:S656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="O126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S147" sqref="S147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34510,7 +34513,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -34560,7 +34563,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -34613,7 +34616,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -34666,7 +34669,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -34719,7 +34722,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -34772,7 +34775,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -34822,7 +34825,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -34872,7 +34875,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -34925,7 +34928,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -34972,7 +34975,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -35021,8 +35024,11 @@
       <c r="R154" s="9" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -35068,8 +35074,11 @@
       <c r="R155" s="9" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -35119,7 +35128,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -35172,7 +35181,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -35216,7 +35225,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -35272,7 +35281,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
